--- a/tests/cascade2p.xlsx
+++ b/tests/cascade2p.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" state="visible" r:id="rId2"/>
@@ -497,17 +497,15 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="8">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* \-??_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="0%"/>
-    <numFmt numFmtId="168" formatCode="0"/>
-    <numFmt numFmtId="169" formatCode="0.00E+00"/>
-    <numFmt numFmtId="170" formatCode="0.00%"/>
-    <numFmt numFmtId="171" formatCode="#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="0"/>
+    <numFmt numFmtId="166" formatCode="0.00E+00"/>
+    <numFmt numFmtId="167" formatCode="0.00%"/>
+    <numFmt numFmtId="168" formatCode="#,##0.00"/>
+    <numFmt numFmtId="169" formatCode="0%"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -530,16 +528,8 @@
       <family val="0"/>
     </font>
     <font>
-      <u val="single"/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
+      <sz val="20"/>
+      <color rgb="FFD5AA1D"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -547,13 +537,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="20"/>
-      <color rgb="FFD5AA1D"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -648,7 +631,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="124">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -672,556 +655,132 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="168" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="122" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="122" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="122" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="169" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="122" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="169" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="6" borderId="1" xfId="122" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="122" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="6" fillId="6" borderId="1" xfId="122" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="168" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="6" fillId="6" borderId="1" xfId="122" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="110">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Comma 2" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Comma 3" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 10" xfId="22" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 11" xfId="23" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 12" xfId="24" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 13" xfId="25" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 14" xfId="26" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 15" xfId="27" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 16" xfId="28" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 17" xfId="29" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 18" xfId="30" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 19" xfId="31" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 2" xfId="32" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 20" xfId="33" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 21" xfId="34" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 22" xfId="35" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 23" xfId="36" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 24" xfId="37" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 25" xfId="38" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 26" xfId="39" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 27" xfId="40" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 28" xfId="41" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 29" xfId="42" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 3" xfId="43" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 30" xfId="44" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 31" xfId="45" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 32" xfId="46" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 33" xfId="47" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 34" xfId="48" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 35" xfId="49" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 36" xfId="50" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 37" xfId="51" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 38" xfId="52" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 39" xfId="53" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 4" xfId="54" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 40" xfId="55" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 41" xfId="56" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 42" xfId="57" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 43" xfId="58" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 44" xfId="59" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 45" xfId="60" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 46" xfId="61" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 47" xfId="62" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 48" xfId="63" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 49" xfId="64" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 5" xfId="65" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 50" xfId="66" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 51" xfId="67" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 52" xfId="68" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 53" xfId="69" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 54" xfId="70" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 55" xfId="71" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 56" xfId="72" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 57" xfId="73" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 58" xfId="74" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 59" xfId="75" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 6" xfId="76" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 60" xfId="77" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 61" xfId="78" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 62" xfId="79" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 63" xfId="80" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 64" xfId="81" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 65" xfId="82" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 66" xfId="83" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 67" xfId="84" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 68" xfId="85" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 69" xfId="86" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 7" xfId="87" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 70" xfId="88" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 71" xfId="89" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 72" xfId="90" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 73" xfId="91" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 74" xfId="92" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 75" xfId="93" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 76" xfId="94" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 77" xfId="95" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 78" xfId="96" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 79" xfId="97" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 8" xfId="98" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 80" xfId="99" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 81" xfId="100" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 82" xfId="101" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 83" xfId="102" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 84" xfId="103" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 85" xfId="104" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 86" xfId="105" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 87" xfId="106" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 88" xfId="107" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 89" xfId="108" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 9" xfId="109" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 90" xfId="110" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 91" xfId="111" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 92" xfId="112" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 93" xfId="113" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 94" xfId="114" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 95" xfId="115" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 96" xfId="116" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 97" xfId="117" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 98" xfId="118" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Normal 2" xfId="119" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Normal 3" xfId="120" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Normal 4" xfId="121" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Normal 5" xfId="122" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Percent 2" xfId="123" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -1291,15 +850,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
+      <xdr:colOff>81000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>102960</xdr:colOff>
+      <xdr:colOff>156240</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>37800</xdr:rowOff>
+      <xdr:rowOff>37080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1308,8 +867,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="27000" y="0"/>
-          <a:ext cx="10693080" cy="7086240"/>
+          <a:off x="81000" y="0"/>
+          <a:ext cx="12368520" cy="7123680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1336,15 +895,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
+      <xdr:colOff>81000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>102960</xdr:colOff>
+      <xdr:colOff>156240</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>37800</xdr:rowOff>
+      <xdr:rowOff>37080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1353,8 +912,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="27000" y="0"/>
-          <a:ext cx="10693080" cy="7086240"/>
+          <a:off x="81000" y="0"/>
+          <a:ext cx="12368520" cy="7123680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1381,15 +940,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
+      <xdr:colOff>81000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>102960</xdr:colOff>
+      <xdr:colOff>156240</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>37800</xdr:rowOff>
+      <xdr:rowOff>37080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1398,8 +957,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="27000" y="0"/>
-          <a:ext cx="10693080" cy="7086240"/>
+          <a:off x="81000" y="0"/>
+          <a:ext cx="12368520" cy="7123680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1426,15 +985,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
+      <xdr:colOff>81000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>102960</xdr:colOff>
+      <xdr:colOff>156240</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>37800</xdr:rowOff>
+      <xdr:rowOff>37080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1443,8 +1002,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="27000" y="0"/>
-          <a:ext cx="10693080" cy="7086240"/>
+          <a:off x="81000" y="0"/>
+          <a:ext cx="12368520" cy="7123680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1471,15 +1030,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
+      <xdr:colOff>81000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>102960</xdr:colOff>
+      <xdr:colOff>156240</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>37800</xdr:rowOff>
+      <xdr:rowOff>37080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1488,8 +1047,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="27000" y="0"/>
-          <a:ext cx="10693080" cy="7086240"/>
+          <a:off x="81000" y="0"/>
+          <a:ext cx="12368520" cy="7123680"/>
         </a:xfrm>
         <a:solidFill>
           <a:srgbClr val="ffffff"/>
@@ -1518,15 +1077,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
+      <xdr:colOff>81000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>102960</xdr:colOff>
+      <xdr:colOff>156240</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>37800</xdr:rowOff>
+      <xdr:rowOff>37080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1535,8 +1094,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="27000" y="0"/>
-          <a:ext cx="10693080" cy="7295760"/>
+          <a:off x="81000" y="0"/>
+          <a:ext cx="12368520" cy="7314120"/>
         </a:xfrm>
         <a:solidFill>
           <a:srgbClr val="ffffff"/>
@@ -1565,15 +1124,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
+      <xdr:colOff>81000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>102960</xdr:colOff>
+      <xdr:colOff>156240</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>95040</xdr:rowOff>
+      <xdr:rowOff>94320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1582,8 +1141,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="27000" y="0"/>
-          <a:ext cx="10693080" cy="8324640"/>
+          <a:off x="81000" y="0"/>
+          <a:ext cx="12368520" cy="8438040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1610,15 +1169,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
+      <xdr:colOff>81000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>102960</xdr:colOff>
+      <xdr:colOff>156240</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>95040</xdr:rowOff>
+      <xdr:rowOff>94320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1627,8 +1186,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="27000" y="0"/>
-          <a:ext cx="10693080" cy="8324640"/>
+          <a:off x="81000" y="0"/>
+          <a:ext cx="12368520" cy="8438040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1655,15 +1214,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
+      <xdr:colOff>81000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>102960</xdr:colOff>
+      <xdr:colOff>156240</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>95040</xdr:rowOff>
+      <xdr:rowOff>94320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1672,8 +1231,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="27000" y="0"/>
-          <a:ext cx="10693080" cy="8324640"/>
+          <a:off x="81000" y="0"/>
+          <a:ext cx="12368520" cy="8438040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1700,15 +1259,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
+      <xdr:colOff>81000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>102960</xdr:colOff>
+      <xdr:colOff>156240</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>95040</xdr:rowOff>
+      <xdr:rowOff>94320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1717,8 +1276,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="27000" y="0"/>
-          <a:ext cx="10693080" cy="8324640"/>
+          <a:off x="81000" y="0"/>
+          <a:ext cx="12368520" cy="8438040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1745,15 +1304,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
+      <xdr:colOff>81000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>102960</xdr:colOff>
+      <xdr:colOff>156240</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>95040</xdr:rowOff>
+      <xdr:rowOff>94320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1762,8 +1321,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="27000" y="0"/>
-          <a:ext cx="10693080" cy="9658080"/>
+          <a:off x="81000" y="0"/>
+          <a:ext cx="12368520" cy="9771480"/>
         </a:xfrm>
         <a:solidFill>
           <a:srgbClr val="ffffff"/>
@@ -1792,15 +1351,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
+      <xdr:colOff>81000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>102960</xdr:colOff>
+      <xdr:colOff>156240</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>56880</xdr:rowOff>
+      <xdr:rowOff>56160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1809,8 +1368,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="27000" y="0"/>
-          <a:ext cx="10693080" cy="7467120"/>
+          <a:off x="81000" y="0"/>
+          <a:ext cx="12368520" cy="7809480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1837,15 +1396,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
+      <xdr:colOff>81000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>102960</xdr:colOff>
+      <xdr:colOff>156240</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>56880</xdr:rowOff>
+      <xdr:rowOff>56160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1854,8 +1413,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="27000" y="0"/>
-          <a:ext cx="10693080" cy="7467120"/>
+          <a:off x="81000" y="0"/>
+          <a:ext cx="12368520" cy="7809480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1882,15 +1441,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
+      <xdr:colOff>81000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>102960</xdr:colOff>
+      <xdr:colOff>156240</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>56880</xdr:rowOff>
+      <xdr:rowOff>56160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1899,8 +1458,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="27000" y="0"/>
-          <a:ext cx="10693080" cy="7467120"/>
+          <a:off x="81000" y="0"/>
+          <a:ext cx="12368520" cy="7809480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1927,15 +1486,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
+      <xdr:colOff>81000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>102960</xdr:colOff>
+      <xdr:colOff>156240</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>56880</xdr:rowOff>
+      <xdr:rowOff>56160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1944,8 +1503,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="27000" y="0"/>
-          <a:ext cx="10693080" cy="7467120"/>
+          <a:off x="81000" y="0"/>
+          <a:ext cx="12368520" cy="7809480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1972,15 +1531,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
+      <xdr:colOff>81000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>102960</xdr:colOff>
+      <xdr:colOff>156240</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>56880</xdr:rowOff>
+      <xdr:rowOff>56160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1989,8 +1548,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="27000" y="0"/>
-          <a:ext cx="10693080" cy="9753120"/>
+          <a:off x="81000" y="0"/>
+          <a:ext cx="12368520" cy="10095480"/>
         </a:xfrm>
         <a:solidFill>
           <a:srgbClr val="ffffff"/>
@@ -2019,15 +1578,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
+      <xdr:colOff>81000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>102960</xdr:colOff>
+      <xdr:colOff>156240</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>95040</xdr:rowOff>
+      <xdr:rowOff>94320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2036,8 +1595,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="27000" y="0"/>
-          <a:ext cx="10693080" cy="9524520"/>
+          <a:off x="81000" y="0"/>
+          <a:ext cx="12368520" cy="9866880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2064,15 +1623,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
+      <xdr:colOff>81000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>102960</xdr:colOff>
+      <xdr:colOff>156240</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>95040</xdr:rowOff>
+      <xdr:rowOff>94320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2081,8 +1640,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="27000" y="0"/>
-          <a:ext cx="10693080" cy="9524520"/>
+          <a:off x="81000" y="0"/>
+          <a:ext cx="12368520" cy="9866880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2109,15 +1668,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
+      <xdr:colOff>81000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>102960</xdr:colOff>
+      <xdr:colOff>156240</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>95040</xdr:rowOff>
+      <xdr:rowOff>94320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2126,8 +1685,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="27000" y="0"/>
-          <a:ext cx="10693080" cy="9524520"/>
+          <a:off x="81000" y="0"/>
+          <a:ext cx="12368520" cy="9866880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2154,15 +1713,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
+      <xdr:colOff>81000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>102960</xdr:colOff>
+      <xdr:colOff>156240</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>95040</xdr:rowOff>
+      <xdr:rowOff>94320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2171,8 +1730,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="27000" y="0"/>
-          <a:ext cx="10693080" cy="9524520"/>
+          <a:off x="81000" y="0"/>
+          <a:ext cx="12368520" cy="9866880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2199,15 +1758,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
+      <xdr:colOff>81000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>102960</xdr:colOff>
+      <xdr:colOff>156240</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>95040</xdr:rowOff>
+      <xdr:rowOff>94320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2216,8 +1775,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="27000" y="0"/>
-          <a:ext cx="10693080" cy="9524520"/>
+          <a:off x="81000" y="0"/>
+          <a:ext cx="12368520" cy="9866880"/>
         </a:xfrm>
         <a:solidFill>
           <a:srgbClr val="ffffff"/>
@@ -2254,8 +1813,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="96.7908163265306"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="9.4030612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="112.841836734694"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="9.16836734693878"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2312,8 +1871,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="35" min="1" style="0" width="9.4030612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="36" style="0" width="18.6938775510204"/>
+    <col collapsed="false" hidden="false" max="35" min="1" style="0" width="10.8877551020408"/>
+    <col collapsed="false" hidden="false" max="1025" min="36" style="0" width="9.16836734693878"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2613,41 +2172,41 @@
         <f aca="false">Populations!$C$3</f>
         <v>M 15-49</v>
       </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="20"/>
-      <c r="O10" s="20"/>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="20"/>
-      <c r="R10" s="20"/>
-      <c r="S10" s="20"/>
-      <c r="T10" s="20"/>
-      <c r="U10" s="20"/>
-      <c r="V10" s="20"/>
-      <c r="W10" s="20"/>
-      <c r="X10" s="20"/>
-      <c r="Y10" s="20"/>
-      <c r="Z10" s="20"/>
-      <c r="AA10" s="20"/>
-      <c r="AB10" s="20"/>
-      <c r="AC10" s="20"/>
-      <c r="AD10" s="20"/>
-      <c r="AE10" s="20"/>
-      <c r="AF10" s="20"/>
-      <c r="AG10" s="20"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="19"/>
+      <c r="T10" s="19"/>
+      <c r="U10" s="19"/>
+      <c r="V10" s="19"/>
+      <c r="W10" s="19"/>
+      <c r="X10" s="19"/>
+      <c r="Y10" s="19"/>
+      <c r="Z10" s="19"/>
+      <c r="AA10" s="19"/>
+      <c r="AB10" s="19"/>
+      <c r="AC10" s="19"/>
+      <c r="AD10" s="19"/>
+      <c r="AE10" s="19"/>
+      <c r="AF10" s="19"/>
+      <c r="AG10" s="19"/>
       <c r="AH10" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="AI10" s="20" t="n">
+      <c r="AI10" s="19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2656,41 +2215,41 @@
         <f aca="false">Populations!$C$4</f>
         <v>F 15-49</v>
       </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="20"/>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="20"/>
-      <c r="R11" s="20"/>
-      <c r="S11" s="20"/>
-      <c r="T11" s="20"/>
-      <c r="U11" s="20"/>
-      <c r="V11" s="20"/>
-      <c r="W11" s="20"/>
-      <c r="X11" s="20"/>
-      <c r="Y11" s="20"/>
-      <c r="Z11" s="20"/>
-      <c r="AA11" s="20"/>
-      <c r="AB11" s="20"/>
-      <c r="AC11" s="20"/>
-      <c r="AD11" s="20"/>
-      <c r="AE11" s="20"/>
-      <c r="AF11" s="20"/>
-      <c r="AG11" s="20"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="19"/>
+      <c r="T11" s="19"/>
+      <c r="U11" s="19"/>
+      <c r="V11" s="19"/>
+      <c r="W11" s="19"/>
+      <c r="X11" s="19"/>
+      <c r="Y11" s="19"/>
+      <c r="Z11" s="19"/>
+      <c r="AA11" s="19"/>
+      <c r="AB11" s="19"/>
+      <c r="AC11" s="19"/>
+      <c r="AD11" s="19"/>
+      <c r="AE11" s="19"/>
+      <c r="AF11" s="19"/>
+      <c r="AG11" s="19"/>
       <c r="AH11" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="AI11" s="20" t="n">
+      <c r="AI11" s="19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2863,10 +2422,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="9.4030612244898"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="13.6530612244898"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="9.4030612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="18.6938775510204"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="10.8877551020408"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.8316326530612"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="10.8877551020408"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.16836734693878"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3106,135 +2665,122 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.4030612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="43.9285714285714"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.4030612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.16836734693878"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="51.1428571428572"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.16836734693878"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
     </row>
     <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="16" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="16"/>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="27" t="n">
+      <c r="C3" s="26" t="n">
         <v>0.0004</v>
       </c>
-      <c r="D3" s="27" t="n">
+      <c r="D3" s="26" t="n">
         <v>0.0001</v>
       </c>
-      <c r="E3" s="27" t="n">
+      <c r="E3" s="26" t="n">
         <v>0.0014</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="16"/>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="27" t="n">
+      <c r="C4" s="26" t="n">
         <v>0.0008</v>
       </c>
-      <c r="D4" s="27" t="n">
+      <c r="D4" s="26" t="n">
         <v>0.0006</v>
       </c>
-      <c r="E4" s="27" t="n">
+      <c r="E4" s="26" t="n">
         <v>0.0011</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="16"/>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="27" t="n">
+      <c r="C5" s="26" t="n">
         <v>0.0138</v>
       </c>
-      <c r="D5" s="27" t="n">
+      <c r="D5" s="26" t="n">
         <v>0.0102</v>
       </c>
-      <c r="E5" s="27" t="n">
+      <c r="E5" s="26" t="n">
         <v>0.0186</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="16"/>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="27" t="n">
+      <c r="C6" s="26" t="n">
         <v>0.0011</v>
       </c>
-      <c r="D6" s="27" t="n">
+      <c r="D6" s="26" t="n">
         <v>0.0004</v>
       </c>
-      <c r="E6" s="27" t="n">
+      <c r="E6" s="26" t="n">
         <v>0.0028</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="16"/>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="C7" s="27" t="n">
+      <c r="C7" s="26" t="n">
         <v>0.008</v>
       </c>
-      <c r="D7" s="27" t="n">
+      <c r="D7" s="26" t="n">
         <v>0.0063</v>
       </c>
-      <c r="E7" s="27" t="n">
+      <c r="E7" s="26" t="n">
         <v>0.024</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="16"/>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="C8" s="27" t="n">
+      <c r="C8" s="26" t="n">
         <v>0.367</v>
       </c>
-      <c r="D8" s="27" t="n">
+      <c r="D8" s="26" t="n">
         <v>0.294</v>
       </c>
-      <c r="E8" s="27" t="n">
+      <c r="E8" s="26" t="n">
         <v>0.44</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="16"/>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="C9" s="27" t="n">
+      <c r="C9" s="26" t="n">
         <v>0.205</v>
       </c>
-      <c r="D9" s="27" t="n">
+      <c r="D9" s="26" t="n">
         <v>0.14</v>
       </c>
-      <c r="E9" s="27" t="n">
+      <c r="E9" s="26" t="n">
         <v>0.27</v>
       </c>
     </row>
@@ -3251,111 +2797,99 @@
       <c r="A13" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
     </row>
     <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="16"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="17" t="s">
+      <c r="E14" s="16" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="16"/>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="C15" s="28" t="n">
+      <c r="C15" s="27" t="n">
         <v>26.03</v>
       </c>
-      <c r="D15" s="28" t="n">
+      <c r="D15" s="27" t="n">
         <v>2</v>
       </c>
-      <c r="E15" s="28" t="n">
+      <c r="E15" s="27" t="n">
         <v>48.02</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="16"/>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="C16" s="28" t="n">
+      <c r="C16" s="27" t="n">
         <v>1</v>
       </c>
-      <c r="D16" s="28" t="n">
+      <c r="D16" s="27" t="n">
         <v>1</v>
       </c>
-      <c r="E16" s="28" t="n">
+      <c r="E16" s="27" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="16"/>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="C17" s="28" t="n">
+      <c r="C17" s="27" t="n">
         <v>1</v>
       </c>
-      <c r="D17" s="28" t="n">
+      <c r="D17" s="27" t="n">
         <v>1</v>
       </c>
-      <c r="E17" s="28" t="n">
+      <c r="E17" s="27" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="16"/>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="C18" s="28" t="n">
+      <c r="C18" s="27" t="n">
         <v>1</v>
       </c>
-      <c r="D18" s="28" t="n">
+      <c r="D18" s="27" t="n">
         <v>1</v>
       </c>
-      <c r="E18" s="28" t="n">
+      <c r="E18" s="27" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="16"/>
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="C19" s="28" t="n">
+      <c r="C19" s="27" t="n">
         <v>3.49</v>
       </c>
-      <c r="D19" s="28" t="n">
+      <c r="D19" s="27" t="n">
         <v>1.76</v>
       </c>
-      <c r="E19" s="28" t="n">
+      <c r="E19" s="27" t="n">
         <v>6.92</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="16"/>
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="C20" s="28" t="n">
+      <c r="C20" s="27" t="n">
         <v>7.17</v>
       </c>
-      <c r="D20" s="28" t="n">
+      <c r="D20" s="27" t="n">
         <v>3.9</v>
       </c>
-      <c r="E20" s="28" t="n">
+      <c r="E20" s="27" t="n">
         <v>12.08</v>
       </c>
     </row>
@@ -3372,96 +2906,85 @@
       <c r="A24" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
     </row>
     <row r="25" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="16"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="17" t="s">
+      <c r="C25" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D25" s="17" t="s">
+      <c r="D25" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E25" s="17" t="s">
+      <c r="E25" s="16" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="16"/>
-      <c r="B26" s="26" t="s">
+      <c r="B26" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="C26" s="19" t="n">
+      <c r="C26" s="18" t="n">
         <v>4.14</v>
       </c>
-      <c r="D26" s="19" t="n">
+      <c r="D26" s="18" t="n">
         <v>2</v>
       </c>
-      <c r="E26" s="19" t="n">
+      <c r="E26" s="18" t="n">
         <v>9.76</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="16"/>
-      <c r="B27" s="26" t="s">
+      <c r="B27" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="C27" s="19" t="n">
+      <c r="C27" s="18" t="n">
         <v>1.05</v>
       </c>
-      <c r="D27" s="19" t="n">
+      <c r="D27" s="18" t="n">
         <v>0.86</v>
       </c>
-      <c r="E27" s="19" t="n">
+      <c r="E27" s="18" t="n">
         <v>1.61</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="16"/>
-      <c r="B28" s="26" t="s">
+      <c r="B28" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="C28" s="19" t="n">
+      <c r="C28" s="18" t="n">
         <v>0.33</v>
       </c>
-      <c r="D28" s="19" t="n">
+      <c r="D28" s="18" t="n">
         <v>0.32</v>
       </c>
-      <c r="E28" s="19" t="n">
+      <c r="E28" s="18" t="n">
         <v>0.35</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="16"/>
-      <c r="B29" s="26" t="s">
+      <c r="B29" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="C29" s="19" t="n">
+      <c r="C29" s="18" t="n">
         <v>0.27</v>
       </c>
-      <c r="D29" s="19" t="n">
+      <c r="D29" s="18" t="n">
         <v>0.25</v>
       </c>
-      <c r="E29" s="19" t="n">
+      <c r="E29" s="18" t="n">
         <v>0.29</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="16"/>
-      <c r="B30" s="26" t="s">
+      <c r="B30" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="C30" s="19" t="n">
+      <c r="C30" s="18" t="n">
         <v>0.67</v>
       </c>
-      <c r="D30" s="19" t="n">
+      <c r="D30" s="18" t="n">
         <v>0.44</v>
       </c>
-      <c r="E30" s="19" t="n">
+      <c r="E30" s="18" t="n">
         <v>0.88</v>
       </c>
     </row>
@@ -3478,81 +3001,71 @@
       <c r="A34" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="B34" s="16"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
     </row>
     <row r="35" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="16"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="17" t="s">
+      <c r="C35" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D35" s="17" t="s">
+      <c r="D35" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E35" s="17" t="s">
+      <c r="E35" s="16" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="16"/>
-      <c r="B36" s="26" t="s">
+      <c r="B36" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="C36" s="19" t="n">
+      <c r="C36" s="18" t="n">
         <v>0.45</v>
       </c>
-      <c r="D36" s="19" t="n">
+      <c r="D36" s="18" t="n">
         <v>0.14</v>
       </c>
-      <c r="E36" s="19" t="n">
+      <c r="E36" s="18" t="n">
         <v>0.93</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="16"/>
-      <c r="B37" s="26" t="s">
+      <c r="B37" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="C37" s="19" t="n">
+      <c r="C37" s="18" t="n">
         <v>0.7</v>
       </c>
-      <c r="D37" s="19" t="n">
+      <c r="D37" s="18" t="n">
         <v>0.29</v>
       </c>
-      <c r="E37" s="19" t="n">
+      <c r="E37" s="18" t="n">
         <v>1.11</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="16"/>
-      <c r="B38" s="26" t="s">
+      <c r="B38" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="C38" s="19" t="n">
+      <c r="C38" s="18" t="n">
         <v>0.47</v>
       </c>
-      <c r="D38" s="19" t="n">
+      <c r="D38" s="18" t="n">
         <v>0.33</v>
       </c>
-      <c r="E38" s="19" t="n">
+      <c r="E38" s="18" t="n">
         <v>0.72</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="16"/>
-      <c r="B39" s="26" t="s">
+      <c r="B39" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="C39" s="19" t="n">
+      <c r="C39" s="18" t="n">
         <v>1.52</v>
       </c>
-      <c r="D39" s="19" t="n">
+      <c r="D39" s="18" t="n">
         <v>1.06</v>
       </c>
-      <c r="E39" s="19" t="n">
+      <c r="E39" s="18" t="n">
         <v>1.96</v>
       </c>
     </row>
@@ -3569,141 +3082,127 @@
       <c r="A43" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="B43" s="16"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="16"/>
     </row>
     <row r="44" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="16"/>
-      <c r="B44" s="16"/>
-      <c r="C44" s="17" t="s">
+      <c r="C44" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D44" s="17" t="s">
+      <c r="D44" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E44" s="17" t="s">
+      <c r="E44" s="16" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="16"/>
-      <c r="B45" s="26" t="s">
+      <c r="B45" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="C45" s="27" t="n">
+      <c r="C45" s="26" t="n">
         <v>0.0036</v>
       </c>
-      <c r="D45" s="27" t="n">
+      <c r="D45" s="26" t="n">
         <v>0.0029</v>
       </c>
-      <c r="E45" s="27" t="n">
+      <c r="E45" s="26" t="n">
         <v>0.0044</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="16"/>
-      <c r="B46" s="26" t="s">
+      <c r="B46" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="C46" s="27" t="n">
+      <c r="C46" s="26" t="n">
         <v>0.0036</v>
       </c>
-      <c r="D46" s="27" t="n">
+      <c r="D46" s="26" t="n">
         <v>0.0029</v>
       </c>
-      <c r="E46" s="27" t="n">
+      <c r="E46" s="26" t="n">
         <v>0.0044</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="16"/>
-      <c r="B47" s="26" t="s">
+      <c r="B47" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="C47" s="27" t="n">
+      <c r="C47" s="26" t="n">
         <v>0.0058</v>
       </c>
-      <c r="D47" s="27" t="n">
+      <c r="D47" s="26" t="n">
         <v>0.0048</v>
       </c>
-      <c r="E47" s="27" t="n">
+      <c r="E47" s="26" t="n">
         <v>0.0071</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="16"/>
-      <c r="B48" s="26" t="s">
+      <c r="B48" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="C48" s="27" t="n">
+      <c r="C48" s="26" t="n">
         <v>0.0088</v>
       </c>
-      <c r="D48" s="27" t="n">
+      <c r="D48" s="26" t="n">
         <v>0.075</v>
       </c>
-      <c r="E48" s="27" t="n">
+      <c r="E48" s="26" t="n">
         <v>0.0101</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="16"/>
-      <c r="B49" s="26" t="s">
+      <c r="B49" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="C49" s="27" t="n">
+      <c r="C49" s="26" t="n">
         <v>0.059</v>
       </c>
-      <c r="D49" s="27" t="n">
+      <c r="D49" s="26" t="n">
         <v>0.054</v>
       </c>
-      <c r="E49" s="27" t="n">
+      <c r="E49" s="26" t="n">
         <v>0.079</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="16"/>
-      <c r="B50" s="26" t="s">
+      <c r="B50" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="C50" s="27" t="n">
+      <c r="C50" s="26" t="n">
         <v>0.323</v>
       </c>
-      <c r="D50" s="27" t="n">
+      <c r="D50" s="26" t="n">
         <v>0.296</v>
       </c>
-      <c r="E50" s="27" t="n">
+      <c r="E50" s="26" t="n">
         <v>0.432</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="16"/>
-      <c r="B51" s="26" t="s">
+      <c r="B51" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="C51" s="27" t="n">
+      <c r="C51" s="26" t="n">
         <v>0.23</v>
       </c>
-      <c r="D51" s="27" t="n">
+      <c r="D51" s="26" t="n">
         <v>0.15</v>
       </c>
-      <c r="E51" s="27" t="n">
+      <c r="E51" s="26" t="n">
         <v>0.3</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="16"/>
-      <c r="B52" s="26" t="s">
+      <c r="B52" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="C52" s="27" t="n">
+      <c r="C52" s="26" t="n">
         <v>2.17</v>
       </c>
-      <c r="D52" s="27" t="n">
+      <c r="D52" s="26" t="n">
         <v>1.27</v>
       </c>
-      <c r="E52" s="27" t="n">
+      <c r="E52" s="26" t="n">
         <v>3.71</v>
       </c>
     </row>
@@ -3720,195 +3219,179 @@
       <c r="A56" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="B56" s="16"/>
-      <c r="C56" s="16"/>
-      <c r="D56" s="16"/>
-      <c r="E56" s="16"/>
     </row>
     <row r="57" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="16"/>
-      <c r="B57" s="16"/>
-      <c r="C57" s="17" t="s">
+      <c r="C57" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D57" s="17" t="s">
+      <c r="D57" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E57" s="17" t="s">
+      <c r="E57" s="16" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="16"/>
-      <c r="B58" s="26" t="s">
+      <c r="B58" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="C58" s="19" t="n">
+      <c r="C58" s="18" t="n">
         <v>0.95</v>
       </c>
-      <c r="D58" s="19" t="n">
+      <c r="D58" s="18" t="n">
         <v>0.8</v>
       </c>
-      <c r="E58" s="19" t="n">
+      <c r="E58" s="18" t="n">
         <v>0.98</v>
       </c>
-      <c r="G58" s="29"/>
-      <c r="H58" s="29"/>
-      <c r="I58" s="29"/>
+      <c r="G58" s="28"/>
+      <c r="H58" s="28"/>
+      <c r="I58" s="28"/>
     </row>
     <row r="59" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="16"/>
-      <c r="B59" s="26" t="s">
+      <c r="B59" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="C59" s="19" t="n">
+      <c r="C59" s="18" t="n">
         <v>0.58</v>
       </c>
-      <c r="D59" s="19" t="n">
+      <c r="D59" s="18" t="n">
         <v>0.47</v>
       </c>
-      <c r="E59" s="19" t="n">
+      <c r="E59" s="18" t="n">
         <v>0.67</v>
       </c>
-      <c r="G59" s="29"/>
-      <c r="H59" s="29"/>
-      <c r="I59" s="29"/>
+      <c r="G59" s="28"/>
+      <c r="H59" s="28"/>
+      <c r="I59" s="28"/>
     </row>
     <row r="60" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="16"/>
-      <c r="B60" s="26" t="s">
+      <c r="B60" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="C60" s="19" t="n">
+      <c r="C60" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="D60" s="19" t="n">
+      <c r="D60" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="E60" s="19" t="n">
+      <c r="E60" s="18" t="n">
         <v>0.68</v>
       </c>
-      <c r="G60" s="29"/>
-      <c r="H60" s="29"/>
-      <c r="I60" s="29"/>
+      <c r="G60" s="28"/>
+      <c r="H60" s="28"/>
+      <c r="I60" s="28"/>
     </row>
     <row r="61" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="16"/>
-      <c r="B61" s="26" t="s">
+      <c r="B61" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="C61" s="19" t="n">
+      <c r="C61" s="18" t="n">
         <v>2.65</v>
       </c>
-      <c r="D61" s="19" t="n">
+      <c r="D61" s="18" t="n">
         <v>1.35</v>
       </c>
-      <c r="E61" s="19" t="n">
+      <c r="E61" s="18" t="n">
         <v>5.19</v>
       </c>
-      <c r="G61" s="29"/>
-      <c r="H61" s="29"/>
-      <c r="I61" s="29"/>
+      <c r="G61" s="28"/>
+      <c r="H61" s="28"/>
+      <c r="I61" s="28"/>
     </row>
     <row r="62" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="16"/>
-      <c r="B62" s="26" t="s">
+      <c r="B62" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="C62" s="19" t="n">
+      <c r="C62" s="18" t="n">
         <v>0.54</v>
       </c>
-      <c r="D62" s="19" t="n">
+      <c r="D62" s="18" t="n">
         <v>0.33</v>
       </c>
-      <c r="E62" s="19" t="n">
+      <c r="E62" s="18" t="n">
         <v>0.68</v>
       </c>
-      <c r="G62" s="29"/>
-      <c r="H62" s="29"/>
-      <c r="I62" s="29"/>
+      <c r="G62" s="28"/>
+      <c r="H62" s="28"/>
+      <c r="I62" s="28"/>
     </row>
     <row r="63" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="16"/>
-      <c r="B63" s="26" t="s">
+      <c r="B63" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="C63" s="19" t="n">
+      <c r="C63" s="18" t="n">
         <v>0.9</v>
       </c>
-      <c r="D63" s="19" t="n">
+      <c r="D63" s="18" t="n">
         <v>0.82</v>
       </c>
-      <c r="E63" s="19" t="n">
+      <c r="E63" s="18" t="n">
         <v>0.93</v>
       </c>
-      <c r="G63" s="29"/>
-      <c r="H63" s="29"/>
-      <c r="I63" s="29"/>
+      <c r="G63" s="28"/>
+      <c r="H63" s="28"/>
+      <c r="I63" s="28"/>
     </row>
     <row r="64" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="16"/>
-      <c r="B64" s="26" t="s">
+      <c r="B64" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="C64" s="19" t="n">
+      <c r="C64" s="18" t="n">
         <v>0.73</v>
       </c>
-      <c r="D64" s="19" t="n">
+      <c r="D64" s="18" t="n">
         <v>0.65</v>
       </c>
-      <c r="E64" s="19" t="n">
+      <c r="E64" s="18" t="n">
         <v>0.8</v>
       </c>
-      <c r="G64" s="29"/>
-      <c r="H64" s="29"/>
-      <c r="I64" s="29"/>
+      <c r="G64" s="28"/>
+      <c r="H64" s="28"/>
+      <c r="I64" s="28"/>
     </row>
     <row r="65" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="16"/>
-      <c r="B65" s="26" t="s">
+      <c r="B65" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="C65" s="19" t="n">
+      <c r="C65" s="18" t="n">
         <v>0.5</v>
       </c>
-      <c r="D65" s="19" t="n">
+      <c r="D65" s="18" t="n">
         <v>0.3</v>
       </c>
-      <c r="E65" s="19" t="n">
+      <c r="E65" s="18" t="n">
         <v>0.8</v>
       </c>
-      <c r="G65" s="29"/>
-      <c r="H65" s="29"/>
-      <c r="I65" s="29"/>
+      <c r="G65" s="28"/>
+      <c r="H65" s="28"/>
+      <c r="I65" s="28"/>
     </row>
     <row r="66" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="16"/>
-      <c r="B66" s="26" t="s">
+      <c r="B66" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="C66" s="19" t="n">
+      <c r="C66" s="18" t="n">
         <v>0.92</v>
       </c>
-      <c r="D66" s="19" t="n">
+      <c r="D66" s="18" t="n">
         <v>0.8</v>
       </c>
-      <c r="E66" s="19" t="n">
+      <c r="E66" s="18" t="n">
         <v>0.95</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="16"/>
-      <c r="B67" s="26" t="s">
+      <c r="B67" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="C67" s="19" t="n">
+      <c r="C67" s="18" t="n">
         <v>0.9</v>
       </c>
-      <c r="D67" s="19" t="n">
+      <c r="D67" s="18" t="n">
         <v>0.8</v>
       </c>
-      <c r="E67" s="19" t="n">
+      <c r="E67" s="18" t="n">
         <v>0.95</v>
       </c>
     </row>
@@ -3919,126 +3402,113 @@
       <c r="A71" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="B71" s="16"/>
-      <c r="C71" s="16"/>
-      <c r="D71" s="16"/>
-      <c r="E71" s="16"/>
     </row>
     <row r="72" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="16"/>
-      <c r="B72" s="16"/>
-      <c r="C72" s="17" t="s">
+      <c r="C72" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D72" s="17" t="s">
+      <c r="D72" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E72" s="17" t="s">
+      <c r="E72" s="16" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="16"/>
-      <c r="B73" s="26" t="s">
+      <c r="B73" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="C73" s="28" t="n">
+      <c r="C73" s="27" t="n">
         <v>0.146</v>
       </c>
-      <c r="D73" s="28" t="n">
+      <c r="D73" s="27" t="n">
         <v>0.096</v>
       </c>
-      <c r="E73" s="28" t="n">
+      <c r="E73" s="27" t="n">
         <v>0.205</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A74" s="16"/>
-      <c r="B74" s="26" t="s">
+      <c r="B74" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="C74" s="28" t="n">
+      <c r="C74" s="27" t="n">
         <v>0.008</v>
       </c>
-      <c r="D74" s="28" t="n">
+      <c r="D74" s="27" t="n">
         <v>0.005</v>
       </c>
-      <c r="E74" s="28" t="n">
+      <c r="E74" s="27" t="n">
         <v>0.011</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A75" s="16"/>
-      <c r="B75" s="26" t="s">
+      <c r="B75" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="C75" s="28" t="n">
+      <c r="C75" s="27" t="n">
         <v>0.02</v>
       </c>
-      <c r="D75" s="28" t="n">
+      <c r="D75" s="27" t="n">
         <v>0.013</v>
       </c>
-      <c r="E75" s="28" t="n">
+      <c r="E75" s="27" t="n">
         <v>0.029</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A76" s="16"/>
-      <c r="B76" s="26" t="s">
+      <c r="B76" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="C76" s="28" t="n">
+      <c r="C76" s="27" t="n">
         <v>0.07</v>
       </c>
-      <c r="D76" s="28" t="n">
+      <c r="D76" s="27" t="n">
         <v>0.048</v>
       </c>
-      <c r="E76" s="28" t="n">
+      <c r="E76" s="27" t="n">
         <v>0.094</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A77" s="16"/>
-      <c r="B77" s="26" t="s">
+      <c r="B77" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="C77" s="28" t="n">
+      <c r="C77" s="27" t="n">
         <v>0.265</v>
       </c>
-      <c r="D77" s="28" t="n">
+      <c r="D77" s="27" t="n">
         <v>0.114</v>
       </c>
-      <c r="E77" s="28" t="n">
+      <c r="E77" s="27" t="n">
         <v>0.474</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A78" s="16"/>
-      <c r="B78" s="26" t="s">
+      <c r="B78" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="C78" s="28" t="n">
+      <c r="C78" s="27" t="n">
         <v>0.547</v>
       </c>
-      <c r="D78" s="28" t="n">
+      <c r="D78" s="27" t="n">
         <v>0.382</v>
       </c>
-      <c r="E78" s="28" t="n">
+      <c r="E78" s="27" t="n">
         <v>0.715</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A79" s="16"/>
-      <c r="B79" s="26" t="s">
+      <c r="B79" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="C79" s="28" t="n">
+      <c r="C79" s="27" t="n">
         <v>0.053</v>
       </c>
-      <c r="D79" s="28" t="n">
+      <c r="D79" s="27" t="n">
         <v>0.034</v>
       </c>
-      <c r="E79" s="28" t="n">
+      <c r="E79" s="27" t="n">
         <v>0.079</v>
       </c>
     </row>
@@ -4066,12 +3536,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="9.4030612244898"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.8571428571429"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="43.9285714285714"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="9.4030612244898"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.6530612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="18.6938775510204"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="10.8877551020408"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.6122448979592"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="51.1428571428572"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="10.8877551020408"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.8316326530612"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="9.16836734693878"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4190,8 +3660,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="36" min="1" style="0" width="9.4030612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="37" style="0" width="18.6938775510204"/>
+    <col collapsed="false" hidden="false" max="36" min="1" style="0" width="10.8877551020408"/>
+    <col collapsed="false" hidden="false" max="1025" min="37" style="0" width="9.16836734693878"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4602,8 +4072,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="36" min="1" style="0" width="9.4030612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="37" style="0" width="18.6938775510204"/>
+    <col collapsed="false" hidden="false" max="36" min="1" style="0" width="10.8877551020408"/>
+    <col collapsed="false" hidden="false" max="1025" min="37" style="0" width="9.16836734693878"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5004,14 +4474,14 @@
   </sheetPr>
   <dimension ref="A1:AI18"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="35" min="1" style="0" width="9.4030612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="36" style="0" width="18.6938775510204"/>
+    <col collapsed="false" hidden="false" max="35" min="1" style="0" width="10.8877551020408"/>
+    <col collapsed="false" hidden="false" max="1025" min="36" style="0" width="9.16836734693878"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5605,14 +5075,14 @@
   </sheetPr>
   <dimension ref="A1:AI39"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="35" min="1" style="0" width="9.4030612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="36" style="0" width="18.6938775510204"/>
+    <col collapsed="false" hidden="false" max="35" min="1" style="0" width="10.8877551020408"/>
+    <col collapsed="false" hidden="false" max="1025" min="36" style="0" width="9.16836734693878"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6634,157 +6104,119 @@
   </sheetPr>
   <dimension ref="A1:AI65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AI38" activeCellId="0" sqref="AI38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.4030612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.16836734693878"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
-      <c r="X1" s="16"/>
-      <c r="Y1" s="16"/>
-      <c r="Z1" s="16"/>
-      <c r="AA1" s="16"/>
-      <c r="AB1" s="16"/>
-      <c r="AC1" s="16"/>
-      <c r="AD1" s="16"/>
-      <c r="AE1" s="16"/>
-      <c r="AF1" s="16"/>
-      <c r="AG1" s="16"/>
-      <c r="AH1" s="16"/>
-      <c r="AI1" s="16"/>
     </row>
     <row r="2" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="17" t="n">
+      <c r="C2" s="16" t="n">
         <v>2000</v>
       </c>
-      <c r="D2" s="17" t="n">
+      <c r="D2" s="16" t="n">
         <v>2001</v>
       </c>
-      <c r="E2" s="17" t="n">
+      <c r="E2" s="16" t="n">
         <v>2002</v>
       </c>
-      <c r="F2" s="17" t="n">
+      <c r="F2" s="16" t="n">
         <v>2003</v>
       </c>
-      <c r="G2" s="17" t="n">
+      <c r="G2" s="16" t="n">
         <v>2004</v>
       </c>
-      <c r="H2" s="17" t="n">
+      <c r="H2" s="16" t="n">
         <v>2005</v>
       </c>
-      <c r="I2" s="17" t="n">
+      <c r="I2" s="16" t="n">
         <v>2006</v>
       </c>
-      <c r="J2" s="17" t="n">
+      <c r="J2" s="16" t="n">
         <v>2007</v>
       </c>
-      <c r="K2" s="17" t="n">
+      <c r="K2" s="16" t="n">
         <v>2008</v>
       </c>
-      <c r="L2" s="17" t="n">
+      <c r="L2" s="16" t="n">
         <v>2009</v>
       </c>
-      <c r="M2" s="17" t="n">
+      <c r="M2" s="16" t="n">
         <v>2010</v>
       </c>
-      <c r="N2" s="17" t="n">
+      <c r="N2" s="16" t="n">
         <v>2011</v>
       </c>
-      <c r="O2" s="17" t="n">
+      <c r="O2" s="16" t="n">
         <v>2012</v>
       </c>
-      <c r="P2" s="17" t="n">
+      <c r="P2" s="16" t="n">
         <v>2013</v>
       </c>
-      <c r="Q2" s="17" t="n">
+      <c r="Q2" s="16" t="n">
         <v>2014</v>
       </c>
-      <c r="R2" s="17" t="n">
+      <c r="R2" s="16" t="n">
         <v>2015</v>
       </c>
-      <c r="S2" s="17" t="n">
+      <c r="S2" s="16" t="n">
         <v>2016</v>
       </c>
-      <c r="T2" s="17" t="n">
+      <c r="T2" s="16" t="n">
         <v>2017</v>
       </c>
-      <c r="U2" s="17" t="n">
+      <c r="U2" s="16" t="n">
         <v>2018</v>
       </c>
-      <c r="V2" s="17" t="n">
+      <c r="V2" s="16" t="n">
         <v>2019</v>
       </c>
-      <c r="W2" s="17" t="n">
+      <c r="W2" s="16" t="n">
         <v>2020</v>
       </c>
-      <c r="X2" s="17" t="n">
+      <c r="X2" s="16" t="n">
         <v>2021</v>
       </c>
-      <c r="Y2" s="17" t="n">
+      <c r="Y2" s="16" t="n">
         <v>2022</v>
       </c>
-      <c r="Z2" s="17" t="n">
+      <c r="Z2" s="16" t="n">
         <v>2023</v>
       </c>
-      <c r="AA2" s="17" t="n">
+      <c r="AA2" s="16" t="n">
         <v>2024</v>
       </c>
-      <c r="AB2" s="17" t="n">
+      <c r="AB2" s="16" t="n">
         <v>2025</v>
       </c>
-      <c r="AC2" s="17" t="n">
+      <c r="AC2" s="16" t="n">
         <v>2026</v>
       </c>
-      <c r="AD2" s="17" t="n">
+      <c r="AD2" s="16" t="n">
         <v>2027</v>
       </c>
-      <c r="AE2" s="17" t="n">
+      <c r="AE2" s="16" t="n">
         <v>2028</v>
       </c>
-      <c r="AF2" s="17" t="n">
+      <c r="AF2" s="16" t="n">
         <v>2029</v>
       </c>
-      <c r="AG2" s="17" t="n">
+      <c r="AG2" s="16" t="n">
         <v>2030</v>
       </c>
-      <c r="AH2" s="16"/>
-      <c r="AI2" s="17" t="s">
+      <c r="AI2" s="16" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="16"/>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="6" t="str">
         <f aca="false">Populations!$C$3</f>
         <v>M 15-49</v>
@@ -6820,15 +6252,14 @@
       <c r="AE3" s="12"/>
       <c r="AF3" s="12"/>
       <c r="AG3" s="12"/>
-      <c r="AH3" s="18" t="s">
+      <c r="AH3" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="AI3" s="19" t="n">
-        <v>0.8</v>
+      <c r="AI3" s="18" t="n">
+        <v>0.4</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="16"/>
       <c r="B4" s="6" t="str">
         <f aca="false">Populations!$C$4</f>
         <v>F 15-49</v>
@@ -6864,155 +6295,117 @@
       <c r="AE4" s="12"/>
       <c r="AF4" s="12"/>
       <c r="AG4" s="12"/>
-      <c r="AH4" s="18" t="s">
+      <c r="AH4" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="AI4" s="19" t="n">
-        <v>0.8</v>
+      <c r="AI4" s="18" t="n">
+        <v>0.4</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="16"/>
-      <c r="R8" s="16"/>
-      <c r="S8" s="16"/>
-      <c r="T8" s="16"/>
-      <c r="U8" s="16"/>
-      <c r="V8" s="16"/>
-      <c r="W8" s="16"/>
-      <c r="X8" s="16"/>
-      <c r="Y8" s="16"/>
-      <c r="Z8" s="16"/>
-      <c r="AA8" s="16"/>
-      <c r="AB8" s="16"/>
-      <c r="AC8" s="16"/>
-      <c r="AD8" s="16"/>
-      <c r="AE8" s="16"/>
-      <c r="AF8" s="16"/>
-      <c r="AG8" s="16"/>
-      <c r="AH8" s="16"/>
-      <c r="AI8" s="16"/>
     </row>
     <row r="9" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="17" t="n">
+      <c r="C9" s="16" t="n">
         <v>2000</v>
       </c>
-      <c r="D9" s="17" t="n">
+      <c r="D9" s="16" t="n">
         <v>2001</v>
       </c>
-      <c r="E9" s="17" t="n">
+      <c r="E9" s="16" t="n">
         <v>2002</v>
       </c>
-      <c r="F9" s="17" t="n">
+      <c r="F9" s="16" t="n">
         <v>2003</v>
       </c>
-      <c r="G9" s="17" t="n">
+      <c r="G9" s="16" t="n">
         <v>2004</v>
       </c>
-      <c r="H9" s="17" t="n">
+      <c r="H9" s="16" t="n">
         <v>2005</v>
       </c>
-      <c r="I9" s="17" t="n">
+      <c r="I9" s="16" t="n">
         <v>2006</v>
       </c>
-      <c r="J9" s="17" t="n">
+      <c r="J9" s="16" t="n">
         <v>2007</v>
       </c>
-      <c r="K9" s="17" t="n">
+      <c r="K9" s="16" t="n">
         <v>2008</v>
       </c>
-      <c r="L9" s="17" t="n">
+      <c r="L9" s="16" t="n">
         <v>2009</v>
       </c>
-      <c r="M9" s="17" t="n">
+      <c r="M9" s="16" t="n">
         <v>2010</v>
       </c>
-      <c r="N9" s="17" t="n">
+      <c r="N9" s="16" t="n">
         <v>2011</v>
       </c>
-      <c r="O9" s="17" t="n">
+      <c r="O9" s="16" t="n">
         <v>2012</v>
       </c>
-      <c r="P9" s="17" t="n">
+      <c r="P9" s="16" t="n">
         <v>2013</v>
       </c>
-      <c r="Q9" s="17" t="n">
+      <c r="Q9" s="16" t="n">
         <v>2014</v>
       </c>
-      <c r="R9" s="17" t="n">
+      <c r="R9" s="16" t="n">
         <v>2015</v>
       </c>
-      <c r="S9" s="17" t="n">
+      <c r="S9" s="16" t="n">
         <v>2016</v>
       </c>
-      <c r="T9" s="17" t="n">
+      <c r="T9" s="16" t="n">
         <v>2017</v>
       </c>
-      <c r="U9" s="17" t="n">
+      <c r="U9" s="16" t="n">
         <v>2018</v>
       </c>
-      <c r="V9" s="17" t="n">
+      <c r="V9" s="16" t="n">
         <v>2019</v>
       </c>
-      <c r="W9" s="17" t="n">
+      <c r="W9" s="16" t="n">
         <v>2020</v>
       </c>
-      <c r="X9" s="17" t="n">
+      <c r="X9" s="16" t="n">
         <v>2021</v>
       </c>
-      <c r="Y9" s="17" t="n">
+      <c r="Y9" s="16" t="n">
         <v>2022</v>
       </c>
-      <c r="Z9" s="17" t="n">
+      <c r="Z9" s="16" t="n">
         <v>2023</v>
       </c>
-      <c r="AA9" s="17" t="n">
+      <c r="AA9" s="16" t="n">
         <v>2024</v>
       </c>
-      <c r="AB9" s="17" t="n">
+      <c r="AB9" s="16" t="n">
         <v>2025</v>
       </c>
-      <c r="AC9" s="17" t="n">
+      <c r="AC9" s="16" t="n">
         <v>2026</v>
       </c>
-      <c r="AD9" s="17" t="n">
+      <c r="AD9" s="16" t="n">
         <v>2027</v>
       </c>
-      <c r="AE9" s="17" t="n">
+      <c r="AE9" s="16" t="n">
         <v>2028</v>
       </c>
-      <c r="AF9" s="17" t="n">
+      <c r="AF9" s="16" t="n">
         <v>2029</v>
       </c>
-      <c r="AG9" s="17" t="n">
+      <c r="AG9" s="16" t="n">
         <v>2030</v>
       </c>
-      <c r="AH9" s="16"/>
-      <c r="AI9" s="17" t="s">
+      <c r="AI9" s="16" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="16"/>
       <c r="B10" s="6" t="str">
         <f aca="false">Populations!$C$3</f>
         <v>M 15-49</v>
@@ -7048,15 +6441,14 @@
       <c r="AE10" s="12"/>
       <c r="AF10" s="12"/>
       <c r="AG10" s="12"/>
-      <c r="AH10" s="18" t="s">
+      <c r="AH10" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="AI10" s="19" t="n">
-        <v>0.8</v>
+      <c r="AI10" s="18" t="n">
+        <v>0.6</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="16"/>
       <c r="B11" s="6" t="str">
         <f aca="false">Populations!$C$4</f>
         <v>F 15-49</v>
@@ -7092,155 +6484,117 @@
       <c r="AE11" s="12"/>
       <c r="AF11" s="12"/>
       <c r="AG11" s="12"/>
-      <c r="AH11" s="18" t="s">
+      <c r="AH11" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="AI11" s="19" t="n">
-        <v>0.8</v>
+      <c r="AI11" s="18" t="n">
+        <v>0.6</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="16"/>
-      <c r="R15" s="16"/>
-      <c r="S15" s="16"/>
-      <c r="T15" s="16"/>
-      <c r="U15" s="16"/>
-      <c r="V15" s="16"/>
-      <c r="W15" s="16"/>
-      <c r="X15" s="16"/>
-      <c r="Y15" s="16"/>
-      <c r="Z15" s="16"/>
-      <c r="AA15" s="16"/>
-      <c r="AB15" s="16"/>
-      <c r="AC15" s="16"/>
-      <c r="AD15" s="16"/>
-      <c r="AE15" s="16"/>
-      <c r="AF15" s="16"/>
-      <c r="AG15" s="16"/>
-      <c r="AH15" s="16"/>
-      <c r="AI15" s="16"/>
     </row>
     <row r="16" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="16"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="17" t="n">
+      <c r="C16" s="16" t="n">
         <v>2000</v>
       </c>
-      <c r="D16" s="17" t="n">
+      <c r="D16" s="16" t="n">
         <v>2001</v>
       </c>
-      <c r="E16" s="17" t="n">
+      <c r="E16" s="16" t="n">
         <v>2002</v>
       </c>
-      <c r="F16" s="17" t="n">
+      <c r="F16" s="16" t="n">
         <v>2003</v>
       </c>
-      <c r="G16" s="17" t="n">
+      <c r="G16" s="16" t="n">
         <v>2004</v>
       </c>
-      <c r="H16" s="17" t="n">
+      <c r="H16" s="16" t="n">
         <v>2005</v>
       </c>
-      <c r="I16" s="17" t="n">
+      <c r="I16" s="16" t="n">
         <v>2006</v>
       </c>
-      <c r="J16" s="17" t="n">
+      <c r="J16" s="16" t="n">
         <v>2007</v>
       </c>
-      <c r="K16" s="17" t="n">
+      <c r="K16" s="16" t="n">
         <v>2008</v>
       </c>
-      <c r="L16" s="17" t="n">
+      <c r="L16" s="16" t="n">
         <v>2009</v>
       </c>
-      <c r="M16" s="17" t="n">
+      <c r="M16" s="16" t="n">
         <v>2010</v>
       </c>
-      <c r="N16" s="17" t="n">
+      <c r="N16" s="16" t="n">
         <v>2011</v>
       </c>
-      <c r="O16" s="17" t="n">
+      <c r="O16" s="16" t="n">
         <v>2012</v>
       </c>
-      <c r="P16" s="17" t="n">
+      <c r="P16" s="16" t="n">
         <v>2013</v>
       </c>
-      <c r="Q16" s="17" t="n">
+      <c r="Q16" s="16" t="n">
         <v>2014</v>
       </c>
-      <c r="R16" s="17" t="n">
+      <c r="R16" s="16" t="n">
         <v>2015</v>
       </c>
-      <c r="S16" s="17" t="n">
+      <c r="S16" s="16" t="n">
         <v>2016</v>
       </c>
-      <c r="T16" s="17" t="n">
+      <c r="T16" s="16" t="n">
         <v>2017</v>
       </c>
-      <c r="U16" s="17" t="n">
+      <c r="U16" s="16" t="n">
         <v>2018</v>
       </c>
-      <c r="V16" s="17" t="n">
+      <c r="V16" s="16" t="n">
         <v>2019</v>
       </c>
-      <c r="W16" s="17" t="n">
+      <c r="W16" s="16" t="n">
         <v>2020</v>
       </c>
-      <c r="X16" s="17" t="n">
+      <c r="X16" s="16" t="n">
         <v>2021</v>
       </c>
-      <c r="Y16" s="17" t="n">
+      <c r="Y16" s="16" t="n">
         <v>2022</v>
       </c>
-      <c r="Z16" s="17" t="n">
+      <c r="Z16" s="16" t="n">
         <v>2023</v>
       </c>
-      <c r="AA16" s="17" t="n">
+      <c r="AA16" s="16" t="n">
         <v>2024</v>
       </c>
-      <c r="AB16" s="17" t="n">
+      <c r="AB16" s="16" t="n">
         <v>2025</v>
       </c>
-      <c r="AC16" s="17" t="n">
+      <c r="AC16" s="16" t="n">
         <v>2026</v>
       </c>
-      <c r="AD16" s="17" t="n">
+      <c r="AD16" s="16" t="n">
         <v>2027</v>
       </c>
-      <c r="AE16" s="17" t="n">
+      <c r="AE16" s="16" t="n">
         <v>2028</v>
       </c>
-      <c r="AF16" s="17" t="n">
+      <c r="AF16" s="16" t="n">
         <v>2029</v>
       </c>
-      <c r="AG16" s="17" t="n">
+      <c r="AG16" s="16" t="n">
         <v>2030</v>
       </c>
-      <c r="AH16" s="16"/>
-      <c r="AI16" s="17" t="s">
+      <c r="AI16" s="16" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="16"/>
       <c r="B17" s="6" t="str">
         <f aca="false">Populations!$C$3</f>
         <v>M 15-49</v>
@@ -7276,15 +6630,14 @@
       <c r="AE17" s="12"/>
       <c r="AF17" s="12"/>
       <c r="AG17" s="12"/>
-      <c r="AH17" s="18" t="s">
+      <c r="AH17" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="AI17" s="19" t="n">
-        <v>0.8</v>
+      <c r="AI17" s="18" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="16"/>
       <c r="B18" s="6" t="str">
         <f aca="false">Populations!$C$4</f>
         <v>F 15-49</v>
@@ -7320,155 +6673,117 @@
       <c r="AE18" s="12"/>
       <c r="AF18" s="12"/>
       <c r="AG18" s="12"/>
-      <c r="AH18" s="18" t="s">
+      <c r="AH18" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="AI18" s="19" t="n">
-        <v>0.8</v>
+      <c r="AI18" s="18" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="16"/>
-      <c r="N22" s="16"/>
-      <c r="O22" s="16"/>
-      <c r="P22" s="16"/>
-      <c r="Q22" s="16"/>
-      <c r="R22" s="16"/>
-      <c r="S22" s="16"/>
-      <c r="T22" s="16"/>
-      <c r="U22" s="16"/>
-      <c r="V22" s="16"/>
-      <c r="W22" s="16"/>
-      <c r="X22" s="16"/>
-      <c r="Y22" s="16"/>
-      <c r="Z22" s="16"/>
-      <c r="AA22" s="16"/>
-      <c r="AB22" s="16"/>
-      <c r="AC22" s="16"/>
-      <c r="AD22" s="16"/>
-      <c r="AE22" s="16"/>
-      <c r="AF22" s="16"/>
-      <c r="AG22" s="16"/>
-      <c r="AH22" s="16"/>
-      <c r="AI22" s="16"/>
     </row>
     <row r="23" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="16"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="17" t="n">
+      <c r="C23" s="16" t="n">
         <v>2000</v>
       </c>
-      <c r="D23" s="17" t="n">
+      <c r="D23" s="16" t="n">
         <v>2001</v>
       </c>
-      <c r="E23" s="17" t="n">
+      <c r="E23" s="16" t="n">
         <v>2002</v>
       </c>
-      <c r="F23" s="17" t="n">
+      <c r="F23" s="16" t="n">
         <v>2003</v>
       </c>
-      <c r="G23" s="17" t="n">
+      <c r="G23" s="16" t="n">
         <v>2004</v>
       </c>
-      <c r="H23" s="17" t="n">
+      <c r="H23" s="16" t="n">
         <v>2005</v>
       </c>
-      <c r="I23" s="17" t="n">
+      <c r="I23" s="16" t="n">
         <v>2006</v>
       </c>
-      <c r="J23" s="17" t="n">
+      <c r="J23" s="16" t="n">
         <v>2007</v>
       </c>
-      <c r="K23" s="17" t="n">
+      <c r="K23" s="16" t="n">
         <v>2008</v>
       </c>
-      <c r="L23" s="17" t="n">
+      <c r="L23" s="16" t="n">
         <v>2009</v>
       </c>
-      <c r="M23" s="17" t="n">
+      <c r="M23" s="16" t="n">
         <v>2010</v>
       </c>
-      <c r="N23" s="17" t="n">
+      <c r="N23" s="16" t="n">
         <v>2011</v>
       </c>
-      <c r="O23" s="17" t="n">
+      <c r="O23" s="16" t="n">
         <v>2012</v>
       </c>
-      <c r="P23" s="17" t="n">
+      <c r="P23" s="16" t="n">
         <v>2013</v>
       </c>
-      <c r="Q23" s="17" t="n">
+      <c r="Q23" s="16" t="n">
         <v>2014</v>
       </c>
-      <c r="R23" s="17" t="n">
+      <c r="R23" s="16" t="n">
         <v>2015</v>
       </c>
-      <c r="S23" s="17" t="n">
+      <c r="S23" s="16" t="n">
         <v>2016</v>
       </c>
-      <c r="T23" s="17" t="n">
+      <c r="T23" s="16" t="n">
         <v>2017</v>
       </c>
-      <c r="U23" s="17" t="n">
+      <c r="U23" s="16" t="n">
         <v>2018</v>
       </c>
-      <c r="V23" s="17" t="n">
+      <c r="V23" s="16" t="n">
         <v>2019</v>
       </c>
-      <c r="W23" s="17" t="n">
+      <c r="W23" s="16" t="n">
         <v>2020</v>
       </c>
-      <c r="X23" s="17" t="n">
+      <c r="X23" s="16" t="n">
         <v>2021</v>
       </c>
-      <c r="Y23" s="17" t="n">
+      <c r="Y23" s="16" t="n">
         <v>2022</v>
       </c>
-      <c r="Z23" s="17" t="n">
+      <c r="Z23" s="16" t="n">
         <v>2023</v>
       </c>
-      <c r="AA23" s="17" t="n">
+      <c r="AA23" s="16" t="n">
         <v>2024</v>
       </c>
-      <c r="AB23" s="17" t="n">
+      <c r="AB23" s="16" t="n">
         <v>2025</v>
       </c>
-      <c r="AC23" s="17" t="n">
+      <c r="AC23" s="16" t="n">
         <v>2026</v>
       </c>
-      <c r="AD23" s="17" t="n">
+      <c r="AD23" s="16" t="n">
         <v>2027</v>
       </c>
-      <c r="AE23" s="17" t="n">
+      <c r="AE23" s="16" t="n">
         <v>2028</v>
       </c>
-      <c r="AF23" s="17" t="n">
+      <c r="AF23" s="16" t="n">
         <v>2029</v>
       </c>
-      <c r="AG23" s="17" t="n">
+      <c r="AG23" s="16" t="n">
         <v>2030</v>
       </c>
-      <c r="AH23" s="16"/>
-      <c r="AI23" s="17" t="s">
+      <c r="AI23" s="16" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="16"/>
       <c r="B24" s="6" t="str">
         <f aca="false">Populations!$C$3</f>
         <v>M 15-49</v>
@@ -7504,15 +6819,14 @@
       <c r="AE24" s="12"/>
       <c r="AF24" s="12"/>
       <c r="AG24" s="12"/>
-      <c r="AH24" s="18" t="s">
+      <c r="AH24" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="AI24" s="19" t="n">
-        <v>0.1</v>
+      <c r="AI24" s="18" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="16"/>
       <c r="B25" s="6" t="str">
         <f aca="false">Populations!$C$4</f>
         <v>F 15-49</v>
@@ -7548,11 +6862,11 @@
       <c r="AE25" s="12"/>
       <c r="AF25" s="12"/>
       <c r="AG25" s="12"/>
-      <c r="AH25" s="18" t="s">
+      <c r="AH25" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="AI25" s="19" t="n">
-        <v>0.1</v>
+      <c r="AI25" s="18" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -7560,183 +6874,145 @@
       <c r="A29" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
-      <c r="L29" s="16"/>
-      <c r="M29" s="16"/>
-      <c r="N29" s="16"/>
-      <c r="O29" s="16"/>
-      <c r="P29" s="16"/>
-      <c r="Q29" s="16"/>
-      <c r="R29" s="16"/>
-      <c r="S29" s="16"/>
-      <c r="T29" s="16"/>
-      <c r="U29" s="16"/>
-      <c r="V29" s="16"/>
-      <c r="W29" s="16"/>
-      <c r="X29" s="16"/>
-      <c r="Y29" s="16"/>
-      <c r="Z29" s="16"/>
-      <c r="AA29" s="16"/>
-      <c r="AB29" s="16"/>
-      <c r="AC29" s="16"/>
-      <c r="AD29" s="16"/>
-      <c r="AE29" s="16"/>
-      <c r="AF29" s="16"/>
-      <c r="AG29" s="16"/>
-      <c r="AH29" s="16"/>
-      <c r="AI29" s="16"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="16"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="17" t="n">
+      <c r="C30" s="16" t="n">
         <v>2000</v>
       </c>
-      <c r="D30" s="17" t="n">
+      <c r="D30" s="16" t="n">
         <v>2001</v>
       </c>
-      <c r="E30" s="17" t="n">
+      <c r="E30" s="16" t="n">
         <v>2002</v>
       </c>
-      <c r="F30" s="17" t="n">
+      <c r="F30" s="16" t="n">
         <v>2003</v>
       </c>
-      <c r="G30" s="17" t="n">
+      <c r="G30" s="16" t="n">
         <v>2004</v>
       </c>
-      <c r="H30" s="17" t="n">
+      <c r="H30" s="16" t="n">
         <v>2005</v>
       </c>
-      <c r="I30" s="17" t="n">
+      <c r="I30" s="16" t="n">
         <v>2006</v>
       </c>
-      <c r="J30" s="17" t="n">
+      <c r="J30" s="16" t="n">
         <v>2007</v>
       </c>
-      <c r="K30" s="17" t="n">
+      <c r="K30" s="16" t="n">
         <v>2008</v>
       </c>
-      <c r="L30" s="17" t="n">
+      <c r="L30" s="16" t="n">
         <v>2009</v>
       </c>
-      <c r="M30" s="17" t="n">
+      <c r="M30" s="16" t="n">
         <v>2010</v>
       </c>
-      <c r="N30" s="17" t="n">
+      <c r="N30" s="16" t="n">
         <v>2011</v>
       </c>
-      <c r="O30" s="17" t="n">
+      <c r="O30" s="16" t="n">
         <v>2012</v>
       </c>
-      <c r="P30" s="17" t="n">
+      <c r="P30" s="16" t="n">
         <v>2013</v>
       </c>
-      <c r="Q30" s="17" t="n">
+      <c r="Q30" s="16" t="n">
         <v>2014</v>
       </c>
-      <c r="R30" s="17" t="n">
+      <c r="R30" s="16" t="n">
         <v>2015</v>
       </c>
-      <c r="S30" s="17" t="n">
+      <c r="S30" s="16" t="n">
         <v>2016</v>
       </c>
-      <c r="T30" s="17" t="n">
+      <c r="T30" s="16" t="n">
         <v>2017</v>
       </c>
-      <c r="U30" s="17" t="n">
+      <c r="U30" s="16" t="n">
         <v>2018</v>
       </c>
-      <c r="V30" s="17" t="n">
+      <c r="V30" s="16" t="n">
         <v>2019</v>
       </c>
-      <c r="W30" s="17" t="n">
+      <c r="W30" s="16" t="n">
         <v>2020</v>
       </c>
-      <c r="X30" s="17" t="n">
+      <c r="X30" s="16" t="n">
         <v>2021</v>
       </c>
-      <c r="Y30" s="17" t="n">
+      <c r="Y30" s="16" t="n">
         <v>2022</v>
       </c>
-      <c r="Z30" s="17" t="n">
+      <c r="Z30" s="16" t="n">
         <v>2023</v>
       </c>
-      <c r="AA30" s="17" t="n">
+      <c r="AA30" s="16" t="n">
         <v>2024</v>
       </c>
-      <c r="AB30" s="17" t="n">
+      <c r="AB30" s="16" t="n">
         <v>2025</v>
       </c>
-      <c r="AC30" s="17" t="n">
+      <c r="AC30" s="16" t="n">
         <v>2026</v>
       </c>
-      <c r="AD30" s="17" t="n">
+      <c r="AD30" s="16" t="n">
         <v>2027</v>
       </c>
-      <c r="AE30" s="17" t="n">
+      <c r="AE30" s="16" t="n">
         <v>2028</v>
       </c>
-      <c r="AF30" s="17" t="n">
+      <c r="AF30" s="16" t="n">
         <v>2029</v>
       </c>
-      <c r="AG30" s="17" t="n">
+      <c r="AG30" s="16" t="n">
         <v>2030</v>
       </c>
-      <c r="AH30" s="16"/>
-      <c r="AI30" s="17" t="s">
+      <c r="AI30" s="16" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="16"/>
-      <c r="B31" s="17" t="s">
+      <c r="B31" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="19"/>
-      <c r="K31" s="19"/>
-      <c r="L31" s="19"/>
-      <c r="M31" s="19"/>
-      <c r="N31" s="19"/>
-      <c r="O31" s="19"/>
-      <c r="P31" s="19"/>
-      <c r="Q31" s="19"/>
-      <c r="R31" s="19"/>
-      <c r="S31" s="19"/>
-      <c r="T31" s="19"/>
-      <c r="U31" s="19"/>
-      <c r="V31" s="19"/>
-      <c r="W31" s="19"/>
-      <c r="X31" s="19"/>
-      <c r="Y31" s="19"/>
-      <c r="Z31" s="19"/>
-      <c r="AA31" s="19"/>
-      <c r="AB31" s="19"/>
-      <c r="AC31" s="19"/>
-      <c r="AD31" s="19"/>
-      <c r="AE31" s="19"/>
-      <c r="AF31" s="19"/>
-      <c r="AG31" s="19"/>
-      <c r="AH31" s="18" t="s">
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="18"/>
+      <c r="M31" s="18"/>
+      <c r="N31" s="18"/>
+      <c r="O31" s="18"/>
+      <c r="P31" s="18"/>
+      <c r="Q31" s="18"/>
+      <c r="R31" s="18"/>
+      <c r="S31" s="18"/>
+      <c r="T31" s="18"/>
+      <c r="U31" s="18"/>
+      <c r="V31" s="18"/>
+      <c r="W31" s="18"/>
+      <c r="X31" s="18"/>
+      <c r="Y31" s="18"/>
+      <c r="Z31" s="18"/>
+      <c r="AA31" s="18"/>
+      <c r="AB31" s="18"/>
+      <c r="AC31" s="18"/>
+      <c r="AD31" s="18"/>
+      <c r="AE31" s="18"/>
+      <c r="AF31" s="18"/>
+      <c r="AG31" s="18"/>
+      <c r="AH31" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="AI31" s="19" t="n">
-        <v>0.1</v>
+      <c r="AI31" s="18" t="n">
+        <v>0.8</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -7746,183 +7022,145 @@
       <c r="A35" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="16"/>
-      <c r="J35" s="16"/>
-      <c r="K35" s="16"/>
-      <c r="L35" s="16"/>
-      <c r="M35" s="16"/>
-      <c r="N35" s="16"/>
-      <c r="O35" s="16"/>
-      <c r="P35" s="16"/>
-      <c r="Q35" s="16"/>
-      <c r="R35" s="16"/>
-      <c r="S35" s="16"/>
-      <c r="T35" s="16"/>
-      <c r="U35" s="16"/>
-      <c r="V35" s="16"/>
-      <c r="W35" s="16"/>
-      <c r="X35" s="16"/>
-      <c r="Y35" s="16"/>
-      <c r="Z35" s="16"/>
-      <c r="AA35" s="16"/>
-      <c r="AB35" s="16"/>
-      <c r="AC35" s="16"/>
-      <c r="AD35" s="16"/>
-      <c r="AE35" s="16"/>
-      <c r="AF35" s="16"/>
-      <c r="AG35" s="16"/>
-      <c r="AH35" s="16"/>
-      <c r="AI35" s="16"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="16"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="17" t="n">
+      <c r="C36" s="16" t="n">
         <v>2000</v>
       </c>
-      <c r="D36" s="17" t="n">
+      <c r="D36" s="16" t="n">
         <v>2001</v>
       </c>
-      <c r="E36" s="17" t="n">
+      <c r="E36" s="16" t="n">
         <v>2002</v>
       </c>
-      <c r="F36" s="17" t="n">
+      <c r="F36" s="16" t="n">
         <v>2003</v>
       </c>
-      <c r="G36" s="17" t="n">
+      <c r="G36" s="16" t="n">
         <v>2004</v>
       </c>
-      <c r="H36" s="17" t="n">
+      <c r="H36" s="16" t="n">
         <v>2005</v>
       </c>
-      <c r="I36" s="17" t="n">
+      <c r="I36" s="16" t="n">
         <v>2006</v>
       </c>
-      <c r="J36" s="17" t="n">
+      <c r="J36" s="16" t="n">
         <v>2007</v>
       </c>
-      <c r="K36" s="17" t="n">
+      <c r="K36" s="16" t="n">
         <v>2008</v>
       </c>
-      <c r="L36" s="17" t="n">
+      <c r="L36" s="16" t="n">
         <v>2009</v>
       </c>
-      <c r="M36" s="17" t="n">
+      <c r="M36" s="16" t="n">
         <v>2010</v>
       </c>
-      <c r="N36" s="17" t="n">
+      <c r="N36" s="16" t="n">
         <v>2011</v>
       </c>
-      <c r="O36" s="17" t="n">
+      <c r="O36" s="16" t="n">
         <v>2012</v>
       </c>
-      <c r="P36" s="17" t="n">
+      <c r="P36" s="16" t="n">
         <v>2013</v>
       </c>
-      <c r="Q36" s="17" t="n">
+      <c r="Q36" s="16" t="n">
         <v>2014</v>
       </c>
-      <c r="R36" s="17" t="n">
+      <c r="R36" s="16" t="n">
         <v>2015</v>
       </c>
-      <c r="S36" s="17" t="n">
+      <c r="S36" s="16" t="n">
         <v>2016</v>
       </c>
-      <c r="T36" s="17" t="n">
+      <c r="T36" s="16" t="n">
         <v>2017</v>
       </c>
-      <c r="U36" s="17" t="n">
+      <c r="U36" s="16" t="n">
         <v>2018</v>
       </c>
-      <c r="V36" s="17" t="n">
+      <c r="V36" s="16" t="n">
         <v>2019</v>
       </c>
-      <c r="W36" s="17" t="n">
+      <c r="W36" s="16" t="n">
         <v>2020</v>
       </c>
-      <c r="X36" s="17" t="n">
+      <c r="X36" s="16" t="n">
         <v>2021</v>
       </c>
-      <c r="Y36" s="17" t="n">
+      <c r="Y36" s="16" t="n">
         <v>2022</v>
       </c>
-      <c r="Z36" s="17" t="n">
+      <c r="Z36" s="16" t="n">
         <v>2023</v>
       </c>
-      <c r="AA36" s="17" t="n">
+      <c r="AA36" s="16" t="n">
         <v>2024</v>
       </c>
-      <c r="AB36" s="17" t="n">
+      <c r="AB36" s="16" t="n">
         <v>2025</v>
       </c>
-      <c r="AC36" s="17" t="n">
+      <c r="AC36" s="16" t="n">
         <v>2026</v>
       </c>
-      <c r="AD36" s="17" t="n">
+      <c r="AD36" s="16" t="n">
         <v>2027</v>
       </c>
-      <c r="AE36" s="17" t="n">
+      <c r="AE36" s="16" t="n">
         <v>2028</v>
       </c>
-      <c r="AF36" s="17" t="n">
+      <c r="AF36" s="16" t="n">
         <v>2029</v>
       </c>
-      <c r="AG36" s="17" t="n">
+      <c r="AG36" s="16" t="n">
         <v>2030</v>
       </c>
-      <c r="AH36" s="16"/>
-      <c r="AI36" s="17" t="s">
+      <c r="AI36" s="16" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="16"/>
-      <c r="B37" s="17" t="s">
+      <c r="B37" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="19"/>
-      <c r="K37" s="19"/>
-      <c r="L37" s="19"/>
-      <c r="M37" s="19"/>
-      <c r="N37" s="19"/>
-      <c r="O37" s="19"/>
-      <c r="P37" s="19"/>
-      <c r="Q37" s="19"/>
-      <c r="R37" s="19"/>
-      <c r="S37" s="19"/>
-      <c r="T37" s="19"/>
-      <c r="U37" s="19"/>
-      <c r="V37" s="19"/>
-      <c r="W37" s="19"/>
-      <c r="X37" s="19"/>
-      <c r="Y37" s="19"/>
-      <c r="Z37" s="19"/>
-      <c r="AA37" s="19"/>
-      <c r="AB37" s="19"/>
-      <c r="AC37" s="19"/>
-      <c r="AD37" s="19"/>
-      <c r="AE37" s="19"/>
-      <c r="AF37" s="19"/>
-      <c r="AG37" s="19"/>
-      <c r="AH37" s="18" t="s">
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="18"/>
+      <c r="L37" s="18"/>
+      <c r="M37" s="18"/>
+      <c r="N37" s="18"/>
+      <c r="O37" s="18"/>
+      <c r="P37" s="18"/>
+      <c r="Q37" s="18"/>
+      <c r="R37" s="18"/>
+      <c r="S37" s="18"/>
+      <c r="T37" s="18"/>
+      <c r="U37" s="18"/>
+      <c r="V37" s="18"/>
+      <c r="W37" s="18"/>
+      <c r="X37" s="18"/>
+      <c r="Y37" s="18"/>
+      <c r="Z37" s="18"/>
+      <c r="AA37" s="18"/>
+      <c r="AB37" s="18"/>
+      <c r="AC37" s="18"/>
+      <c r="AD37" s="18"/>
+      <c r="AE37" s="18"/>
+      <c r="AF37" s="18"/>
+      <c r="AG37" s="18"/>
+      <c r="AH37" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="AI37" s="19" t="n">
-        <v>0.1</v>
+      <c r="AI37" s="18" t="n">
+        <v>0.9</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -7931,182 +7169,144 @@
       <c r="A41" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="B41" s="16"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="16"/>
-      <c r="H41" s="16"/>
-      <c r="I41" s="16"/>
-      <c r="J41" s="16"/>
-      <c r="K41" s="16"/>
-      <c r="L41" s="16"/>
-      <c r="M41" s="16"/>
-      <c r="N41" s="16"/>
-      <c r="O41" s="16"/>
-      <c r="P41" s="16"/>
-      <c r="Q41" s="16"/>
-      <c r="R41" s="16"/>
-      <c r="S41" s="16"/>
-      <c r="T41" s="16"/>
-      <c r="U41" s="16"/>
-      <c r="V41" s="16"/>
-      <c r="W41" s="16"/>
-      <c r="X41" s="16"/>
-      <c r="Y41" s="16"/>
-      <c r="Z41" s="16"/>
-      <c r="AA41" s="16"/>
-      <c r="AB41" s="16"/>
-      <c r="AC41" s="16"/>
-      <c r="AD41" s="16"/>
-      <c r="AE41" s="16"/>
-      <c r="AF41" s="16"/>
-      <c r="AG41" s="16"/>
-      <c r="AH41" s="16"/>
-      <c r="AI41" s="16"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="16"/>
-      <c r="B42" s="16"/>
-      <c r="C42" s="17" t="n">
+      <c r="C42" s="16" t="n">
         <v>2000</v>
       </c>
-      <c r="D42" s="17" t="n">
+      <c r="D42" s="16" t="n">
         <v>2001</v>
       </c>
-      <c r="E42" s="17" t="n">
+      <c r="E42" s="16" t="n">
         <v>2002</v>
       </c>
-      <c r="F42" s="17" t="n">
+      <c r="F42" s="16" t="n">
         <v>2003</v>
       </c>
-      <c r="G42" s="17" t="n">
+      <c r="G42" s="16" t="n">
         <v>2004</v>
       </c>
-      <c r="H42" s="17" t="n">
+      <c r="H42" s="16" t="n">
         <v>2005</v>
       </c>
-      <c r="I42" s="17" t="n">
+      <c r="I42" s="16" t="n">
         <v>2006</v>
       </c>
-      <c r="J42" s="17" t="n">
+      <c r="J42" s="16" t="n">
         <v>2007</v>
       </c>
-      <c r="K42" s="17" t="n">
+      <c r="K42" s="16" t="n">
         <v>2008</v>
       </c>
-      <c r="L42" s="17" t="n">
+      <c r="L42" s="16" t="n">
         <v>2009</v>
       </c>
-      <c r="M42" s="17" t="n">
+      <c r="M42" s="16" t="n">
         <v>2010</v>
       </c>
-      <c r="N42" s="17" t="n">
+      <c r="N42" s="16" t="n">
         <v>2011</v>
       </c>
-      <c r="O42" s="17" t="n">
+      <c r="O42" s="16" t="n">
         <v>2012</v>
       </c>
-      <c r="P42" s="17" t="n">
+      <c r="P42" s="16" t="n">
         <v>2013</v>
       </c>
-      <c r="Q42" s="17" t="n">
+      <c r="Q42" s="16" t="n">
         <v>2014</v>
       </c>
-      <c r="R42" s="17" t="n">
+      <c r="R42" s="16" t="n">
         <v>2015</v>
       </c>
-      <c r="S42" s="17" t="n">
+      <c r="S42" s="16" t="n">
         <v>2016</v>
       </c>
-      <c r="T42" s="17" t="n">
+      <c r="T42" s="16" t="n">
         <v>2017</v>
       </c>
-      <c r="U42" s="17" t="n">
+      <c r="U42" s="16" t="n">
         <v>2018</v>
       </c>
-      <c r="V42" s="17" t="n">
+      <c r="V42" s="16" t="n">
         <v>2019</v>
       </c>
-      <c r="W42" s="17" t="n">
+      <c r="W42" s="16" t="n">
         <v>2020</v>
       </c>
-      <c r="X42" s="17" t="n">
+      <c r="X42" s="16" t="n">
         <v>2021</v>
       </c>
-      <c r="Y42" s="17" t="n">
+      <c r="Y42" s="16" t="n">
         <v>2022</v>
       </c>
-      <c r="Z42" s="17" t="n">
+      <c r="Z42" s="16" t="n">
         <v>2023</v>
       </c>
-      <c r="AA42" s="17" t="n">
+      <c r="AA42" s="16" t="n">
         <v>2024</v>
       </c>
-      <c r="AB42" s="17" t="n">
+      <c r="AB42" s="16" t="n">
         <v>2025</v>
       </c>
-      <c r="AC42" s="17" t="n">
+      <c r="AC42" s="16" t="n">
         <v>2026</v>
       </c>
-      <c r="AD42" s="17" t="n">
+      <c r="AD42" s="16" t="n">
         <v>2027</v>
       </c>
-      <c r="AE42" s="17" t="n">
+      <c r="AE42" s="16" t="n">
         <v>2028</v>
       </c>
-      <c r="AF42" s="17" t="n">
+      <c r="AF42" s="16" t="n">
         <v>2029</v>
       </c>
-      <c r="AG42" s="17" t="n">
+      <c r="AG42" s="16" t="n">
         <v>2030</v>
       </c>
-      <c r="AH42" s="16"/>
-      <c r="AI42" s="17" t="s">
+      <c r="AI42" s="16" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="16"/>
-      <c r="B43" s="17" t="s">
+      <c r="B43" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C43" s="19"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="19"/>
-      <c r="G43" s="19"/>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="19"/>
-      <c r="K43" s="19"/>
-      <c r="L43" s="19"/>
-      <c r="M43" s="19"/>
-      <c r="N43" s="19"/>
-      <c r="O43" s="19"/>
-      <c r="P43" s="19"/>
-      <c r="Q43" s="19"/>
-      <c r="R43" s="19"/>
-      <c r="S43" s="19"/>
-      <c r="T43" s="19"/>
-      <c r="U43" s="19"/>
-      <c r="V43" s="19"/>
-      <c r="W43" s="19"/>
-      <c r="X43" s="19"/>
-      <c r="Y43" s="19"/>
-      <c r="Z43" s="19"/>
-      <c r="AA43" s="19"/>
-      <c r="AB43" s="19"/>
-      <c r="AC43" s="19"/>
-      <c r="AD43" s="19"/>
-      <c r="AE43" s="19"/>
-      <c r="AF43" s="19"/>
-      <c r="AG43" s="19"/>
-      <c r="AH43" s="18" t="s">
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="18"/>
+      <c r="I43" s="18"/>
+      <c r="J43" s="18"/>
+      <c r="K43" s="18"/>
+      <c r="L43" s="18"/>
+      <c r="M43" s="18"/>
+      <c r="N43" s="18"/>
+      <c r="O43" s="18"/>
+      <c r="P43" s="18"/>
+      <c r="Q43" s="18"/>
+      <c r="R43" s="18"/>
+      <c r="S43" s="18"/>
+      <c r="T43" s="18"/>
+      <c r="U43" s="18"/>
+      <c r="V43" s="18"/>
+      <c r="W43" s="18"/>
+      <c r="X43" s="18"/>
+      <c r="Y43" s="18"/>
+      <c r="Z43" s="18"/>
+      <c r="AA43" s="18"/>
+      <c r="AB43" s="18"/>
+      <c r="AC43" s="18"/>
+      <c r="AD43" s="18"/>
+      <c r="AE43" s="18"/>
+      <c r="AF43" s="18"/>
+      <c r="AG43" s="18"/>
+      <c r="AH43" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="AI43" s="19" t="n">
+      <c r="AI43" s="18" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -8138,14 +7338,14 @@
   </sheetPr>
   <dimension ref="A1:AI41"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B22" activeCellId="0" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="35" min="1" style="0" width="9.4030612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="36" style="0" width="18.6938775510204"/>
+    <col collapsed="false" hidden="false" max="35" min="1" style="0" width="10.8877551020408"/>
+    <col collapsed="false" hidden="false" max="1025" min="36" style="0" width="9.16836734693878"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8256,86 +7456,86 @@
         <f aca="false">Populations!$C$3</f>
         <v>M 15-49</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20" t="n">
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19" t="n">
         <v>0.0645</v>
       </c>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="20"/>
-      <c r="S3" s="20"/>
-      <c r="T3" s="20"/>
-      <c r="U3" s="20"/>
-      <c r="V3" s="20"/>
-      <c r="W3" s="20"/>
-      <c r="X3" s="20"/>
-      <c r="Y3" s="20"/>
-      <c r="Z3" s="20"/>
-      <c r="AA3" s="20"/>
-      <c r="AB3" s="20"/>
-      <c r="AC3" s="20"/>
-      <c r="AD3" s="20"/>
-      <c r="AE3" s="20"/>
-      <c r="AF3" s="20"/>
-      <c r="AG3" s="20"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="19"/>
+      <c r="V3" s="19"/>
+      <c r="W3" s="19"/>
+      <c r="X3" s="19"/>
+      <c r="Y3" s="19"/>
+      <c r="Z3" s="19"/>
+      <c r="AA3" s="19"/>
+      <c r="AB3" s="19"/>
+      <c r="AC3" s="19"/>
+      <c r="AD3" s="19"/>
+      <c r="AE3" s="19"/>
+      <c r="AF3" s="19"/>
+      <c r="AG3" s="19"/>
       <c r="AH3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="AI3" s="20"/>
+      <c r="AI3" s="19"/>
     </row>
     <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B4" s="6" t="str">
         <f aca="false">Populations!$C$4</f>
         <v>F 15-49</v>
       </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20" t="n">
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19" t="n">
         <v>0.0645</v>
       </c>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="20"/>
-      <c r="S4" s="20"/>
-      <c r="T4" s="20"/>
-      <c r="U4" s="20"/>
-      <c r="V4" s="20"/>
-      <c r="W4" s="20"/>
-      <c r="X4" s="20"/>
-      <c r="Y4" s="20"/>
-      <c r="Z4" s="20"/>
-      <c r="AA4" s="20"/>
-      <c r="AB4" s="20"/>
-      <c r="AC4" s="20"/>
-      <c r="AD4" s="20"/>
-      <c r="AE4" s="20"/>
-      <c r="AF4" s="20"/>
-      <c r="AG4" s="20"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="19"/>
+      <c r="U4" s="19"/>
+      <c r="V4" s="19"/>
+      <c r="W4" s="19"/>
+      <c r="X4" s="19"/>
+      <c r="Y4" s="19"/>
+      <c r="Z4" s="19"/>
+      <c r="AA4" s="19"/>
+      <c r="AB4" s="19"/>
+      <c r="AC4" s="19"/>
+      <c r="AD4" s="19"/>
+      <c r="AE4" s="19"/>
+      <c r="AF4" s="19"/>
+      <c r="AG4" s="19"/>
       <c r="AH4" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="AI4" s="20"/>
+      <c r="AI4" s="19"/>
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
@@ -8478,7 +7678,7 @@
       <c r="AH10" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="AI10" s="21" t="n">
+      <c r="AI10" s="20" t="n">
         <v>0.65</v>
       </c>
     </row>
@@ -8743,86 +7943,86 @@
         <f aca="false">Populations!$C$3</f>
         <v>M 15-49</v>
       </c>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="20"/>
-      <c r="N22" s="20"/>
-      <c r="O22" s="20"/>
-      <c r="P22" s="20"/>
-      <c r="Q22" s="20" t="n">
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="19"/>
+      <c r="P22" s="19"/>
+      <c r="Q22" s="19" t="n">
         <v>0</v>
       </c>
-      <c r="R22" s="20"/>
-      <c r="S22" s="20"/>
-      <c r="T22" s="20"/>
-      <c r="U22" s="20"/>
-      <c r="V22" s="20"/>
-      <c r="W22" s="20"/>
-      <c r="X22" s="20"/>
-      <c r="Y22" s="20"/>
-      <c r="Z22" s="20"/>
-      <c r="AA22" s="20"/>
-      <c r="AB22" s="20"/>
-      <c r="AC22" s="20"/>
-      <c r="AD22" s="20"/>
-      <c r="AE22" s="20"/>
-      <c r="AF22" s="20"/>
-      <c r="AG22" s="20"/>
+      <c r="R22" s="19"/>
+      <c r="S22" s="19"/>
+      <c r="T22" s="19"/>
+      <c r="U22" s="19"/>
+      <c r="V22" s="19"/>
+      <c r="W22" s="19"/>
+      <c r="X22" s="19"/>
+      <c r="Y22" s="19"/>
+      <c r="Z22" s="19"/>
+      <c r="AA22" s="19"/>
+      <c r="AB22" s="19"/>
+      <c r="AC22" s="19"/>
+      <c r="AD22" s="19"/>
+      <c r="AE22" s="19"/>
+      <c r="AF22" s="19"/>
+      <c r="AG22" s="19"/>
       <c r="AH22" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="AI22" s="20"/>
+      <c r="AI22" s="19"/>
     </row>
     <row r="23" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B23" s="6" t="str">
         <f aca="false">Populations!$C$4</f>
         <v>F 15-49</v>
       </c>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="20"/>
-      <c r="M23" s="20"/>
-      <c r="N23" s="20"/>
-      <c r="O23" s="20"/>
-      <c r="P23" s="20"/>
-      <c r="Q23" s="20" t="n">
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="19"/>
+      <c r="P23" s="19"/>
+      <c r="Q23" s="19" t="n">
         <v>0</v>
       </c>
-      <c r="R23" s="20"/>
-      <c r="S23" s="20"/>
-      <c r="T23" s="20"/>
-      <c r="U23" s="20"/>
-      <c r="V23" s="20"/>
-      <c r="W23" s="20"/>
-      <c r="X23" s="20"/>
-      <c r="Y23" s="20"/>
-      <c r="Z23" s="20"/>
-      <c r="AA23" s="20"/>
-      <c r="AB23" s="20"/>
-      <c r="AC23" s="20"/>
-      <c r="AD23" s="20"/>
-      <c r="AE23" s="20"/>
-      <c r="AF23" s="20"/>
-      <c r="AG23" s="20"/>
+      <c r="R23" s="19"/>
+      <c r="S23" s="19"/>
+      <c r="T23" s="19"/>
+      <c r="U23" s="19"/>
+      <c r="V23" s="19"/>
+      <c r="W23" s="19"/>
+      <c r="X23" s="19"/>
+      <c r="Y23" s="19"/>
+      <c r="Z23" s="19"/>
+      <c r="AA23" s="19"/>
+      <c r="AB23" s="19"/>
+      <c r="AC23" s="19"/>
+      <c r="AD23" s="19"/>
+      <c r="AE23" s="19"/>
+      <c r="AF23" s="19"/>
+      <c r="AG23" s="19"/>
       <c r="AH23" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="AI23" s="20"/>
+      <c r="AI23" s="19"/>
     </row>
     <row r="27" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
@@ -9254,41 +8454,41 @@
       <c r="B41" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C41" s="20"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="20"/>
-      <c r="H41" s="20"/>
-      <c r="I41" s="20"/>
-      <c r="J41" s="20"/>
-      <c r="K41" s="20"/>
-      <c r="L41" s="20"/>
-      <c r="M41" s="20"/>
-      <c r="N41" s="20"/>
-      <c r="O41" s="20"/>
-      <c r="P41" s="20"/>
-      <c r="Q41" s="20"/>
-      <c r="R41" s="20"/>
-      <c r="S41" s="20"/>
-      <c r="T41" s="20"/>
-      <c r="U41" s="20"/>
-      <c r="V41" s="20"/>
-      <c r="W41" s="20"/>
-      <c r="X41" s="20"/>
-      <c r="Y41" s="20"/>
-      <c r="Z41" s="20"/>
-      <c r="AA41" s="20"/>
-      <c r="AB41" s="20"/>
-      <c r="AC41" s="20"/>
-      <c r="AD41" s="20"/>
-      <c r="AE41" s="20"/>
-      <c r="AF41" s="20"/>
-      <c r="AG41" s="20"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="19"/>
+      <c r="I41" s="19"/>
+      <c r="J41" s="19"/>
+      <c r="K41" s="19"/>
+      <c r="L41" s="19"/>
+      <c r="M41" s="19"/>
+      <c r="N41" s="19"/>
+      <c r="O41" s="19"/>
+      <c r="P41" s="19"/>
+      <c r="Q41" s="19"/>
+      <c r="R41" s="19"/>
+      <c r="S41" s="19"/>
+      <c r="T41" s="19"/>
+      <c r="U41" s="19"/>
+      <c r="V41" s="19"/>
+      <c r="W41" s="19"/>
+      <c r="X41" s="19"/>
+      <c r="Y41" s="19"/>
+      <c r="Z41" s="19"/>
+      <c r="AA41" s="19"/>
+      <c r="AB41" s="19"/>
+      <c r="AC41" s="19"/>
+      <c r="AD41" s="19"/>
+      <c r="AE41" s="19"/>
+      <c r="AF41" s="19"/>
+      <c r="AG41" s="19"/>
       <c r="AH41" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="AI41" s="22" t="n">
+      <c r="AI41" s="21" t="n">
         <f aca="false">14/100*87/100</f>
         <v>0.1218</v>
       </c>
@@ -9319,8 +8519,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="35" min="1" style="0" width="9.4030612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="36" style="0" width="18.6938775510204"/>
+    <col collapsed="false" hidden="false" max="35" min="1" style="0" width="10.8877551020408"/>
+    <col collapsed="false" hidden="false" max="1025" min="36" style="0" width="9.16836734693878"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9465,7 +8665,7 @@
       <c r="AH3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="AI3" s="23" t="n">
+      <c r="AI3" s="22" t="n">
         <v>100</v>
       </c>
     </row>
@@ -9508,7 +8708,7 @@
       <c r="AH4" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="AI4" s="23" t="n">
+      <c r="AI4" s="22" t="n">
         <v>100</v>
       </c>
     </row>
@@ -9654,7 +8854,7 @@
       <c r="AH10" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="AI10" s="23" t="n">
+      <c r="AI10" s="22" t="n">
         <f aca="false">0.2*3*20</f>
         <v>12</v>
       </c>
@@ -9698,7 +8898,7 @@
       <c r="AH11" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="AI11" s="23" t="n">
+      <c r="AI11" s="22" t="n">
         <f aca="false">0.1*3*20</f>
         <v>6</v>
       </c>
@@ -10000,41 +9200,41 @@
         <f aca="false">Populations!$C$3</f>
         <v>M 15-49</v>
       </c>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="20"/>
-      <c r="L24" s="20"/>
-      <c r="M24" s="20"/>
-      <c r="N24" s="20"/>
-      <c r="O24" s="20"/>
-      <c r="P24" s="20"/>
-      <c r="Q24" s="20"/>
-      <c r="R24" s="20"/>
-      <c r="S24" s="20"/>
-      <c r="T24" s="20"/>
-      <c r="U24" s="20"/>
-      <c r="V24" s="20"/>
-      <c r="W24" s="20"/>
-      <c r="X24" s="20"/>
-      <c r="Y24" s="20"/>
-      <c r="Z24" s="20"/>
-      <c r="AA24" s="20"/>
-      <c r="AB24" s="20"/>
-      <c r="AC24" s="20"/>
-      <c r="AD24" s="20"/>
-      <c r="AE24" s="20"/>
-      <c r="AF24" s="20"/>
-      <c r="AG24" s="20"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="19"/>
+      <c r="O24" s="19"/>
+      <c r="P24" s="19"/>
+      <c r="Q24" s="19"/>
+      <c r="R24" s="19"/>
+      <c r="S24" s="19"/>
+      <c r="T24" s="19"/>
+      <c r="U24" s="19"/>
+      <c r="V24" s="19"/>
+      <c r="W24" s="19"/>
+      <c r="X24" s="19"/>
+      <c r="Y24" s="19"/>
+      <c r="Z24" s="19"/>
+      <c r="AA24" s="19"/>
+      <c r="AB24" s="19"/>
+      <c r="AC24" s="19"/>
+      <c r="AD24" s="19"/>
+      <c r="AE24" s="19"/>
+      <c r="AF24" s="19"/>
+      <c r="AG24" s="19"/>
       <c r="AH24" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="AI24" s="24" t="n">
+      <c r="AI24" s="23" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -10043,41 +9243,41 @@
         <f aca="false">Populations!$C$4</f>
         <v>F 15-49</v>
       </c>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="20"/>
-      <c r="M25" s="20"/>
-      <c r="N25" s="20"/>
-      <c r="O25" s="20"/>
-      <c r="P25" s="20"/>
-      <c r="Q25" s="20"/>
-      <c r="R25" s="20"/>
-      <c r="S25" s="20"/>
-      <c r="T25" s="20"/>
-      <c r="U25" s="20"/>
-      <c r="V25" s="20"/>
-      <c r="W25" s="20"/>
-      <c r="X25" s="20"/>
-      <c r="Y25" s="20"/>
-      <c r="Z25" s="20"/>
-      <c r="AA25" s="20"/>
-      <c r="AB25" s="20"/>
-      <c r="AC25" s="20"/>
-      <c r="AD25" s="20"/>
-      <c r="AE25" s="20"/>
-      <c r="AF25" s="20"/>
-      <c r="AG25" s="20"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="19"/>
+      <c r="O25" s="19"/>
+      <c r="P25" s="19"/>
+      <c r="Q25" s="19"/>
+      <c r="R25" s="19"/>
+      <c r="S25" s="19"/>
+      <c r="T25" s="19"/>
+      <c r="U25" s="19"/>
+      <c r="V25" s="19"/>
+      <c r="W25" s="19"/>
+      <c r="X25" s="19"/>
+      <c r="Y25" s="19"/>
+      <c r="Z25" s="19"/>
+      <c r="AA25" s="19"/>
+      <c r="AB25" s="19"/>
+      <c r="AC25" s="19"/>
+      <c r="AD25" s="19"/>
+      <c r="AE25" s="19"/>
+      <c r="AF25" s="19"/>
+      <c r="AG25" s="19"/>
       <c r="AH25" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="AI25" s="24" t="n">
+      <c r="AI25" s="23" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -10189,41 +9389,41 @@
         <f aca="false">Populations!$C$3</f>
         <v>M 15-49</v>
       </c>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="20"/>
-      <c r="K31" s="20"/>
-      <c r="L31" s="20"/>
-      <c r="M31" s="20"/>
-      <c r="N31" s="20"/>
-      <c r="O31" s="20"/>
-      <c r="P31" s="20"/>
-      <c r="Q31" s="20"/>
-      <c r="R31" s="20"/>
-      <c r="S31" s="20"/>
-      <c r="T31" s="20"/>
-      <c r="U31" s="20"/>
-      <c r="V31" s="20"/>
-      <c r="W31" s="20"/>
-      <c r="X31" s="20"/>
-      <c r="Y31" s="20"/>
-      <c r="Z31" s="20"/>
-      <c r="AA31" s="20"/>
-      <c r="AB31" s="20"/>
-      <c r="AC31" s="20"/>
-      <c r="AD31" s="20"/>
-      <c r="AE31" s="20"/>
-      <c r="AF31" s="20"/>
-      <c r="AG31" s="20"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="19"/>
+      <c r="O31" s="19"/>
+      <c r="P31" s="19"/>
+      <c r="Q31" s="19"/>
+      <c r="R31" s="19"/>
+      <c r="S31" s="19"/>
+      <c r="T31" s="19"/>
+      <c r="U31" s="19"/>
+      <c r="V31" s="19"/>
+      <c r="W31" s="19"/>
+      <c r="X31" s="19"/>
+      <c r="Y31" s="19"/>
+      <c r="Z31" s="19"/>
+      <c r="AA31" s="19"/>
+      <c r="AB31" s="19"/>
+      <c r="AC31" s="19"/>
+      <c r="AD31" s="19"/>
+      <c r="AE31" s="19"/>
+      <c r="AF31" s="19"/>
+      <c r="AG31" s="19"/>
       <c r="AH31" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="AI31" s="20" t="n">
+      <c r="AI31" s="19" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -10232,41 +9432,41 @@
         <f aca="false">Populations!$C$4</f>
         <v>F 15-49</v>
       </c>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="20"/>
-      <c r="K32" s="20"/>
-      <c r="L32" s="20"/>
-      <c r="M32" s="20"/>
-      <c r="N32" s="20"/>
-      <c r="O32" s="20"/>
-      <c r="P32" s="20"/>
-      <c r="Q32" s="20"/>
-      <c r="R32" s="20"/>
-      <c r="S32" s="20"/>
-      <c r="T32" s="20"/>
-      <c r="U32" s="20"/>
-      <c r="V32" s="20"/>
-      <c r="W32" s="20"/>
-      <c r="X32" s="20"/>
-      <c r="Y32" s="20"/>
-      <c r="Z32" s="20"/>
-      <c r="AA32" s="20"/>
-      <c r="AB32" s="20"/>
-      <c r="AC32" s="20"/>
-      <c r="AD32" s="20"/>
-      <c r="AE32" s="20"/>
-      <c r="AF32" s="20"/>
-      <c r="AG32" s="20"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="19"/>
+      <c r="M32" s="19"/>
+      <c r="N32" s="19"/>
+      <c r="O32" s="19"/>
+      <c r="P32" s="19"/>
+      <c r="Q32" s="19"/>
+      <c r="R32" s="19"/>
+      <c r="S32" s="19"/>
+      <c r="T32" s="19"/>
+      <c r="U32" s="19"/>
+      <c r="V32" s="19"/>
+      <c r="W32" s="19"/>
+      <c r="X32" s="19"/>
+      <c r="Y32" s="19"/>
+      <c r="Z32" s="19"/>
+      <c r="AA32" s="19"/>
+      <c r="AB32" s="19"/>
+      <c r="AC32" s="19"/>
+      <c r="AD32" s="19"/>
+      <c r="AE32" s="19"/>
+      <c r="AF32" s="19"/>
+      <c r="AG32" s="19"/>
       <c r="AH32" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="AI32" s="20" t="n">
+      <c r="AI32" s="19" t="n">
         <v>0.4</v>
       </c>
     </row>
@@ -10378,41 +9578,41 @@
         <f aca="false">Populations!$C$3</f>
         <v>M 15-49</v>
       </c>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="20"/>
-      <c r="I38" s="20"/>
-      <c r="J38" s="20"/>
-      <c r="K38" s="20"/>
-      <c r="L38" s="20"/>
-      <c r="M38" s="20"/>
-      <c r="N38" s="20"/>
-      <c r="O38" s="20"/>
-      <c r="P38" s="20"/>
-      <c r="Q38" s="20"/>
-      <c r="R38" s="20"/>
-      <c r="S38" s="20"/>
-      <c r="T38" s="20"/>
-      <c r="U38" s="20"/>
-      <c r="V38" s="20"/>
-      <c r="W38" s="20"/>
-      <c r="X38" s="20"/>
-      <c r="Y38" s="20"/>
-      <c r="Z38" s="20"/>
-      <c r="AA38" s="20"/>
-      <c r="AB38" s="20"/>
-      <c r="AC38" s="20"/>
-      <c r="AD38" s="20"/>
-      <c r="AE38" s="20"/>
-      <c r="AF38" s="20"/>
-      <c r="AG38" s="20"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="19"/>
+      <c r="K38" s="19"/>
+      <c r="L38" s="19"/>
+      <c r="M38" s="19"/>
+      <c r="N38" s="19"/>
+      <c r="O38" s="19"/>
+      <c r="P38" s="19"/>
+      <c r="Q38" s="19"/>
+      <c r="R38" s="19"/>
+      <c r="S38" s="19"/>
+      <c r="T38" s="19"/>
+      <c r="U38" s="19"/>
+      <c r="V38" s="19"/>
+      <c r="W38" s="19"/>
+      <c r="X38" s="19"/>
+      <c r="Y38" s="19"/>
+      <c r="Z38" s="19"/>
+      <c r="AA38" s="19"/>
+      <c r="AB38" s="19"/>
+      <c r="AC38" s="19"/>
+      <c r="AD38" s="19"/>
+      <c r="AE38" s="19"/>
+      <c r="AF38" s="19"/>
+      <c r="AG38" s="19"/>
       <c r="AH38" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="AI38" s="25" t="n">
+      <c r="AI38" s="24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10421,41 +9621,41 @@
         <f aca="false">Populations!$C$4</f>
         <v>F 15-49</v>
       </c>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="20"/>
-      <c r="H39" s="20"/>
-      <c r="I39" s="20"/>
-      <c r="J39" s="20"/>
-      <c r="K39" s="20"/>
-      <c r="L39" s="20"/>
-      <c r="M39" s="20"/>
-      <c r="N39" s="20"/>
-      <c r="O39" s="20"/>
-      <c r="P39" s="20"/>
-      <c r="Q39" s="20"/>
-      <c r="R39" s="20"/>
-      <c r="S39" s="20"/>
-      <c r="T39" s="20"/>
-      <c r="U39" s="20"/>
-      <c r="V39" s="20"/>
-      <c r="W39" s="20"/>
-      <c r="X39" s="20"/>
-      <c r="Y39" s="20"/>
-      <c r="Z39" s="20"/>
-      <c r="AA39" s="20"/>
-      <c r="AB39" s="20"/>
-      <c r="AC39" s="20"/>
-      <c r="AD39" s="20"/>
-      <c r="AE39" s="20"/>
-      <c r="AF39" s="20"/>
-      <c r="AG39" s="20"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="19"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="19"/>
+      <c r="K39" s="19"/>
+      <c r="L39" s="19"/>
+      <c r="M39" s="19"/>
+      <c r="N39" s="19"/>
+      <c r="O39" s="19"/>
+      <c r="P39" s="19"/>
+      <c r="Q39" s="19"/>
+      <c r="R39" s="19"/>
+      <c r="S39" s="19"/>
+      <c r="T39" s="19"/>
+      <c r="U39" s="19"/>
+      <c r="V39" s="19"/>
+      <c r="W39" s="19"/>
+      <c r="X39" s="19"/>
+      <c r="Y39" s="19"/>
+      <c r="Z39" s="19"/>
+      <c r="AA39" s="19"/>
+      <c r="AB39" s="19"/>
+      <c r="AC39" s="19"/>
+      <c r="AD39" s="19"/>
+      <c r="AE39" s="19"/>
+      <c r="AF39" s="19"/>
+      <c r="AG39" s="19"/>
       <c r="AH39" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="AI39" s="24" t="n">
+      <c r="AI39" s="23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10567,41 +9767,41 @@
         <f aca="false">Populations!$C$3</f>
         <v>M 15-49</v>
       </c>
-      <c r="C45" s="20"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="20"/>
-      <c r="G45" s="20"/>
-      <c r="H45" s="20"/>
-      <c r="I45" s="20"/>
-      <c r="J45" s="20"/>
-      <c r="K45" s="20"/>
-      <c r="L45" s="20"/>
-      <c r="M45" s="20"/>
-      <c r="N45" s="20"/>
-      <c r="O45" s="20"/>
-      <c r="P45" s="20"/>
-      <c r="Q45" s="20"/>
-      <c r="R45" s="20"/>
-      <c r="S45" s="20"/>
-      <c r="T45" s="20"/>
-      <c r="U45" s="20"/>
-      <c r="V45" s="20"/>
-      <c r="W45" s="20"/>
-      <c r="X45" s="20"/>
-      <c r="Y45" s="20"/>
-      <c r="Z45" s="20"/>
-      <c r="AA45" s="20"/>
-      <c r="AB45" s="20"/>
-      <c r="AC45" s="20"/>
-      <c r="AD45" s="20"/>
-      <c r="AE45" s="20"/>
-      <c r="AF45" s="20"/>
-      <c r="AG45" s="20"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="19"/>
+      <c r="G45" s="19"/>
+      <c r="H45" s="19"/>
+      <c r="I45" s="19"/>
+      <c r="J45" s="19"/>
+      <c r="K45" s="19"/>
+      <c r="L45" s="19"/>
+      <c r="M45" s="19"/>
+      <c r="N45" s="19"/>
+      <c r="O45" s="19"/>
+      <c r="P45" s="19"/>
+      <c r="Q45" s="19"/>
+      <c r="R45" s="19"/>
+      <c r="S45" s="19"/>
+      <c r="T45" s="19"/>
+      <c r="U45" s="19"/>
+      <c r="V45" s="19"/>
+      <c r="W45" s="19"/>
+      <c r="X45" s="19"/>
+      <c r="Y45" s="19"/>
+      <c r="Z45" s="19"/>
+      <c r="AA45" s="19"/>
+      <c r="AB45" s="19"/>
+      <c r="AC45" s="19"/>
+      <c r="AD45" s="19"/>
+      <c r="AE45" s="19"/>
+      <c r="AF45" s="19"/>
+      <c r="AG45" s="19"/>
       <c r="AH45" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="AI45" s="24" t="n">
+      <c r="AI45" s="23" t="n">
         <v>0.1</v>
       </c>
     </row>

--- a/tests/cascade2p.xlsx
+++ b/tests/cascade2p.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" state="visible" r:id="rId2"/>
@@ -850,15 +850,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>81000</xdr:colOff>
+      <xdr:colOff>108000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>156240</xdr:colOff>
+      <xdr:colOff>182880</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>37080</xdr:rowOff>
+      <xdr:rowOff>36720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -867,8 +867,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="81000" y="0"/>
-          <a:ext cx="12368520" cy="7123680"/>
+          <a:off x="108000" y="0"/>
+          <a:ext cx="13282560" cy="7123320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -895,15 +895,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>81000</xdr:colOff>
+      <xdr:colOff>108000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>156240</xdr:colOff>
+      <xdr:colOff>182880</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>37080</xdr:rowOff>
+      <xdr:rowOff>36720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -912,8 +912,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="81000" y="0"/>
-          <a:ext cx="12368520" cy="7123680"/>
+          <a:off x="108000" y="0"/>
+          <a:ext cx="13282560" cy="7123320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -940,15 +940,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>81000</xdr:colOff>
+      <xdr:colOff>108000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>156240</xdr:colOff>
+      <xdr:colOff>182880</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>37080</xdr:rowOff>
+      <xdr:rowOff>36720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -957,8 +957,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="81000" y="0"/>
-          <a:ext cx="12368520" cy="7123680"/>
+          <a:off x="108000" y="0"/>
+          <a:ext cx="13282560" cy="7123320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -985,15 +985,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>81000</xdr:colOff>
+      <xdr:colOff>108000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>156240</xdr:colOff>
+      <xdr:colOff>182880</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>37080</xdr:rowOff>
+      <xdr:rowOff>36720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1002,8 +1002,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="81000" y="0"/>
-          <a:ext cx="12368520" cy="7123680"/>
+          <a:off x="108000" y="0"/>
+          <a:ext cx="13282560" cy="7123320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1030,15 +1030,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>81000</xdr:colOff>
+      <xdr:colOff>108000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>156240</xdr:colOff>
+      <xdr:colOff>182880</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>37080</xdr:rowOff>
+      <xdr:rowOff>36720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1047,8 +1047,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="81000" y="0"/>
-          <a:ext cx="12368520" cy="7123680"/>
+          <a:off x="108000" y="0"/>
+          <a:ext cx="13282560" cy="7123320"/>
         </a:xfrm>
         <a:solidFill>
           <a:srgbClr val="ffffff"/>
@@ -1077,15 +1077,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>81000</xdr:colOff>
+      <xdr:colOff>108000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>156240</xdr:colOff>
+      <xdr:colOff>182880</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>37080</xdr:rowOff>
+      <xdr:rowOff>36720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1094,8 +1094,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="81000" y="0"/>
-          <a:ext cx="12368520" cy="7314120"/>
+          <a:off x="108000" y="0"/>
+          <a:ext cx="13282560" cy="7313760"/>
         </a:xfrm>
         <a:solidFill>
           <a:srgbClr val="ffffff"/>
@@ -1124,15 +1124,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>81000</xdr:colOff>
+      <xdr:colOff>108000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>156240</xdr:colOff>
+      <xdr:colOff>182880</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>94320</xdr:rowOff>
+      <xdr:rowOff>93960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1141,8 +1141,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="81000" y="0"/>
-          <a:ext cx="12368520" cy="8438040"/>
+          <a:off x="108000" y="0"/>
+          <a:ext cx="13282560" cy="8437680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1169,15 +1169,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>81000</xdr:colOff>
+      <xdr:colOff>108000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>156240</xdr:colOff>
+      <xdr:colOff>182880</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>94320</xdr:rowOff>
+      <xdr:rowOff>93960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1186,8 +1186,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="81000" y="0"/>
-          <a:ext cx="12368520" cy="8438040"/>
+          <a:off x="108000" y="0"/>
+          <a:ext cx="13282560" cy="8437680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1214,15 +1214,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>81000</xdr:colOff>
+      <xdr:colOff>108000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>156240</xdr:colOff>
+      <xdr:colOff>182880</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>94320</xdr:rowOff>
+      <xdr:rowOff>93960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1231,8 +1231,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="81000" y="0"/>
-          <a:ext cx="12368520" cy="8438040"/>
+          <a:off x="108000" y="0"/>
+          <a:ext cx="13282560" cy="8437680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1259,15 +1259,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>81000</xdr:colOff>
+      <xdr:colOff>108000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>156240</xdr:colOff>
+      <xdr:colOff>182880</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>94320</xdr:rowOff>
+      <xdr:rowOff>93960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1276,8 +1276,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="81000" y="0"/>
-          <a:ext cx="12368520" cy="8438040"/>
+          <a:off x="108000" y="0"/>
+          <a:ext cx="13282560" cy="8437680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1304,15 +1304,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>81000</xdr:colOff>
+      <xdr:colOff>108000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>156240</xdr:colOff>
+      <xdr:colOff>182880</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>94320</xdr:rowOff>
+      <xdr:rowOff>93960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1321,8 +1321,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="81000" y="0"/>
-          <a:ext cx="12368520" cy="9771480"/>
+          <a:off x="108000" y="0"/>
+          <a:ext cx="13282560" cy="9771120"/>
         </a:xfrm>
         <a:solidFill>
           <a:srgbClr val="ffffff"/>
@@ -1351,15 +1351,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>81000</xdr:colOff>
+      <xdr:colOff>108000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>156240</xdr:colOff>
+      <xdr:colOff>182880</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>56160</xdr:rowOff>
+      <xdr:rowOff>55800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1368,8 +1368,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="81000" y="0"/>
-          <a:ext cx="12368520" cy="7809480"/>
+          <a:off x="108000" y="0"/>
+          <a:ext cx="13282560" cy="7809120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1396,15 +1396,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>81000</xdr:colOff>
+      <xdr:colOff>108000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>156240</xdr:colOff>
+      <xdr:colOff>182880</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>56160</xdr:rowOff>
+      <xdr:rowOff>55800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1413,8 +1413,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="81000" y="0"/>
-          <a:ext cx="12368520" cy="7809480"/>
+          <a:off x="108000" y="0"/>
+          <a:ext cx="13282560" cy="7809120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1441,15 +1441,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>81000</xdr:colOff>
+      <xdr:colOff>108000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>156240</xdr:colOff>
+      <xdr:colOff>182880</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>56160</xdr:rowOff>
+      <xdr:rowOff>55800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1458,8 +1458,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="81000" y="0"/>
-          <a:ext cx="12368520" cy="7809480"/>
+          <a:off x="108000" y="0"/>
+          <a:ext cx="13282560" cy="7809120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1486,15 +1486,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>81000</xdr:colOff>
+      <xdr:colOff>108000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>156240</xdr:colOff>
+      <xdr:colOff>182880</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>56160</xdr:rowOff>
+      <xdr:rowOff>55800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1503,8 +1503,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="81000" y="0"/>
-          <a:ext cx="12368520" cy="7809480"/>
+          <a:off x="108000" y="0"/>
+          <a:ext cx="13282560" cy="7809120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1531,15 +1531,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>81000</xdr:colOff>
+      <xdr:colOff>108000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>156240</xdr:colOff>
+      <xdr:colOff>182880</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>56160</xdr:rowOff>
+      <xdr:rowOff>55800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1548,8 +1548,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="81000" y="0"/>
-          <a:ext cx="12368520" cy="10095480"/>
+          <a:off x="108000" y="0"/>
+          <a:ext cx="13282560" cy="10095120"/>
         </a:xfrm>
         <a:solidFill>
           <a:srgbClr val="ffffff"/>
@@ -1578,15 +1578,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>81000</xdr:colOff>
+      <xdr:colOff>108000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>156240</xdr:colOff>
+      <xdr:colOff>182880</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>94320</xdr:rowOff>
+      <xdr:rowOff>93960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1595,8 +1595,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="81000" y="0"/>
-          <a:ext cx="12368520" cy="9866880"/>
+          <a:off x="108000" y="0"/>
+          <a:ext cx="13282560" cy="9866520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1623,15 +1623,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>81000</xdr:colOff>
+      <xdr:colOff>108000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>156240</xdr:colOff>
+      <xdr:colOff>182880</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>94320</xdr:rowOff>
+      <xdr:rowOff>93960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1640,8 +1640,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="81000" y="0"/>
-          <a:ext cx="12368520" cy="9866880"/>
+          <a:off x="108000" y="0"/>
+          <a:ext cx="13282560" cy="9866520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1668,15 +1668,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>81000</xdr:colOff>
+      <xdr:colOff>108000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>156240</xdr:colOff>
+      <xdr:colOff>182880</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>94320</xdr:rowOff>
+      <xdr:rowOff>93960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1685,8 +1685,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="81000" y="0"/>
-          <a:ext cx="12368520" cy="9866880"/>
+          <a:off x="108000" y="0"/>
+          <a:ext cx="13282560" cy="9866520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1713,15 +1713,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>81000</xdr:colOff>
+      <xdr:colOff>108000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>156240</xdr:colOff>
+      <xdr:colOff>182880</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>94320</xdr:rowOff>
+      <xdr:rowOff>93960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1730,8 +1730,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="81000" y="0"/>
-          <a:ext cx="12368520" cy="9866880"/>
+          <a:off x="108000" y="0"/>
+          <a:ext cx="13282560" cy="9866520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1758,15 +1758,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>81000</xdr:colOff>
+      <xdr:colOff>108000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>156240</xdr:colOff>
+      <xdr:colOff>182880</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>94320</xdr:rowOff>
+      <xdr:rowOff>93960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1775,8 +1775,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="81000" y="0"/>
-          <a:ext cx="12368520" cy="9866880"/>
+          <a:off x="108000" y="0"/>
+          <a:ext cx="13282560" cy="9866520"/>
         </a:xfrm>
         <a:solidFill>
           <a:srgbClr val="ffffff"/>
@@ -1813,8 +1813,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="112.841836734694"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="9.16836734693878"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="121.908163265306"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="9.86224489795918"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1871,8 +1871,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="35" min="1" style="0" width="10.8877551020408"/>
-    <col collapsed="false" hidden="false" max="1025" min="36" style="0" width="9.16836734693878"/>
+    <col collapsed="false" hidden="false" max="35" min="1" style="0" width="11.6989795918367"/>
+    <col collapsed="false" hidden="false" max="1025" min="36" style="0" width="9.86224489795918"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2422,10 +2422,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="10.8877551020408"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.8316326530612"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="10.8877551020408"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.16836734693878"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="11.6989795918367"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="16.9744897959184"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="11.6989795918367"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.86224489795918"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2659,15 +2659,15 @@
   </sheetPr>
   <dimension ref="A1:I79"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A36" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C64" activeCellId="0" sqref="C64"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A36" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B45" activeCellId="0" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.16836734693878"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="51.1428571428572"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.16836734693878"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.86224489795918"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="55.1683673469388"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.86224489795918"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3536,12 +3536,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="10.8877551020408"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.6122448979592"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="51.1428571428572"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="10.8877551020408"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.8316326530612"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="9.16836734693878"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="11.6989795918367"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.2091836734694"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="55.1683673469388"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="11.6989795918367"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.9744897959184"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="9.86224489795918"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3660,8 +3660,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="36" min="1" style="0" width="10.8877551020408"/>
-    <col collapsed="false" hidden="false" max="1025" min="37" style="0" width="9.16836734693878"/>
+    <col collapsed="false" hidden="false" max="36" min="1" style="0" width="11.6989795918367"/>
+    <col collapsed="false" hidden="false" max="1025" min="37" style="0" width="9.86224489795918"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4072,8 +4072,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="36" min="1" style="0" width="10.8877551020408"/>
-    <col collapsed="false" hidden="false" max="1025" min="37" style="0" width="9.16836734693878"/>
+    <col collapsed="false" hidden="false" max="36" min="1" style="0" width="11.6989795918367"/>
+    <col collapsed="false" hidden="false" max="1025" min="37" style="0" width="9.86224489795918"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4480,8 +4480,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="35" min="1" style="0" width="10.8877551020408"/>
-    <col collapsed="false" hidden="false" max="1025" min="36" style="0" width="9.16836734693878"/>
+    <col collapsed="false" hidden="false" max="35" min="1" style="0" width="11.6989795918367"/>
+    <col collapsed="false" hidden="false" max="1025" min="36" style="0" width="9.86224489795918"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5081,8 +5081,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="35" min="1" style="0" width="10.8877551020408"/>
-    <col collapsed="false" hidden="false" max="1025" min="36" style="0" width="9.16836734693878"/>
+    <col collapsed="false" hidden="false" max="35" min="1" style="0" width="11.6989795918367"/>
+    <col collapsed="false" hidden="false" max="1025" min="36" style="0" width="9.86224489795918"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6104,13 +6104,13 @@
   </sheetPr>
   <dimension ref="A1:AI65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="AI38" activeCellId="0" sqref="AI38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.16836734693878"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.86224489795918"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7338,14 +7338,14 @@
   </sheetPr>
   <dimension ref="A1:AI41"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B22" activeCellId="0" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="35" min="1" style="0" width="10.8877551020408"/>
-    <col collapsed="false" hidden="false" max="1025" min="36" style="0" width="9.16836734693878"/>
+    <col collapsed="false" hidden="false" max="35" min="1" style="0" width="11.6989795918367"/>
+    <col collapsed="false" hidden="false" max="1025" min="36" style="0" width="9.86224489795918"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8519,8 +8519,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="35" min="1" style="0" width="10.8877551020408"/>
-    <col collapsed="false" hidden="false" max="1025" min="36" style="0" width="9.16836734693878"/>
+    <col collapsed="false" hidden="false" max="35" min="1" style="0" width="11.6989795918367"/>
+    <col collapsed="false" hidden="false" max="1025" min="36" style="0" width="9.86224489795918"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/tests/cascade2p.xlsx
+++ b/tests/cascade2p.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="11"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" state="visible" r:id="rId2"/>
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="118">
   <si>
     <t>O P T I M A</t>
   </si>
@@ -271,16 +271,28 @@
     <t>Percentage of people in care who are lost to follow-up per year (%/year)</t>
   </si>
   <si>
+    <t>Viral suppression – ART initiators (%)</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Biological failure rate (%/year)</t>
+  </si>
+  <si>
+    <t>Viral load monitoring (number/year)</t>
+  </si>
+  <si>
+    <t>Time to ART re-initiation (years)</t>
+  </si>
+  <si>
+    <t>PLHIV aware of their status (%)</t>
+  </si>
+  <si>
     <t>Percentage of HIV-diagnosed people who are in care (%)</t>
   </si>
   <si>
-    <t>Average</t>
-  </si>
-  <si>
     <t>Proportion of people on ART with viral suppression (%)</t>
-  </si>
-  <si>
-    <t>Biological failure rate (%/year)</t>
   </si>
   <si>
     <t>Percentage of population tested for HIV in the last 12 months</t>
@@ -497,13 +509,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="0"/>
     <numFmt numFmtId="166" formatCode="0.00E+00"/>
     <numFmt numFmtId="167" formatCode="0.00%"/>
     <numFmt numFmtId="168" formatCode="#,##0.00"/>
     <numFmt numFmtId="169" formatCode="0%"/>
+    <numFmt numFmtId="170" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -656,7 +669,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -730,6 +743,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="169" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -850,15 +867,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>108000</xdr:colOff>
+      <xdr:colOff>351000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>182880</xdr:colOff>
+      <xdr:colOff>422640</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>36720</xdr:rowOff>
+      <xdr:rowOff>33480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -867,8 +884,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="108000" y="0"/>
-          <a:ext cx="13282560" cy="7123320"/>
+          <a:off x="351000" y="0"/>
+          <a:ext cx="25572960" cy="7120080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -895,15 +912,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>108000</xdr:colOff>
+      <xdr:colOff>351000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>182880</xdr:colOff>
+      <xdr:colOff>422640</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>36720</xdr:rowOff>
+      <xdr:rowOff>33480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -912,8 +929,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="108000" y="0"/>
-          <a:ext cx="13282560" cy="7123320"/>
+          <a:off x="351000" y="0"/>
+          <a:ext cx="25572960" cy="7120080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -940,15 +957,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>108000</xdr:colOff>
+      <xdr:colOff>351000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>182880</xdr:colOff>
+      <xdr:colOff>422640</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>36720</xdr:rowOff>
+      <xdr:rowOff>33480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -957,8 +974,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="108000" y="0"/>
-          <a:ext cx="13282560" cy="7123320"/>
+          <a:off x="351000" y="0"/>
+          <a:ext cx="25572960" cy="7120080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -985,15 +1002,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>108000</xdr:colOff>
+      <xdr:colOff>351000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>182880</xdr:colOff>
+      <xdr:colOff>422640</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>36720</xdr:rowOff>
+      <xdr:rowOff>33480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1002,8 +1019,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="108000" y="0"/>
-          <a:ext cx="13282560" cy="7123320"/>
+          <a:off x="351000" y="0"/>
+          <a:ext cx="25572960" cy="7120080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1030,15 +1047,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>108000</xdr:colOff>
+      <xdr:colOff>351000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>182880</xdr:colOff>
+      <xdr:colOff>422640</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>36720</xdr:rowOff>
+      <xdr:rowOff>33480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1047,8 +1064,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="108000" y="0"/>
-          <a:ext cx="13282560" cy="7123320"/>
+          <a:off x="351000" y="0"/>
+          <a:ext cx="25572960" cy="7120080"/>
         </a:xfrm>
         <a:solidFill>
           <a:srgbClr val="ffffff"/>
@@ -1077,15 +1094,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>108000</xdr:colOff>
+      <xdr:colOff>351000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>182880</xdr:colOff>
+      <xdr:colOff>422640</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>36720</xdr:rowOff>
+      <xdr:rowOff>33480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1094,8 +1111,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="108000" y="0"/>
-          <a:ext cx="13282560" cy="7313760"/>
+          <a:off x="351000" y="0"/>
+          <a:ext cx="25572960" cy="7310520"/>
         </a:xfrm>
         <a:solidFill>
           <a:srgbClr val="ffffff"/>
@@ -1124,15 +1141,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>108000</xdr:colOff>
+      <xdr:colOff>351000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>182880</xdr:colOff>
+      <xdr:colOff>422640</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>93960</xdr:rowOff>
+      <xdr:rowOff>90720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1141,8 +1158,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="108000" y="0"/>
-          <a:ext cx="13282560" cy="8437680"/>
+          <a:off x="351000" y="0"/>
+          <a:ext cx="25572960" cy="8434440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1169,15 +1186,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>108000</xdr:colOff>
+      <xdr:colOff>351000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>182880</xdr:colOff>
+      <xdr:colOff>422640</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>93960</xdr:rowOff>
+      <xdr:rowOff>90720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1186,8 +1203,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="108000" y="0"/>
-          <a:ext cx="13282560" cy="8437680"/>
+          <a:off x="351000" y="0"/>
+          <a:ext cx="25572960" cy="8434440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1214,15 +1231,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>108000</xdr:colOff>
+      <xdr:colOff>351000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>182880</xdr:colOff>
+      <xdr:colOff>422640</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>93960</xdr:rowOff>
+      <xdr:rowOff>90720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1231,8 +1248,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="108000" y="0"/>
-          <a:ext cx="13282560" cy="8437680"/>
+          <a:off x="351000" y="0"/>
+          <a:ext cx="25572960" cy="8434440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1259,15 +1276,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>108000</xdr:colOff>
+      <xdr:colOff>351000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>182880</xdr:colOff>
+      <xdr:colOff>422640</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>93960</xdr:rowOff>
+      <xdr:rowOff>90720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1276,8 +1293,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="108000" y="0"/>
-          <a:ext cx="13282560" cy="8437680"/>
+          <a:off x="351000" y="0"/>
+          <a:ext cx="25572960" cy="8434440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1304,15 +1321,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>108000</xdr:colOff>
+      <xdr:colOff>351000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>182880</xdr:colOff>
+      <xdr:colOff>422640</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>93960</xdr:rowOff>
+      <xdr:rowOff>90720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1321,8 +1338,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="108000" y="0"/>
-          <a:ext cx="13282560" cy="9771120"/>
+          <a:off x="351000" y="0"/>
+          <a:ext cx="25572960" cy="9767880"/>
         </a:xfrm>
         <a:solidFill>
           <a:srgbClr val="ffffff"/>
@@ -1351,15 +1368,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>108000</xdr:colOff>
+      <xdr:colOff>351000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>182880</xdr:colOff>
+      <xdr:colOff>422640</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>55800</xdr:rowOff>
+      <xdr:rowOff>52560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1368,8 +1385,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="108000" y="0"/>
-          <a:ext cx="13282560" cy="7809120"/>
+          <a:off x="351000" y="0"/>
+          <a:ext cx="25572960" cy="7805880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1396,15 +1413,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>108000</xdr:colOff>
+      <xdr:colOff>351000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>182880</xdr:colOff>
+      <xdr:colOff>422640</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>55800</xdr:rowOff>
+      <xdr:rowOff>52560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1413,8 +1430,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="108000" y="0"/>
-          <a:ext cx="13282560" cy="7809120"/>
+          <a:off x="351000" y="0"/>
+          <a:ext cx="25572960" cy="7805880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1441,15 +1458,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>108000</xdr:colOff>
+      <xdr:colOff>351000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>182880</xdr:colOff>
+      <xdr:colOff>422640</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>55800</xdr:rowOff>
+      <xdr:rowOff>52560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1458,8 +1475,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="108000" y="0"/>
-          <a:ext cx="13282560" cy="7809120"/>
+          <a:off x="351000" y="0"/>
+          <a:ext cx="25572960" cy="7805880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1486,15 +1503,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>108000</xdr:colOff>
+      <xdr:colOff>351000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>182880</xdr:colOff>
+      <xdr:colOff>422640</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>55800</xdr:rowOff>
+      <xdr:rowOff>52560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1503,8 +1520,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="108000" y="0"/>
-          <a:ext cx="13282560" cy="7809120"/>
+          <a:off x="351000" y="0"/>
+          <a:ext cx="25572960" cy="7805880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1531,15 +1548,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>108000</xdr:colOff>
+      <xdr:colOff>351000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>182880</xdr:colOff>
+      <xdr:colOff>422640</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>55800</xdr:rowOff>
+      <xdr:rowOff>52560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1548,8 +1565,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="108000" y="0"/>
-          <a:ext cx="13282560" cy="10095120"/>
+          <a:off x="351000" y="0"/>
+          <a:ext cx="25572960" cy="10091880"/>
         </a:xfrm>
         <a:solidFill>
           <a:srgbClr val="ffffff"/>
@@ -1578,15 +1595,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>108000</xdr:colOff>
+      <xdr:colOff>351000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>182880</xdr:colOff>
+      <xdr:colOff>422640</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>93960</xdr:rowOff>
+      <xdr:rowOff>90720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1595,8 +1612,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="108000" y="0"/>
-          <a:ext cx="13282560" cy="9866520"/>
+          <a:off x="351000" y="0"/>
+          <a:ext cx="25572960" cy="9863280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1623,15 +1640,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>108000</xdr:colOff>
+      <xdr:colOff>351000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>182880</xdr:colOff>
+      <xdr:colOff>422640</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>93960</xdr:rowOff>
+      <xdr:rowOff>90720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1640,8 +1657,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="108000" y="0"/>
-          <a:ext cx="13282560" cy="9866520"/>
+          <a:off x="351000" y="0"/>
+          <a:ext cx="25572960" cy="9863280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1668,15 +1685,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>108000</xdr:colOff>
+      <xdr:colOff>351000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>182880</xdr:colOff>
+      <xdr:colOff>422640</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>93960</xdr:rowOff>
+      <xdr:rowOff>90720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1685,8 +1702,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="108000" y="0"/>
-          <a:ext cx="13282560" cy="9866520"/>
+          <a:off x="351000" y="0"/>
+          <a:ext cx="25572960" cy="9863280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1713,15 +1730,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>108000</xdr:colOff>
+      <xdr:colOff>351000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>182880</xdr:colOff>
+      <xdr:colOff>422640</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>93960</xdr:rowOff>
+      <xdr:rowOff>90720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1730,8 +1747,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="108000" y="0"/>
-          <a:ext cx="13282560" cy="9866520"/>
+          <a:off x="351000" y="0"/>
+          <a:ext cx="25572960" cy="9863280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1758,15 +1775,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>108000</xdr:colOff>
+      <xdr:colOff>351000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>182880</xdr:colOff>
+      <xdr:colOff>422640</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>93960</xdr:rowOff>
+      <xdr:rowOff>90720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1775,8 +1792,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="108000" y="0"/>
-          <a:ext cx="13282560" cy="9866520"/>
+          <a:off x="351000" y="0"/>
+          <a:ext cx="25572960" cy="9863280"/>
         </a:xfrm>
         <a:solidFill>
           <a:srgbClr val="ffffff"/>
@@ -1813,8 +1830,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="121.908163265306"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="9.86224489795918"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="244.15306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="19.265306122449"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1871,13 +1888,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="35" min="1" style="0" width="11.6989795918367"/>
-    <col collapsed="false" hidden="false" max="1025" min="36" style="0" width="9.86224489795918"/>
+    <col collapsed="false" hidden="false" max="35" min="1" style="0" width="22.5867346938776"/>
+    <col collapsed="false" hidden="false" max="1025" min="36" style="0" width="19.265306122449"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2066,7 +2083,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2172,41 +2189,41 @@
         <f aca="false">Populations!$C$3</f>
         <v>M 15-49</v>
       </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="19"/>
-      <c r="S10" s="19"/>
-      <c r="T10" s="19"/>
-      <c r="U10" s="19"/>
-      <c r="V10" s="19"/>
-      <c r="W10" s="19"/>
-      <c r="X10" s="19"/>
-      <c r="Y10" s="19"/>
-      <c r="Z10" s="19"/>
-      <c r="AA10" s="19"/>
-      <c r="AB10" s="19"/>
-      <c r="AC10" s="19"/>
-      <c r="AD10" s="19"/>
-      <c r="AE10" s="19"/>
-      <c r="AF10" s="19"/>
-      <c r="AG10" s="19"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="20"/>
+      <c r="U10" s="20"/>
+      <c r="V10" s="20"/>
+      <c r="W10" s="20"/>
+      <c r="X10" s="20"/>
+      <c r="Y10" s="20"/>
+      <c r="Z10" s="20"/>
+      <c r="AA10" s="20"/>
+      <c r="AB10" s="20"/>
+      <c r="AC10" s="20"/>
+      <c r="AD10" s="20"/>
+      <c r="AE10" s="20"/>
+      <c r="AF10" s="20"/>
+      <c r="AG10" s="20"/>
       <c r="AH10" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="AI10" s="19" t="n">
+      <c r="AI10" s="20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2215,47 +2232,47 @@
         <f aca="false">Populations!$C$4</f>
         <v>F 15-49</v>
       </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="19"/>
-      <c r="S11" s="19"/>
-      <c r="T11" s="19"/>
-      <c r="U11" s="19"/>
-      <c r="V11" s="19"/>
-      <c r="W11" s="19"/>
-      <c r="X11" s="19"/>
-      <c r="Y11" s="19"/>
-      <c r="Z11" s="19"/>
-      <c r="AA11" s="19"/>
-      <c r="AB11" s="19"/>
-      <c r="AC11" s="19"/>
-      <c r="AD11" s="19"/>
-      <c r="AE11" s="19"/>
-      <c r="AF11" s="19"/>
-      <c r="AG11" s="19"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
+      <c r="T11" s="20"/>
+      <c r="U11" s="20"/>
+      <c r="V11" s="20"/>
+      <c r="W11" s="20"/>
+      <c r="X11" s="20"/>
+      <c r="Y11" s="20"/>
+      <c r="Z11" s="20"/>
+      <c r="AA11" s="20"/>
+      <c r="AB11" s="20"/>
+      <c r="AC11" s="20"/>
+      <c r="AD11" s="20"/>
+      <c r="AE11" s="20"/>
+      <c r="AF11" s="20"/>
+      <c r="AG11" s="20"/>
       <c r="AH11" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="AI11" s="19" t="n">
+      <c r="AI11" s="20" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2422,15 +2439,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="11.6989795918367"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="16.9744897959184"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="11.6989795918367"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.86224489795918"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="22.5867346938776"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="33.6020408163265"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="22.5867346938776"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="19.265306122449"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -2477,7 +2494,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -2524,7 +2541,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -2569,7 +2586,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -2602,7 +2619,7 @@
     </row>
     <row r="29" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
@@ -2659,20 +2676,20 @@
   </sheetPr>
   <dimension ref="A1:I79"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A36" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A36" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B45" activeCellId="0" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.86224489795918"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="55.1683673469388"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.86224489795918"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.265306122449"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="110.780612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="19.265306122449"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="15" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2687,100 +2704,100 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B3" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="C3" s="26" t="n">
+      <c r="B3" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="27" t="n">
         <v>0.0004</v>
       </c>
-      <c r="D3" s="26" t="n">
+      <c r="D3" s="27" t="n">
         <v>0.0001</v>
       </c>
-      <c r="E3" s="26" t="n">
+      <c r="E3" s="27" t="n">
         <v>0.0014</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B4" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="C4" s="26" t="n">
+      <c r="B4" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="27" t="n">
         <v>0.0008</v>
       </c>
-      <c r="D4" s="26" t="n">
+      <c r="D4" s="27" t="n">
         <v>0.0006</v>
       </c>
-      <c r="E4" s="26" t="n">
+      <c r="E4" s="27" t="n">
         <v>0.0011</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B5" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="C5" s="26" t="n">
+      <c r="B5" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="27" t="n">
         <v>0.0138</v>
       </c>
-      <c r="D5" s="26" t="n">
+      <c r="D5" s="27" t="n">
         <v>0.0102</v>
       </c>
-      <c r="E5" s="26" t="n">
+      <c r="E5" s="27" t="n">
         <v>0.0186</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B6" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" s="26" t="n">
+      <c r="B6" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="27" t="n">
         <v>0.0011</v>
       </c>
-      <c r="D6" s="26" t="n">
+      <c r="D6" s="27" t="n">
         <v>0.0004</v>
       </c>
-      <c r="E6" s="26" t="n">
+      <c r="E6" s="27" t="n">
         <v>0.0028</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B7" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="C7" s="26" t="n">
+      <c r="B7" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="27" t="n">
         <v>0.008</v>
       </c>
-      <c r="D7" s="26" t="n">
+      <c r="D7" s="27" t="n">
         <v>0.0063</v>
       </c>
-      <c r="E7" s="26" t="n">
+      <c r="E7" s="27" t="n">
         <v>0.024</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B8" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="C8" s="26" t="n">
+      <c r="B8" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="27" t="n">
         <v>0.367</v>
       </c>
-      <c r="D8" s="26" t="n">
+      <c r="D8" s="27" t="n">
         <v>0.294</v>
       </c>
-      <c r="E8" s="26" t="n">
+      <c r="E8" s="27" t="n">
         <v>0.44</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="C9" s="26" t="n">
+      <c r="B9" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="27" t="n">
         <v>0.205</v>
       </c>
-      <c r="D9" s="26" t="n">
+      <c r="D9" s="27" t="n">
         <v>0.14</v>
       </c>
-      <c r="E9" s="26" t="n">
+      <c r="E9" s="27" t="n">
         <v>0.27</v>
       </c>
     </row>
@@ -2795,7 +2812,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="15" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2810,86 +2827,86 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B15" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="C15" s="27" t="n">
+      <c r="B15" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="28" t="n">
         <v>26.03</v>
       </c>
-      <c r="D15" s="27" t="n">
+      <c r="D15" s="28" t="n">
         <v>2</v>
       </c>
-      <c r="E15" s="27" t="n">
+      <c r="E15" s="28" t="n">
         <v>48.02</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B16" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="C16" s="27" t="n">
+      <c r="B16" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" s="28" t="n">
         <v>1</v>
       </c>
-      <c r="D16" s="27" t="n">
+      <c r="D16" s="28" t="n">
         <v>1</v>
       </c>
-      <c r="E16" s="27" t="n">
+      <c r="E16" s="28" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B17" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C17" s="27" t="n">
+      <c r="B17" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" s="28" t="n">
         <v>1</v>
       </c>
-      <c r="D17" s="27" t="n">
+      <c r="D17" s="28" t="n">
         <v>1</v>
       </c>
-      <c r="E17" s="27" t="n">
+      <c r="E17" s="28" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B18" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="C18" s="27" t="n">
+      <c r="B18" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" s="28" t="n">
         <v>1</v>
       </c>
-      <c r="D18" s="27" t="n">
+      <c r="D18" s="28" t="n">
         <v>1</v>
       </c>
-      <c r="E18" s="27" t="n">
+      <c r="E18" s="28" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B19" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="C19" s="27" t="n">
+      <c r="B19" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="28" t="n">
         <v>3.49</v>
       </c>
-      <c r="D19" s="27" t="n">
+      <c r="D19" s="28" t="n">
         <v>1.76</v>
       </c>
-      <c r="E19" s="27" t="n">
+      <c r="E19" s="28" t="n">
         <v>6.92</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B20" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="C20" s="27" t="n">
+      <c r="B20" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="28" t="n">
         <v>7.17</v>
       </c>
-      <c r="D20" s="27" t="n">
+      <c r="D20" s="28" t="n">
         <v>3.9</v>
       </c>
-      <c r="E20" s="27" t="n">
+      <c r="E20" s="28" t="n">
         <v>12.08</v>
       </c>
     </row>
@@ -2904,7 +2921,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="15" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2919,8 +2936,8 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B26" s="25" t="s">
-        <v>82</v>
+      <c r="B26" s="26" t="s">
+        <v>86</v>
       </c>
       <c r="C26" s="18" t="n">
         <v>4.14</v>
@@ -2933,8 +2950,8 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B27" s="25" t="s">
-        <v>77</v>
+      <c r="B27" s="26" t="s">
+        <v>81</v>
       </c>
       <c r="C27" s="18" t="n">
         <v>1.05</v>
@@ -2947,8 +2964,8 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B28" s="25" t="s">
-        <v>83</v>
+      <c r="B28" s="26" t="s">
+        <v>87</v>
       </c>
       <c r="C28" s="18" t="n">
         <v>0.33</v>
@@ -2961,8 +2978,8 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B29" s="25" t="s">
-        <v>84</v>
+      <c r="B29" s="26" t="s">
+        <v>88</v>
       </c>
       <c r="C29" s="18" t="n">
         <v>0.27</v>
@@ -2975,8 +2992,8 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B30" s="25" t="s">
-        <v>85</v>
+      <c r="B30" s="26" t="s">
+        <v>89</v>
       </c>
       <c r="C30" s="18" t="n">
         <v>0.67</v>
@@ -2999,7 +3016,7 @@
     </row>
     <row r="34" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="15" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3014,8 +3031,8 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B36" s="25" t="s">
-        <v>87</v>
+      <c r="B36" s="26" t="s">
+        <v>91</v>
       </c>
       <c r="C36" s="18" t="n">
         <v>0.45</v>
@@ -3028,8 +3045,8 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B37" s="25" t="s">
-        <v>88</v>
+      <c r="B37" s="26" t="s">
+        <v>92</v>
       </c>
       <c r="C37" s="18" t="n">
         <v>0.7</v>
@@ -3042,8 +3059,8 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B38" s="25" t="s">
-        <v>89</v>
+      <c r="B38" s="26" t="s">
+        <v>93</v>
       </c>
       <c r="C38" s="18" t="n">
         <v>0.47</v>
@@ -3056,8 +3073,8 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B39" s="25" t="s">
-        <v>90</v>
+      <c r="B39" s="26" t="s">
+        <v>94</v>
       </c>
       <c r="C39" s="18" t="n">
         <v>1.52</v>
@@ -3080,7 +3097,7 @@
     </row>
     <row r="43" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="15" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3095,114 +3112,114 @@
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B45" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="C45" s="26" t="n">
+      <c r="B45" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="C45" s="27" t="n">
         <v>0.0036</v>
       </c>
-      <c r="D45" s="26" t="n">
+      <c r="D45" s="27" t="n">
         <v>0.0029</v>
       </c>
-      <c r="E45" s="26" t="n">
+      <c r="E45" s="27" t="n">
         <v>0.0044</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B46" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="C46" s="26" t="n">
+      <c r="B46" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="C46" s="27" t="n">
         <v>0.0036</v>
       </c>
-      <c r="D46" s="26" t="n">
+      <c r="D46" s="27" t="n">
         <v>0.0029</v>
       </c>
-      <c r="E46" s="26" t="n">
+      <c r="E46" s="27" t="n">
         <v>0.0044</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B47" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="C47" s="26" t="n">
+      <c r="B47" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="C47" s="27" t="n">
         <v>0.0058</v>
       </c>
-      <c r="D47" s="26" t="n">
+      <c r="D47" s="27" t="n">
         <v>0.0048</v>
       </c>
-      <c r="E47" s="26" t="n">
+      <c r="E47" s="27" t="n">
         <v>0.0071</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B48" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="C48" s="26" t="n">
+      <c r="B48" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="C48" s="27" t="n">
         <v>0.0088</v>
       </c>
-      <c r="D48" s="26" t="n">
+      <c r="D48" s="27" t="n">
         <v>0.075</v>
       </c>
-      <c r="E48" s="26" t="n">
+      <c r="E48" s="27" t="n">
         <v>0.0101</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B49" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="C49" s="26" t="n">
+      <c r="B49" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="C49" s="27" t="n">
         <v>0.059</v>
       </c>
-      <c r="D49" s="26" t="n">
+      <c r="D49" s="27" t="n">
         <v>0.054</v>
       </c>
-      <c r="E49" s="26" t="n">
+      <c r="E49" s="27" t="n">
         <v>0.079</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B50" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="C50" s="26" t="n">
+      <c r="B50" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="C50" s="27" t="n">
         <v>0.323</v>
       </c>
-      <c r="D50" s="26" t="n">
+      <c r="D50" s="27" t="n">
         <v>0.296</v>
       </c>
-      <c r="E50" s="26" t="n">
+      <c r="E50" s="27" t="n">
         <v>0.432</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B51" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="C51" s="26" t="n">
+      <c r="B51" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="C51" s="27" t="n">
         <v>0.23</v>
       </c>
-      <c r="D51" s="26" t="n">
+      <c r="D51" s="27" t="n">
         <v>0.15</v>
       </c>
-      <c r="E51" s="26" t="n">
+      <c r="E51" s="27" t="n">
         <v>0.3</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B52" s="25" t="s">
-        <v>94</v>
-      </c>
-      <c r="C52" s="26" t="n">
+      <c r="B52" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="C52" s="27" t="n">
         <v>2.17</v>
       </c>
-      <c r="D52" s="26" t="n">
+      <c r="D52" s="27" t="n">
         <v>1.27</v>
       </c>
-      <c r="E52" s="26" t="n">
+      <c r="E52" s="27" t="n">
         <v>3.71</v>
       </c>
     </row>
@@ -3217,7 +3234,7 @@
     </row>
     <row r="56" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="15" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3232,8 +3249,8 @@
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B58" s="25" t="s">
-        <v>96</v>
+      <c r="B58" s="26" t="s">
+        <v>100</v>
       </c>
       <c r="C58" s="18" t="n">
         <v>0.95</v>
@@ -3244,13 +3261,13 @@
       <c r="E58" s="18" t="n">
         <v>0.98</v>
       </c>
-      <c r="G58" s="28"/>
-      <c r="H58" s="28"/>
-      <c r="I58" s="28"/>
+      <c r="G58" s="29"/>
+      <c r="H58" s="29"/>
+      <c r="I58" s="29"/>
     </row>
     <row r="59" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B59" s="25" t="s">
-        <v>97</v>
+      <c r="B59" s="26" t="s">
+        <v>101</v>
       </c>
       <c r="C59" s="18" t="n">
         <v>0.58</v>
@@ -3261,13 +3278,13 @@
       <c r="E59" s="18" t="n">
         <v>0.67</v>
       </c>
-      <c r="G59" s="28"/>
-      <c r="H59" s="28"/>
-      <c r="I59" s="28"/>
+      <c r="G59" s="29"/>
+      <c r="H59" s="29"/>
+      <c r="I59" s="29"/>
     </row>
     <row r="60" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B60" s="25" t="s">
-        <v>98</v>
+      <c r="B60" s="26" t="s">
+        <v>102</v>
       </c>
       <c r="C60" s="18" t="n">
         <v>0</v>
@@ -3278,13 +3295,13 @@
       <c r="E60" s="18" t="n">
         <v>0.68</v>
       </c>
-      <c r="G60" s="28"/>
-      <c r="H60" s="28"/>
-      <c r="I60" s="28"/>
+      <c r="G60" s="29"/>
+      <c r="H60" s="29"/>
+      <c r="I60" s="29"/>
     </row>
     <row r="61" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B61" s="25" t="s">
-        <v>99</v>
+      <c r="B61" s="26" t="s">
+        <v>103</v>
       </c>
       <c r="C61" s="18" t="n">
         <v>2.65</v>
@@ -3295,13 +3312,13 @@
       <c r="E61" s="18" t="n">
         <v>5.19</v>
       </c>
-      <c r="G61" s="28"/>
-      <c r="H61" s="28"/>
-      <c r="I61" s="28"/>
+      <c r="G61" s="29"/>
+      <c r="H61" s="29"/>
+      <c r="I61" s="29"/>
     </row>
     <row r="62" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B62" s="25" t="s">
-        <v>100</v>
+      <c r="B62" s="26" t="s">
+        <v>104</v>
       </c>
       <c r="C62" s="18" t="n">
         <v>0.54</v>
@@ -3312,13 +3329,13 @@
       <c r="E62" s="18" t="n">
         <v>0.68</v>
       </c>
-      <c r="G62" s="28"/>
-      <c r="H62" s="28"/>
-      <c r="I62" s="28"/>
+      <c r="G62" s="29"/>
+      <c r="H62" s="29"/>
+      <c r="I62" s="29"/>
     </row>
     <row r="63" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B63" s="25" t="s">
-        <v>101</v>
+      <c r="B63" s="26" t="s">
+        <v>105</v>
       </c>
       <c r="C63" s="18" t="n">
         <v>0.9</v>
@@ -3329,13 +3346,13 @@
       <c r="E63" s="18" t="n">
         <v>0.93</v>
       </c>
-      <c r="G63" s="28"/>
-      <c r="H63" s="28"/>
-      <c r="I63" s="28"/>
+      <c r="G63" s="29"/>
+      <c r="H63" s="29"/>
+      <c r="I63" s="29"/>
     </row>
     <row r="64" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B64" s="25" t="s">
-        <v>102</v>
+      <c r="B64" s="26" t="s">
+        <v>106</v>
       </c>
       <c r="C64" s="18" t="n">
         <v>0.73</v>
@@ -3346,13 +3363,13 @@
       <c r="E64" s="18" t="n">
         <v>0.8</v>
       </c>
-      <c r="G64" s="28"/>
-      <c r="H64" s="28"/>
-      <c r="I64" s="28"/>
+      <c r="G64" s="29"/>
+      <c r="H64" s="29"/>
+      <c r="I64" s="29"/>
     </row>
     <row r="65" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B65" s="25" t="s">
-        <v>103</v>
+      <c r="B65" s="26" t="s">
+        <v>107</v>
       </c>
       <c r="C65" s="18" t="n">
         <v>0.5</v>
@@ -3363,13 +3380,13 @@
       <c r="E65" s="18" t="n">
         <v>0.8</v>
       </c>
-      <c r="G65" s="28"/>
-      <c r="H65" s="28"/>
-      <c r="I65" s="28"/>
+      <c r="G65" s="29"/>
+      <c r="H65" s="29"/>
+      <c r="I65" s="29"/>
     </row>
     <row r="66" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B66" s="25" t="s">
-        <v>104</v>
+      <c r="B66" s="26" t="s">
+        <v>108</v>
       </c>
       <c r="C66" s="18" t="n">
         <v>0.92</v>
@@ -3382,8 +3399,8 @@
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B67" s="25" t="s">
-        <v>105</v>
+      <c r="B67" s="26" t="s">
+        <v>109</v>
       </c>
       <c r="C67" s="18" t="n">
         <v>0.9</v>
@@ -3400,7 +3417,7 @@
     </row>
     <row r="71" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="15" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3415,100 +3432,100 @@
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B73" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="C73" s="27" t="n">
+      <c r="B73" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="C73" s="28" t="n">
         <v>0.146</v>
       </c>
-      <c r="D73" s="27" t="n">
+      <c r="D73" s="28" t="n">
         <v>0.096</v>
       </c>
-      <c r="E73" s="27" t="n">
+      <c r="E73" s="28" t="n">
         <v>0.205</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B74" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="C74" s="27" t="n">
+      <c r="B74" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="C74" s="28" t="n">
         <v>0.008</v>
       </c>
-      <c r="D74" s="27" t="n">
+      <c r="D74" s="28" t="n">
         <v>0.005</v>
       </c>
-      <c r="E74" s="27" t="n">
+      <c r="E74" s="28" t="n">
         <v>0.011</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B75" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="C75" s="27" t="n">
+      <c r="B75" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="C75" s="28" t="n">
         <v>0.02</v>
       </c>
-      <c r="D75" s="27" t="n">
+      <c r="D75" s="28" t="n">
         <v>0.013</v>
       </c>
-      <c r="E75" s="27" t="n">
+      <c r="E75" s="28" t="n">
         <v>0.029</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B76" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="C76" s="27" t="n">
+      <c r="B76" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="C76" s="28" t="n">
         <v>0.07</v>
       </c>
-      <c r="D76" s="27" t="n">
+      <c r="D76" s="28" t="n">
         <v>0.048</v>
       </c>
-      <c r="E76" s="27" t="n">
+      <c r="E76" s="28" t="n">
         <v>0.094</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B77" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="C77" s="27" t="n">
+      <c r="B77" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="C77" s="28" t="n">
         <v>0.265</v>
       </c>
-      <c r="D77" s="27" t="n">
+      <c r="D77" s="28" t="n">
         <v>0.114</v>
       </c>
-      <c r="E77" s="27" t="n">
+      <c r="E77" s="28" t="n">
         <v>0.474</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B78" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="C78" s="27" t="n">
+      <c r="B78" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="C78" s="28" t="n">
         <v>0.547</v>
       </c>
-      <c r="D78" s="27" t="n">
+      <c r="D78" s="28" t="n">
         <v>0.382</v>
       </c>
-      <c r="E78" s="27" t="n">
+      <c r="E78" s="28" t="n">
         <v>0.715</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B79" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="C79" s="27" t="n">
+      <c r="B79" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="C79" s="28" t="n">
         <v>0.053</v>
       </c>
-      <c r="D79" s="27" t="n">
+      <c r="D79" s="28" t="n">
         <v>0.034</v>
       </c>
-      <c r="E79" s="27" t="n">
+      <c r="E79" s="28" t="n">
         <v>0.079</v>
       </c>
     </row>
@@ -3536,12 +3553,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="11.6989795918367"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.2091836734694"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="55.1683673469388"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="11.6989795918367"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.9744897959184"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="9.86224489795918"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="22.5867346938776"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.9744897959184"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="110.780612244898"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="22.5867346938776"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="33.6020408163265"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="19.265306122449"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3660,8 +3677,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="36" min="1" style="0" width="11.6989795918367"/>
-    <col collapsed="false" hidden="false" max="1025" min="37" style="0" width="9.86224489795918"/>
+    <col collapsed="false" hidden="false" max="36" min="1" style="0" width="22.5867346938776"/>
+    <col collapsed="false" hidden="false" max="1025" min="37" style="0" width="19.265306122449"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4066,14 +4083,14 @@
   </sheetPr>
   <dimension ref="A1:AJ9"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B17" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="L8" activeCellId="0" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="36" min="1" style="0" width="11.6989795918367"/>
-    <col collapsed="false" hidden="false" max="1025" min="37" style="0" width="9.86224489795918"/>
+    <col collapsed="false" hidden="false" max="36" min="1" style="0" width="22.5867346938776"/>
+    <col collapsed="false" hidden="false" max="1025" min="37" style="0" width="19.265306122449"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4480,8 +4497,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="35" min="1" style="0" width="11.6989795918367"/>
-    <col collapsed="false" hidden="false" max="1025" min="36" style="0" width="9.86224489795918"/>
+    <col collapsed="false" hidden="false" max="35" min="1" style="0" width="22.5867346938776"/>
+    <col collapsed="false" hidden="false" max="1025" min="36" style="0" width="19.265306122449"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5081,8 +5098,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="35" min="1" style="0" width="11.6989795918367"/>
-    <col collapsed="false" hidden="false" max="1025" min="36" style="0" width="9.86224489795918"/>
+    <col collapsed="false" hidden="false" max="35" min="1" style="0" width="22.5867346938776"/>
+    <col collapsed="false" hidden="false" max="1025" min="36" style="0" width="19.265306122449"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6102,15 +6119,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AI65536"/>
+  <dimension ref="A1:AI68"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AI38" activeCellId="0" sqref="AI38"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AI19" activeCellId="0" sqref="AI19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.86224489795918"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="19.265306122449"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6256,7 +6273,7 @@
         <v>21</v>
       </c>
       <c r="AI3" s="18" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6299,7 +6316,7 @@
         <v>21</v>
       </c>
       <c r="AI4" s="18" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6445,7 +6462,7 @@
         <v>21</v>
       </c>
       <c r="AI10" s="18" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6488,9 +6505,10 @@
         <v>21</v>
       </c>
       <c r="AI11" s="18" t="n">
-        <v>0.6</v>
-      </c>
-    </row>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="15" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="15" t="s">
         <v>38</v>
@@ -6634,7 +6652,7 @@
         <v>21</v>
       </c>
       <c r="AI17" s="18" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6677,7 +6695,7 @@
         <v>21</v>
       </c>
       <c r="AI18" s="18" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6823,7 +6841,7 @@
         <v>21</v>
       </c>
       <c r="AI24" s="18" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6866,9 +6884,10 @@
         <v>21</v>
       </c>
       <c r="AI25" s="18" t="n">
-        <v>0.3</v>
-      </c>
-    </row>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="15" t="s">
@@ -7012,7 +7031,7 @@
         <v>21</v>
       </c>
       <c r="AI31" s="18" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -7160,11 +7179,12 @@
         <v>21</v>
       </c>
       <c r="AI37" s="18" t="n">
-        <v>0.9</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="15" t="s">
         <v>43</v>
@@ -7306,20 +7326,611 @@
       <c r="AH43" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="AI43" s="18" t="n">
-        <v>0.1</v>
+      <c r="AI43" s="19" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C48" s="16" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D48" s="16" t="n">
+        <v>2001</v>
+      </c>
+      <c r="E48" s="16" t="n">
+        <v>2002</v>
+      </c>
+      <c r="F48" s="16" t="n">
+        <v>2003</v>
+      </c>
+      <c r="G48" s="16" t="n">
+        <v>2004</v>
+      </c>
+      <c r="H48" s="16" t="n">
+        <v>2005</v>
+      </c>
+      <c r="I48" s="16" t="n">
+        <v>2006</v>
+      </c>
+      <c r="J48" s="16" t="n">
+        <v>2007</v>
+      </c>
+      <c r="K48" s="16" t="n">
+        <v>2008</v>
+      </c>
+      <c r="L48" s="16" t="n">
+        <v>2009</v>
+      </c>
+      <c r="M48" s="16" t="n">
+        <v>2010</v>
+      </c>
+      <c r="N48" s="16" t="n">
+        <v>2011</v>
+      </c>
+      <c r="O48" s="16" t="n">
+        <v>2012</v>
+      </c>
+      <c r="P48" s="16" t="n">
+        <v>2013</v>
+      </c>
+      <c r="Q48" s="16" t="n">
+        <v>2014</v>
+      </c>
+      <c r="R48" s="16" t="n">
+        <v>2015</v>
+      </c>
+      <c r="S48" s="16" t="n">
+        <v>2016</v>
+      </c>
+      <c r="T48" s="16" t="n">
+        <v>2017</v>
+      </c>
+      <c r="U48" s="16" t="n">
+        <v>2018</v>
+      </c>
+      <c r="V48" s="16" t="n">
+        <v>2019</v>
+      </c>
+      <c r="W48" s="16" t="n">
+        <v>2020</v>
+      </c>
+      <c r="X48" s="16" t="n">
+        <v>2021</v>
+      </c>
+      <c r="Y48" s="16" t="n">
+        <v>2022</v>
+      </c>
+      <c r="Z48" s="16" t="n">
+        <v>2023</v>
+      </c>
+      <c r="AA48" s="16" t="n">
+        <v>2024</v>
+      </c>
+      <c r="AB48" s="16" t="n">
+        <v>2025</v>
+      </c>
+      <c r="AC48" s="16" t="n">
+        <v>2026</v>
+      </c>
+      <c r="AD48" s="16" t="n">
+        <v>2027</v>
+      </c>
+      <c r="AE48" s="16" t="n">
+        <v>2028</v>
+      </c>
+      <c r="AF48" s="16" t="n">
+        <v>2029</v>
+      </c>
+      <c r="AG48" s="16" t="n">
+        <v>2030</v>
+      </c>
+      <c r="AI48" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B49" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C49" s="18"/>
+      <c r="D49" s="18"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="18"/>
+      <c r="G49" s="18"/>
+      <c r="H49" s="18"/>
+      <c r="I49" s="18"/>
+      <c r="J49" s="18"/>
+      <c r="K49" s="18"/>
+      <c r="L49" s="18"/>
+      <c r="M49" s="18"/>
+      <c r="N49" s="18"/>
+      <c r="O49" s="18"/>
+      <c r="P49" s="18"/>
+      <c r="Q49" s="18"/>
+      <c r="R49" s="18"/>
+      <c r="S49" s="18"/>
+      <c r="T49" s="18"/>
+      <c r="U49" s="18"/>
+      <c r="V49" s="18"/>
+      <c r="W49" s="18"/>
+      <c r="X49" s="18"/>
+      <c r="Y49" s="18"/>
+      <c r="Z49" s="18"/>
+      <c r="AA49" s="18"/>
+      <c r="AB49" s="18"/>
+      <c r="AC49" s="18"/>
+      <c r="AD49" s="18"/>
+      <c r="AE49" s="18"/>
+      <c r="AF49" s="18"/>
+      <c r="AG49" s="18"/>
+      <c r="AH49" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI49" s="19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C54" s="16" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D54" s="16" t="n">
+        <v>2001</v>
+      </c>
+      <c r="E54" s="16" t="n">
+        <v>2002</v>
+      </c>
+      <c r="F54" s="16" t="n">
+        <v>2003</v>
+      </c>
+      <c r="G54" s="16" t="n">
+        <v>2004</v>
+      </c>
+      <c r="H54" s="16" t="n">
+        <v>2005</v>
+      </c>
+      <c r="I54" s="16" t="n">
+        <v>2006</v>
+      </c>
+      <c r="J54" s="16" t="n">
+        <v>2007</v>
+      </c>
+      <c r="K54" s="16" t="n">
+        <v>2008</v>
+      </c>
+      <c r="L54" s="16" t="n">
+        <v>2009</v>
+      </c>
+      <c r="M54" s="16" t="n">
+        <v>2010</v>
+      </c>
+      <c r="N54" s="16" t="n">
+        <v>2011</v>
+      </c>
+      <c r="O54" s="16" t="n">
+        <v>2012</v>
+      </c>
+      <c r="P54" s="16" t="n">
+        <v>2013</v>
+      </c>
+      <c r="Q54" s="16" t="n">
+        <v>2014</v>
+      </c>
+      <c r="R54" s="16" t="n">
+        <v>2015</v>
+      </c>
+      <c r="S54" s="16" t="n">
+        <v>2016</v>
+      </c>
+      <c r="T54" s="16" t="n">
+        <v>2017</v>
+      </c>
+      <c r="U54" s="16" t="n">
+        <v>2018</v>
+      </c>
+      <c r="V54" s="16" t="n">
+        <v>2019</v>
+      </c>
+      <c r="W54" s="16" t="n">
+        <v>2020</v>
+      </c>
+      <c r="X54" s="16" t="n">
+        <v>2021</v>
+      </c>
+      <c r="Y54" s="16" t="n">
+        <v>2022</v>
+      </c>
+      <c r="Z54" s="16" t="n">
+        <v>2023</v>
+      </c>
+      <c r="AA54" s="16" t="n">
+        <v>2024</v>
+      </c>
+      <c r="AB54" s="16" t="n">
+        <v>2025</v>
+      </c>
+      <c r="AC54" s="16" t="n">
+        <v>2026</v>
+      </c>
+      <c r="AD54" s="16" t="n">
+        <v>2027</v>
+      </c>
+      <c r="AE54" s="16" t="n">
+        <v>2028</v>
+      </c>
+      <c r="AF54" s="16" t="n">
+        <v>2029</v>
+      </c>
+      <c r="AG54" s="16" t="n">
+        <v>2030</v>
+      </c>
+      <c r="AI54" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B55" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C55" s="18"/>
+      <c r="D55" s="18"/>
+      <c r="E55" s="18"/>
+      <c r="F55" s="18"/>
+      <c r="G55" s="18"/>
+      <c r="H55" s="18"/>
+      <c r="I55" s="18"/>
+      <c r="J55" s="18"/>
+      <c r="K55" s="18"/>
+      <c r="L55" s="18"/>
+      <c r="M55" s="18"/>
+      <c r="N55" s="18"/>
+      <c r="O55" s="18"/>
+      <c r="P55" s="18"/>
+      <c r="Q55" s="18"/>
+      <c r="R55" s="18"/>
+      <c r="S55" s="18"/>
+      <c r="T55" s="18"/>
+      <c r="U55" s="18"/>
+      <c r="V55" s="18"/>
+      <c r="W55" s="18"/>
+      <c r="X55" s="18"/>
+      <c r="Y55" s="18"/>
+      <c r="Z55" s="18"/>
+      <c r="AA55" s="18"/>
+      <c r="AB55" s="18"/>
+      <c r="AC55" s="18"/>
+      <c r="AD55" s="18"/>
+      <c r="AE55" s="18"/>
+      <c r="AF55" s="18"/>
+      <c r="AG55" s="18"/>
+      <c r="AH55" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI55" s="18" t="n">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C60" s="16" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D60" s="16" t="n">
+        <v>2001</v>
+      </c>
+      <c r="E60" s="16" t="n">
+        <v>2002</v>
+      </c>
+      <c r="F60" s="16" t="n">
+        <v>2003</v>
+      </c>
+      <c r="G60" s="16" t="n">
+        <v>2004</v>
+      </c>
+      <c r="H60" s="16" t="n">
+        <v>2005</v>
+      </c>
+      <c r="I60" s="16" t="n">
+        <v>2006</v>
+      </c>
+      <c r="J60" s="16" t="n">
+        <v>2007</v>
+      </c>
+      <c r="K60" s="16" t="n">
+        <v>2008</v>
+      </c>
+      <c r="L60" s="16" t="n">
+        <v>2009</v>
+      </c>
+      <c r="M60" s="16" t="n">
+        <v>2010</v>
+      </c>
+      <c r="N60" s="16" t="n">
+        <v>2011</v>
+      </c>
+      <c r="O60" s="16" t="n">
+        <v>2012</v>
+      </c>
+      <c r="P60" s="16" t="n">
+        <v>2013</v>
+      </c>
+      <c r="Q60" s="16" t="n">
+        <v>2014</v>
+      </c>
+      <c r="R60" s="16" t="n">
+        <v>2015</v>
+      </c>
+      <c r="S60" s="16" t="n">
+        <v>2016</v>
+      </c>
+      <c r="T60" s="16" t="n">
+        <v>2017</v>
+      </c>
+      <c r="U60" s="16" t="n">
+        <v>2018</v>
+      </c>
+      <c r="V60" s="16" t="n">
+        <v>2019</v>
+      </c>
+      <c r="W60" s="16" t="n">
+        <v>2020</v>
+      </c>
+      <c r="X60" s="16" t="n">
+        <v>2021</v>
+      </c>
+      <c r="Y60" s="16" t="n">
+        <v>2022</v>
+      </c>
+      <c r="Z60" s="16" t="n">
+        <v>2023</v>
+      </c>
+      <c r="AA60" s="16" t="n">
+        <v>2024</v>
+      </c>
+      <c r="AB60" s="16" t="n">
+        <v>2025</v>
+      </c>
+      <c r="AC60" s="16" t="n">
+        <v>2026</v>
+      </c>
+      <c r="AD60" s="16" t="n">
+        <v>2027</v>
+      </c>
+      <c r="AE60" s="16" t="n">
+        <v>2028</v>
+      </c>
+      <c r="AF60" s="16" t="n">
+        <v>2029</v>
+      </c>
+      <c r="AG60" s="16" t="n">
+        <v>2030</v>
+      </c>
+      <c r="AI60" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B61" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C61" s="18"/>
+      <c r="D61" s="18"/>
+      <c r="E61" s="18"/>
+      <c r="F61" s="18"/>
+      <c r="G61" s="18"/>
+      <c r="H61" s="18"/>
+      <c r="I61" s="18"/>
+      <c r="J61" s="18"/>
+      <c r="K61" s="18"/>
+      <c r="L61" s="18"/>
+      <c r="M61" s="18"/>
+      <c r="N61" s="18"/>
+      <c r="O61" s="18"/>
+      <c r="P61" s="18"/>
+      <c r="Q61" s="18"/>
+      <c r="R61" s="18"/>
+      <c r="S61" s="18"/>
+      <c r="T61" s="18"/>
+      <c r="U61" s="18"/>
+      <c r="V61" s="18"/>
+      <c r="W61" s="18"/>
+      <c r="X61" s="18"/>
+      <c r="Y61" s="18"/>
+      <c r="Z61" s="18"/>
+      <c r="AA61" s="18"/>
+      <c r="AB61" s="18"/>
+      <c r="AC61" s="18"/>
+      <c r="AD61" s="18"/>
+      <c r="AE61" s="18"/>
+      <c r="AF61" s="18"/>
+      <c r="AG61" s="18"/>
+      <c r="AH61" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI61" s="18" t="n">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C66" s="16" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D66" s="16" t="n">
+        <v>2001</v>
+      </c>
+      <c r="E66" s="16" t="n">
+        <v>2002</v>
+      </c>
+      <c r="F66" s="16" t="n">
+        <v>2003</v>
+      </c>
+      <c r="G66" s="16" t="n">
+        <v>2004</v>
+      </c>
+      <c r="H66" s="16" t="n">
+        <v>2005</v>
+      </c>
+      <c r="I66" s="16" t="n">
+        <v>2006</v>
+      </c>
+      <c r="J66" s="16" t="n">
+        <v>2007</v>
+      </c>
+      <c r="K66" s="16" t="n">
+        <v>2008</v>
+      </c>
+      <c r="L66" s="16" t="n">
+        <v>2009</v>
+      </c>
+      <c r="M66" s="16" t="n">
+        <v>2010</v>
+      </c>
+      <c r="N66" s="16" t="n">
+        <v>2011</v>
+      </c>
+      <c r="O66" s="16" t="n">
+        <v>2012</v>
+      </c>
+      <c r="P66" s="16" t="n">
+        <v>2013</v>
+      </c>
+      <c r="Q66" s="16" t="n">
+        <v>2014</v>
+      </c>
+      <c r="R66" s="16" t="n">
+        <v>2015</v>
+      </c>
+      <c r="S66" s="16" t="n">
+        <v>2016</v>
+      </c>
+      <c r="T66" s="16" t="n">
+        <v>2017</v>
+      </c>
+      <c r="U66" s="16" t="n">
+        <v>2018</v>
+      </c>
+      <c r="V66" s="16" t="n">
+        <v>2019</v>
+      </c>
+      <c r="W66" s="16" t="n">
+        <v>2020</v>
+      </c>
+      <c r="X66" s="16" t="n">
+        <v>2021</v>
+      </c>
+      <c r="Y66" s="16" t="n">
+        <v>2022</v>
+      </c>
+      <c r="Z66" s="16" t="n">
+        <v>2023</v>
+      </c>
+      <c r="AA66" s="16" t="n">
+        <v>2024</v>
+      </c>
+      <c r="AB66" s="16" t="n">
+        <v>2025</v>
+      </c>
+      <c r="AC66" s="16" t="n">
+        <v>2026</v>
+      </c>
+      <c r="AD66" s="16" t="n">
+        <v>2027</v>
+      </c>
+      <c r="AE66" s="16" t="n">
+        <v>2028</v>
+      </c>
+      <c r="AF66" s="16" t="n">
+        <v>2029</v>
+      </c>
+      <c r="AG66" s="16" t="n">
+        <v>2030</v>
+      </c>
+      <c r="AI66" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B67" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C67" s="18"/>
+      <c r="D67" s="18"/>
+      <c r="E67" s="18"/>
+      <c r="F67" s="18"/>
+      <c r="G67" s="18"/>
+      <c r="H67" s="18"/>
+      <c r="I67" s="18"/>
+      <c r="J67" s="18"/>
+      <c r="K67" s="18"/>
+      <c r="L67" s="18"/>
+      <c r="M67" s="18"/>
+      <c r="N67" s="18"/>
+      <c r="O67" s="18"/>
+      <c r="P67" s="18"/>
+      <c r="Q67" s="18"/>
+      <c r="R67" s="18"/>
+      <c r="S67" s="18"/>
+      <c r="T67" s="18"/>
+      <c r="U67" s="18"/>
+      <c r="V67" s="18"/>
+      <c r="W67" s="18"/>
+      <c r="X67" s="18"/>
+      <c r="Y67" s="18"/>
+      <c r="Z67" s="18"/>
+      <c r="AA67" s="18"/>
+      <c r="AB67" s="18"/>
+      <c r="AC67" s="18"/>
+      <c r="AD67" s="18"/>
+      <c r="AE67" s="18"/>
+      <c r="AF67" s="18"/>
+      <c r="AG67" s="18"/>
+      <c r="AH67" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI67" s="18" t="n">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -7338,19 +7949,19 @@
   </sheetPr>
   <dimension ref="A1:AI41"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B22" activeCellId="0" sqref="B22"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J17" activeCellId="0" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="35" min="1" style="0" width="11.6989795918367"/>
-    <col collapsed="false" hidden="false" max="1025" min="36" style="0" width="9.86224489795918"/>
+    <col collapsed="false" hidden="false" max="35" min="1" style="0" width="22.5867346938776"/>
+    <col collapsed="false" hidden="false" max="1025" min="36" style="0" width="19.265306122449"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7456,90 +8067,90 @@
         <f aca="false">Populations!$C$3</f>
         <v>M 15-49</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19" t="n">
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20" t="n">
         <v>0.0645</v>
       </c>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="19"/>
-      <c r="V3" s="19"/>
-      <c r="W3" s="19"/>
-      <c r="X3" s="19"/>
-      <c r="Y3" s="19"/>
-      <c r="Z3" s="19"/>
-      <c r="AA3" s="19"/>
-      <c r="AB3" s="19"/>
-      <c r="AC3" s="19"/>
-      <c r="AD3" s="19"/>
-      <c r="AE3" s="19"/>
-      <c r="AF3" s="19"/>
-      <c r="AG3" s="19"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
+      <c r="U3" s="20"/>
+      <c r="V3" s="20"/>
+      <c r="W3" s="20"/>
+      <c r="X3" s="20"/>
+      <c r="Y3" s="20"/>
+      <c r="Z3" s="20"/>
+      <c r="AA3" s="20"/>
+      <c r="AB3" s="20"/>
+      <c r="AC3" s="20"/>
+      <c r="AD3" s="20"/>
+      <c r="AE3" s="20"/>
+      <c r="AF3" s="20"/>
+      <c r="AG3" s="20"/>
       <c r="AH3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="AI3" s="19"/>
+      <c r="AI3" s="20"/>
     </row>
     <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B4" s="6" t="str">
         <f aca="false">Populations!$C$4</f>
         <v>F 15-49</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19" t="n">
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20" t="n">
         <v>0.0645</v>
       </c>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19"/>
-      <c r="T4" s="19"/>
-      <c r="U4" s="19"/>
-      <c r="V4" s="19"/>
-      <c r="W4" s="19"/>
-      <c r="X4" s="19"/>
-      <c r="Y4" s="19"/>
-      <c r="Z4" s="19"/>
-      <c r="AA4" s="19"/>
-      <c r="AB4" s="19"/>
-      <c r="AC4" s="19"/>
-      <c r="AD4" s="19"/>
-      <c r="AE4" s="19"/>
-      <c r="AF4" s="19"/>
-      <c r="AG4" s="19"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="20"/>
+      <c r="T4" s="20"/>
+      <c r="U4" s="20"/>
+      <c r="V4" s="20"/>
+      <c r="W4" s="20"/>
+      <c r="X4" s="20"/>
+      <c r="Y4" s="20"/>
+      <c r="Z4" s="20"/>
+      <c r="AA4" s="20"/>
+      <c r="AB4" s="20"/>
+      <c r="AC4" s="20"/>
+      <c r="AD4" s="20"/>
+      <c r="AE4" s="20"/>
+      <c r="AF4" s="20"/>
+      <c r="AG4" s="20"/>
       <c r="AH4" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="AI4" s="19"/>
+      <c r="AI4" s="20"/>
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7678,13 +8289,13 @@
       <c r="AH10" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="AI10" s="20" t="n">
+      <c r="AI10" s="21" t="n">
         <v>0.65</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7796,12 +8407,14 @@
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7" t="n">
-        <v>50</v>
-      </c>
-      <c r="H16" s="7"/>
+        <v>100</v>
+      </c>
+      <c r="H16" s="7" t="n">
+        <v>400</v>
+      </c>
       <c r="I16" s="7"/>
       <c r="J16" s="7" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
@@ -7837,7 +8450,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7943,90 +8556,90 @@
         <f aca="false">Populations!$C$3</f>
         <v>M 15-49</v>
       </c>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="19"/>
-      <c r="N22" s="19"/>
-      <c r="O22" s="19"/>
-      <c r="P22" s="19"/>
-      <c r="Q22" s="19" t="n">
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="20"/>
+      <c r="N22" s="20"/>
+      <c r="O22" s="20"/>
+      <c r="P22" s="20"/>
+      <c r="Q22" s="20" t="n">
         <v>0</v>
       </c>
-      <c r="R22" s="19"/>
-      <c r="S22" s="19"/>
-      <c r="T22" s="19"/>
-      <c r="U22" s="19"/>
-      <c r="V22" s="19"/>
-      <c r="W22" s="19"/>
-      <c r="X22" s="19"/>
-      <c r="Y22" s="19"/>
-      <c r="Z22" s="19"/>
-      <c r="AA22" s="19"/>
-      <c r="AB22" s="19"/>
-      <c r="AC22" s="19"/>
-      <c r="AD22" s="19"/>
-      <c r="AE22" s="19"/>
-      <c r="AF22" s="19"/>
-      <c r="AG22" s="19"/>
+      <c r="R22" s="20"/>
+      <c r="S22" s="20"/>
+      <c r="T22" s="20"/>
+      <c r="U22" s="20"/>
+      <c r="V22" s="20"/>
+      <c r="W22" s="20"/>
+      <c r="X22" s="20"/>
+      <c r="Y22" s="20"/>
+      <c r="Z22" s="20"/>
+      <c r="AA22" s="20"/>
+      <c r="AB22" s="20"/>
+      <c r="AC22" s="20"/>
+      <c r="AD22" s="20"/>
+      <c r="AE22" s="20"/>
+      <c r="AF22" s="20"/>
+      <c r="AG22" s="20"/>
       <c r="AH22" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="AI22" s="19"/>
+      <c r="AI22" s="20"/>
     </row>
     <row r="23" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B23" s="6" t="str">
         <f aca="false">Populations!$C$4</f>
         <v>F 15-49</v>
       </c>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="19"/>
-      <c r="M23" s="19"/>
-      <c r="N23" s="19"/>
-      <c r="O23" s="19"/>
-      <c r="P23" s="19"/>
-      <c r="Q23" s="19" t="n">
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="20"/>
+      <c r="N23" s="20"/>
+      <c r="O23" s="20"/>
+      <c r="P23" s="20"/>
+      <c r="Q23" s="20" t="n">
         <v>0</v>
       </c>
-      <c r="R23" s="19"/>
-      <c r="S23" s="19"/>
-      <c r="T23" s="19"/>
-      <c r="U23" s="19"/>
-      <c r="V23" s="19"/>
-      <c r="W23" s="19"/>
-      <c r="X23" s="19"/>
-      <c r="Y23" s="19"/>
-      <c r="Z23" s="19"/>
-      <c r="AA23" s="19"/>
-      <c r="AB23" s="19"/>
-      <c r="AC23" s="19"/>
-      <c r="AD23" s="19"/>
-      <c r="AE23" s="19"/>
-      <c r="AF23" s="19"/>
-      <c r="AG23" s="19"/>
+      <c r="R23" s="20"/>
+      <c r="S23" s="20"/>
+      <c r="T23" s="20"/>
+      <c r="U23" s="20"/>
+      <c r="V23" s="20"/>
+      <c r="W23" s="20"/>
+      <c r="X23" s="20"/>
+      <c r="Y23" s="20"/>
+      <c r="Z23" s="20"/>
+      <c r="AA23" s="20"/>
+      <c r="AB23" s="20"/>
+      <c r="AC23" s="20"/>
+      <c r="AD23" s="20"/>
+      <c r="AE23" s="20"/>
+      <c r="AF23" s="20"/>
+      <c r="AG23" s="20"/>
       <c r="AH23" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="AI23" s="19"/>
+      <c r="AI23" s="20"/>
     </row>
     <row r="27" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8179,7 +8792,7 @@
     </row>
     <row r="33" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8349,7 +8962,7 @@
     </row>
     <row r="39" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8454,41 +9067,41 @@
       <c r="B41" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="19"/>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="19"/>
-      <c r="K41" s="19"/>
-      <c r="L41" s="19"/>
-      <c r="M41" s="19"/>
-      <c r="N41" s="19"/>
-      <c r="O41" s="19"/>
-      <c r="P41" s="19"/>
-      <c r="Q41" s="19"/>
-      <c r="R41" s="19"/>
-      <c r="S41" s="19"/>
-      <c r="T41" s="19"/>
-      <c r="U41" s="19"/>
-      <c r="V41" s="19"/>
-      <c r="W41" s="19"/>
-      <c r="X41" s="19"/>
-      <c r="Y41" s="19"/>
-      <c r="Z41" s="19"/>
-      <c r="AA41" s="19"/>
-      <c r="AB41" s="19"/>
-      <c r="AC41" s="19"/>
-      <c r="AD41" s="19"/>
-      <c r="AE41" s="19"/>
-      <c r="AF41" s="19"/>
-      <c r="AG41" s="19"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="20"/>
+      <c r="K41" s="20"/>
+      <c r="L41" s="20"/>
+      <c r="M41" s="20"/>
+      <c r="N41" s="20"/>
+      <c r="O41" s="20"/>
+      <c r="P41" s="20"/>
+      <c r="Q41" s="20"/>
+      <c r="R41" s="20"/>
+      <c r="S41" s="20"/>
+      <c r="T41" s="20"/>
+      <c r="U41" s="20"/>
+      <c r="V41" s="20"/>
+      <c r="W41" s="20"/>
+      <c r="X41" s="20"/>
+      <c r="Y41" s="20"/>
+      <c r="Z41" s="20"/>
+      <c r="AA41" s="20"/>
+      <c r="AB41" s="20"/>
+      <c r="AC41" s="20"/>
+      <c r="AD41" s="20"/>
+      <c r="AE41" s="20"/>
+      <c r="AF41" s="20"/>
+      <c r="AG41" s="20"/>
       <c r="AH41" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="AI41" s="21" t="n">
+      <c r="AI41" s="22" t="n">
         <f aca="false">14/100*87/100</f>
         <v>0.1218</v>
       </c>
@@ -8519,13 +9132,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="35" min="1" style="0" width="11.6989795918367"/>
-    <col collapsed="false" hidden="false" max="1025" min="36" style="0" width="9.86224489795918"/>
+    <col collapsed="false" hidden="false" max="35" min="1" style="0" width="22.5867346938776"/>
+    <col collapsed="false" hidden="false" max="1025" min="36" style="0" width="19.265306122449"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8665,7 +9278,7 @@
       <c r="AH3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="AI3" s="22" t="n">
+      <c r="AI3" s="23" t="n">
         <v>100</v>
       </c>
     </row>
@@ -8708,13 +9321,13 @@
       <c r="AH4" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="AI4" s="22" t="n">
+      <c r="AI4" s="23" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8854,7 +9467,7 @@
       <c r="AH10" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="AI10" s="22" t="n">
+      <c r="AI10" s="23" t="n">
         <f aca="false">0.2*3*20</f>
         <v>12</v>
       </c>
@@ -8898,14 +9511,14 @@
       <c r="AH11" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="AI11" s="22" t="n">
+      <c r="AI11" s="23" t="n">
         <f aca="false">0.1*3*20</f>
         <v>6</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9094,7 +9707,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9200,41 +9813,41 @@
         <f aca="false">Populations!$C$3</f>
         <v>M 15-49</v>
       </c>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="19"/>
-      <c r="L24" s="19"/>
-      <c r="M24" s="19"/>
-      <c r="N24" s="19"/>
-      <c r="O24" s="19"/>
-      <c r="P24" s="19"/>
-      <c r="Q24" s="19"/>
-      <c r="R24" s="19"/>
-      <c r="S24" s="19"/>
-      <c r="T24" s="19"/>
-      <c r="U24" s="19"/>
-      <c r="V24" s="19"/>
-      <c r="W24" s="19"/>
-      <c r="X24" s="19"/>
-      <c r="Y24" s="19"/>
-      <c r="Z24" s="19"/>
-      <c r="AA24" s="19"/>
-      <c r="AB24" s="19"/>
-      <c r="AC24" s="19"/>
-      <c r="AD24" s="19"/>
-      <c r="AE24" s="19"/>
-      <c r="AF24" s="19"/>
-      <c r="AG24" s="19"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="20"/>
+      <c r="N24" s="20"/>
+      <c r="O24" s="20"/>
+      <c r="P24" s="20"/>
+      <c r="Q24" s="20"/>
+      <c r="R24" s="20"/>
+      <c r="S24" s="20"/>
+      <c r="T24" s="20"/>
+      <c r="U24" s="20"/>
+      <c r="V24" s="20"/>
+      <c r="W24" s="20"/>
+      <c r="X24" s="20"/>
+      <c r="Y24" s="20"/>
+      <c r="Z24" s="20"/>
+      <c r="AA24" s="20"/>
+      <c r="AB24" s="20"/>
+      <c r="AC24" s="20"/>
+      <c r="AD24" s="20"/>
+      <c r="AE24" s="20"/>
+      <c r="AF24" s="20"/>
+      <c r="AG24" s="20"/>
       <c r="AH24" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="AI24" s="23" t="n">
+      <c r="AI24" s="24" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -9243,47 +9856,47 @@
         <f aca="false">Populations!$C$4</f>
         <v>F 15-49</v>
       </c>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="19"/>
-      <c r="L25" s="19"/>
-      <c r="M25" s="19"/>
-      <c r="N25" s="19"/>
-      <c r="O25" s="19"/>
-      <c r="P25" s="19"/>
-      <c r="Q25" s="19"/>
-      <c r="R25" s="19"/>
-      <c r="S25" s="19"/>
-      <c r="T25" s="19"/>
-      <c r="U25" s="19"/>
-      <c r="V25" s="19"/>
-      <c r="W25" s="19"/>
-      <c r="X25" s="19"/>
-      <c r="Y25" s="19"/>
-      <c r="Z25" s="19"/>
-      <c r="AA25" s="19"/>
-      <c r="AB25" s="19"/>
-      <c r="AC25" s="19"/>
-      <c r="AD25" s="19"/>
-      <c r="AE25" s="19"/>
-      <c r="AF25" s="19"/>
-      <c r="AG25" s="19"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="20"/>
+      <c r="O25" s="20"/>
+      <c r="P25" s="20"/>
+      <c r="Q25" s="20"/>
+      <c r="R25" s="20"/>
+      <c r="S25" s="20"/>
+      <c r="T25" s="20"/>
+      <c r="U25" s="20"/>
+      <c r="V25" s="20"/>
+      <c r="W25" s="20"/>
+      <c r="X25" s="20"/>
+      <c r="Y25" s="20"/>
+      <c r="Z25" s="20"/>
+      <c r="AA25" s="20"/>
+      <c r="AB25" s="20"/>
+      <c r="AC25" s="20"/>
+      <c r="AD25" s="20"/>
+      <c r="AE25" s="20"/>
+      <c r="AF25" s="20"/>
+      <c r="AG25" s="20"/>
       <c r="AH25" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="AI25" s="23" t="n">
+      <c r="AI25" s="24" t="n">
         <v>0.14</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9389,41 +10002,41 @@
         <f aca="false">Populations!$C$3</f>
         <v>M 15-49</v>
       </c>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="19"/>
-      <c r="K31" s="19"/>
-      <c r="L31" s="19"/>
-      <c r="M31" s="19"/>
-      <c r="N31" s="19"/>
-      <c r="O31" s="19"/>
-      <c r="P31" s="19"/>
-      <c r="Q31" s="19"/>
-      <c r="R31" s="19"/>
-      <c r="S31" s="19"/>
-      <c r="T31" s="19"/>
-      <c r="U31" s="19"/>
-      <c r="V31" s="19"/>
-      <c r="W31" s="19"/>
-      <c r="X31" s="19"/>
-      <c r="Y31" s="19"/>
-      <c r="Z31" s="19"/>
-      <c r="AA31" s="19"/>
-      <c r="AB31" s="19"/>
-      <c r="AC31" s="19"/>
-      <c r="AD31" s="19"/>
-      <c r="AE31" s="19"/>
-      <c r="AF31" s="19"/>
-      <c r="AG31" s="19"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="20"/>
+      <c r="L31" s="20"/>
+      <c r="M31" s="20"/>
+      <c r="N31" s="20"/>
+      <c r="O31" s="20"/>
+      <c r="P31" s="20"/>
+      <c r="Q31" s="20"/>
+      <c r="R31" s="20"/>
+      <c r="S31" s="20"/>
+      <c r="T31" s="20"/>
+      <c r="U31" s="20"/>
+      <c r="V31" s="20"/>
+      <c r="W31" s="20"/>
+      <c r="X31" s="20"/>
+      <c r="Y31" s="20"/>
+      <c r="Z31" s="20"/>
+      <c r="AA31" s="20"/>
+      <c r="AB31" s="20"/>
+      <c r="AC31" s="20"/>
+      <c r="AD31" s="20"/>
+      <c r="AE31" s="20"/>
+      <c r="AF31" s="20"/>
+      <c r="AG31" s="20"/>
       <c r="AH31" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="AI31" s="19" t="n">
+      <c r="AI31" s="20" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -9432,47 +10045,47 @@
         <f aca="false">Populations!$C$4</f>
         <v>F 15-49</v>
       </c>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="19"/>
-      <c r="K32" s="19"/>
-      <c r="L32" s="19"/>
-      <c r="M32" s="19"/>
-      <c r="N32" s="19"/>
-      <c r="O32" s="19"/>
-      <c r="P32" s="19"/>
-      <c r="Q32" s="19"/>
-      <c r="R32" s="19"/>
-      <c r="S32" s="19"/>
-      <c r="T32" s="19"/>
-      <c r="U32" s="19"/>
-      <c r="V32" s="19"/>
-      <c r="W32" s="19"/>
-      <c r="X32" s="19"/>
-      <c r="Y32" s="19"/>
-      <c r="Z32" s="19"/>
-      <c r="AA32" s="19"/>
-      <c r="AB32" s="19"/>
-      <c r="AC32" s="19"/>
-      <c r="AD32" s="19"/>
-      <c r="AE32" s="19"/>
-      <c r="AF32" s="19"/>
-      <c r="AG32" s="19"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="20"/>
+      <c r="K32" s="20"/>
+      <c r="L32" s="20"/>
+      <c r="M32" s="20"/>
+      <c r="N32" s="20"/>
+      <c r="O32" s="20"/>
+      <c r="P32" s="20"/>
+      <c r="Q32" s="20"/>
+      <c r="R32" s="20"/>
+      <c r="S32" s="20"/>
+      <c r="T32" s="20"/>
+      <c r="U32" s="20"/>
+      <c r="V32" s="20"/>
+      <c r="W32" s="20"/>
+      <c r="X32" s="20"/>
+      <c r="Y32" s="20"/>
+      <c r="Z32" s="20"/>
+      <c r="AA32" s="20"/>
+      <c r="AB32" s="20"/>
+      <c r="AC32" s="20"/>
+      <c r="AD32" s="20"/>
+      <c r="AE32" s="20"/>
+      <c r="AF32" s="20"/>
+      <c r="AG32" s="20"/>
       <c r="AH32" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="AI32" s="19" t="n">
+      <c r="AI32" s="20" t="n">
         <v>0.4</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9578,41 +10191,41 @@
         <f aca="false">Populations!$C$3</f>
         <v>M 15-49</v>
       </c>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="19"/>
-      <c r="K38" s="19"/>
-      <c r="L38" s="19"/>
-      <c r="M38" s="19"/>
-      <c r="N38" s="19"/>
-      <c r="O38" s="19"/>
-      <c r="P38" s="19"/>
-      <c r="Q38" s="19"/>
-      <c r="R38" s="19"/>
-      <c r="S38" s="19"/>
-      <c r="T38" s="19"/>
-      <c r="U38" s="19"/>
-      <c r="V38" s="19"/>
-      <c r="W38" s="19"/>
-      <c r="X38" s="19"/>
-      <c r="Y38" s="19"/>
-      <c r="Z38" s="19"/>
-      <c r="AA38" s="19"/>
-      <c r="AB38" s="19"/>
-      <c r="AC38" s="19"/>
-      <c r="AD38" s="19"/>
-      <c r="AE38" s="19"/>
-      <c r="AF38" s="19"/>
-      <c r="AG38" s="19"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="20"/>
+      <c r="K38" s="20"/>
+      <c r="L38" s="20"/>
+      <c r="M38" s="20"/>
+      <c r="N38" s="20"/>
+      <c r="O38" s="20"/>
+      <c r="P38" s="20"/>
+      <c r="Q38" s="20"/>
+      <c r="R38" s="20"/>
+      <c r="S38" s="20"/>
+      <c r="T38" s="20"/>
+      <c r="U38" s="20"/>
+      <c r="V38" s="20"/>
+      <c r="W38" s="20"/>
+      <c r="X38" s="20"/>
+      <c r="Y38" s="20"/>
+      <c r="Z38" s="20"/>
+      <c r="AA38" s="20"/>
+      <c r="AB38" s="20"/>
+      <c r="AC38" s="20"/>
+      <c r="AD38" s="20"/>
+      <c r="AE38" s="20"/>
+      <c r="AF38" s="20"/>
+      <c r="AG38" s="20"/>
       <c r="AH38" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="AI38" s="24" t="n">
+      <c r="AI38" s="25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9621,47 +10234,47 @@
         <f aca="false">Populations!$C$4</f>
         <v>F 15-49</v>
       </c>
-      <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="19"/>
-      <c r="K39" s="19"/>
-      <c r="L39" s="19"/>
-      <c r="M39" s="19"/>
-      <c r="N39" s="19"/>
-      <c r="O39" s="19"/>
-      <c r="P39" s="19"/>
-      <c r="Q39" s="19"/>
-      <c r="R39" s="19"/>
-      <c r="S39" s="19"/>
-      <c r="T39" s="19"/>
-      <c r="U39" s="19"/>
-      <c r="V39" s="19"/>
-      <c r="W39" s="19"/>
-      <c r="X39" s="19"/>
-      <c r="Y39" s="19"/>
-      <c r="Z39" s="19"/>
-      <c r="AA39" s="19"/>
-      <c r="AB39" s="19"/>
-      <c r="AC39" s="19"/>
-      <c r="AD39" s="19"/>
-      <c r="AE39" s="19"/>
-      <c r="AF39" s="19"/>
-      <c r="AG39" s="19"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="20"/>
+      <c r="K39" s="20"/>
+      <c r="L39" s="20"/>
+      <c r="M39" s="20"/>
+      <c r="N39" s="20"/>
+      <c r="O39" s="20"/>
+      <c r="P39" s="20"/>
+      <c r="Q39" s="20"/>
+      <c r="R39" s="20"/>
+      <c r="S39" s="20"/>
+      <c r="T39" s="20"/>
+      <c r="U39" s="20"/>
+      <c r="V39" s="20"/>
+      <c r="W39" s="20"/>
+      <c r="X39" s="20"/>
+      <c r="Y39" s="20"/>
+      <c r="Z39" s="20"/>
+      <c r="AA39" s="20"/>
+      <c r="AB39" s="20"/>
+      <c r="AC39" s="20"/>
+      <c r="AD39" s="20"/>
+      <c r="AE39" s="20"/>
+      <c r="AF39" s="20"/>
+      <c r="AG39" s="20"/>
       <c r="AH39" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="AI39" s="23" t="n">
+      <c r="AI39" s="24" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="3" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9767,41 +10380,41 @@
         <f aca="false">Populations!$C$3</f>
         <v>M 15-49</v>
       </c>
-      <c r="C45" s="19"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="19"/>
-      <c r="F45" s="19"/>
-      <c r="G45" s="19"/>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="19"/>
-      <c r="K45" s="19"/>
-      <c r="L45" s="19"/>
-      <c r="M45" s="19"/>
-      <c r="N45" s="19"/>
-      <c r="O45" s="19"/>
-      <c r="P45" s="19"/>
-      <c r="Q45" s="19"/>
-      <c r="R45" s="19"/>
-      <c r="S45" s="19"/>
-      <c r="T45" s="19"/>
-      <c r="U45" s="19"/>
-      <c r="V45" s="19"/>
-      <c r="W45" s="19"/>
-      <c r="X45" s="19"/>
-      <c r="Y45" s="19"/>
-      <c r="Z45" s="19"/>
-      <c r="AA45" s="19"/>
-      <c r="AB45" s="19"/>
-      <c r="AC45" s="19"/>
-      <c r="AD45" s="19"/>
-      <c r="AE45" s="19"/>
-      <c r="AF45" s="19"/>
-      <c r="AG45" s="19"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="20"/>
+      <c r="H45" s="20"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="20"/>
+      <c r="K45" s="20"/>
+      <c r="L45" s="20"/>
+      <c r="M45" s="20"/>
+      <c r="N45" s="20"/>
+      <c r="O45" s="20"/>
+      <c r="P45" s="20"/>
+      <c r="Q45" s="20"/>
+      <c r="R45" s="20"/>
+      <c r="S45" s="20"/>
+      <c r="T45" s="20"/>
+      <c r="U45" s="20"/>
+      <c r="V45" s="20"/>
+      <c r="W45" s="20"/>
+      <c r="X45" s="20"/>
+      <c r="Y45" s="20"/>
+      <c r="Z45" s="20"/>
+      <c r="AA45" s="20"/>
+      <c r="AB45" s="20"/>
+      <c r="AC45" s="20"/>
+      <c r="AD45" s="20"/>
+      <c r="AE45" s="20"/>
+      <c r="AF45" s="20"/>
+      <c r="AG45" s="20"/>
       <c r="AH45" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="AI45" s="23" t="n">
+      <c r="AI45" s="24" t="n">
         <v>0.1</v>
       </c>
     </row>

--- a/tests/cascade2p.xlsx
+++ b/tests/cascade2p.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" state="visible" r:id="rId2"/>
@@ -283,7 +283,7 @@
     <t>Viral load monitoring (number/year)</t>
   </si>
   <si>
-    <t>Time to ART re-initiation (years)</t>
+    <t>Rate of ART re-initiation (%/year)</t>
   </si>
   <si>
     <t>PLHIV aware of their status (%)</t>
@@ -746,6 +746,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
+    <xf numFmtId="168" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
     <xf numFmtId="170" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
@@ -779,10 +783,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -867,15 +867,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>351000</xdr:colOff>
+      <xdr:colOff>378000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>422640</xdr:colOff>
+      <xdr:colOff>449280</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>33480</xdr:rowOff>
+      <xdr:rowOff>33120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -884,8 +884,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="351000" y="0"/>
-          <a:ext cx="25572960" cy="7120080"/>
+          <a:off x="378000" y="0"/>
+          <a:ext cx="27513360" cy="7119720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -912,15 +912,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>351000</xdr:colOff>
+      <xdr:colOff>378000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>422640</xdr:colOff>
+      <xdr:colOff>449280</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>33480</xdr:rowOff>
+      <xdr:rowOff>33120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -929,8 +929,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="351000" y="0"/>
-          <a:ext cx="25572960" cy="7120080"/>
+          <a:off x="378000" y="0"/>
+          <a:ext cx="27513360" cy="7119720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -957,15 +957,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>351000</xdr:colOff>
+      <xdr:colOff>378000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>422640</xdr:colOff>
+      <xdr:colOff>449280</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>33480</xdr:rowOff>
+      <xdr:rowOff>33120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -974,8 +974,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="351000" y="0"/>
-          <a:ext cx="25572960" cy="7120080"/>
+          <a:off x="378000" y="0"/>
+          <a:ext cx="27513360" cy="7119720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1002,15 +1002,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>351000</xdr:colOff>
+      <xdr:colOff>378000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>422640</xdr:colOff>
+      <xdr:colOff>449280</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>33480</xdr:rowOff>
+      <xdr:rowOff>33120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1019,8 +1019,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="351000" y="0"/>
-          <a:ext cx="25572960" cy="7120080"/>
+          <a:off x="378000" y="0"/>
+          <a:ext cx="27513360" cy="7119720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1047,15 +1047,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>351000</xdr:colOff>
+      <xdr:colOff>378000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>422640</xdr:colOff>
+      <xdr:colOff>449280</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>33480</xdr:rowOff>
+      <xdr:rowOff>33120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1064,8 +1064,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="351000" y="0"/>
-          <a:ext cx="25572960" cy="7120080"/>
+          <a:off x="378000" y="0"/>
+          <a:ext cx="27513360" cy="7119720"/>
         </a:xfrm>
         <a:solidFill>
           <a:srgbClr val="ffffff"/>
@@ -1094,15 +1094,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>351000</xdr:colOff>
+      <xdr:colOff>378000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>422640</xdr:colOff>
+      <xdr:colOff>449280</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>33480</xdr:rowOff>
+      <xdr:rowOff>33120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1111,8 +1111,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="351000" y="0"/>
-          <a:ext cx="25572960" cy="7310520"/>
+          <a:off x="378000" y="0"/>
+          <a:ext cx="27513360" cy="7310160"/>
         </a:xfrm>
         <a:solidFill>
           <a:srgbClr val="ffffff"/>
@@ -1141,15 +1141,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>351000</xdr:colOff>
+      <xdr:colOff>378000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>422640</xdr:colOff>
+      <xdr:colOff>449280</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>90720</xdr:rowOff>
+      <xdr:rowOff>90360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1158,8 +1158,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="351000" y="0"/>
-          <a:ext cx="25572960" cy="8434440"/>
+          <a:off x="378000" y="0"/>
+          <a:ext cx="27513360" cy="8434080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1186,15 +1186,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>351000</xdr:colOff>
+      <xdr:colOff>378000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>422640</xdr:colOff>
+      <xdr:colOff>449280</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>90720</xdr:rowOff>
+      <xdr:rowOff>90360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1203,8 +1203,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="351000" y="0"/>
-          <a:ext cx="25572960" cy="8434440"/>
+          <a:off x="378000" y="0"/>
+          <a:ext cx="27513360" cy="8434080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1231,15 +1231,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>351000</xdr:colOff>
+      <xdr:colOff>378000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>422640</xdr:colOff>
+      <xdr:colOff>449280</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>90720</xdr:rowOff>
+      <xdr:rowOff>90360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1248,8 +1248,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="351000" y="0"/>
-          <a:ext cx="25572960" cy="8434440"/>
+          <a:off x="378000" y="0"/>
+          <a:ext cx="27513360" cy="8434080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1276,15 +1276,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>351000</xdr:colOff>
+      <xdr:colOff>378000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>422640</xdr:colOff>
+      <xdr:colOff>449280</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>90720</xdr:rowOff>
+      <xdr:rowOff>90360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1293,8 +1293,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="351000" y="0"/>
-          <a:ext cx="25572960" cy="8434440"/>
+          <a:off x="378000" y="0"/>
+          <a:ext cx="27513360" cy="8434080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1321,15 +1321,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>351000</xdr:colOff>
+      <xdr:colOff>378000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>422640</xdr:colOff>
+      <xdr:colOff>449280</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>90720</xdr:rowOff>
+      <xdr:rowOff>90360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1338,8 +1338,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="351000" y="0"/>
-          <a:ext cx="25572960" cy="9767880"/>
+          <a:off x="378000" y="0"/>
+          <a:ext cx="27513360" cy="9767520"/>
         </a:xfrm>
         <a:solidFill>
           <a:srgbClr val="ffffff"/>
@@ -1368,15 +1368,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>351000</xdr:colOff>
+      <xdr:colOff>378000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>422640</xdr:colOff>
+      <xdr:colOff>449280</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>52560</xdr:rowOff>
+      <xdr:rowOff>52200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1385,8 +1385,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="351000" y="0"/>
-          <a:ext cx="25572960" cy="7805880"/>
+          <a:off x="378000" y="0"/>
+          <a:ext cx="27513360" cy="7805520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1413,15 +1413,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>351000</xdr:colOff>
+      <xdr:colOff>378000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>422640</xdr:colOff>
+      <xdr:colOff>449280</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>52560</xdr:rowOff>
+      <xdr:rowOff>52200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1430,8 +1430,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="351000" y="0"/>
-          <a:ext cx="25572960" cy="7805880"/>
+          <a:off x="378000" y="0"/>
+          <a:ext cx="27513360" cy="7805520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1458,15 +1458,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>351000</xdr:colOff>
+      <xdr:colOff>378000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>422640</xdr:colOff>
+      <xdr:colOff>449280</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>52560</xdr:rowOff>
+      <xdr:rowOff>52200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1475,8 +1475,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="351000" y="0"/>
-          <a:ext cx="25572960" cy="7805880"/>
+          <a:off x="378000" y="0"/>
+          <a:ext cx="27513360" cy="7805520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1503,15 +1503,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>351000</xdr:colOff>
+      <xdr:colOff>378000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>422640</xdr:colOff>
+      <xdr:colOff>449280</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>52560</xdr:rowOff>
+      <xdr:rowOff>52200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1520,8 +1520,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="351000" y="0"/>
-          <a:ext cx="25572960" cy="7805880"/>
+          <a:off x="378000" y="0"/>
+          <a:ext cx="27513360" cy="7805520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1548,15 +1548,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>351000</xdr:colOff>
+      <xdr:colOff>378000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>422640</xdr:colOff>
+      <xdr:colOff>449280</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>52560</xdr:rowOff>
+      <xdr:rowOff>52200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1565,8 +1565,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="351000" y="0"/>
-          <a:ext cx="25572960" cy="10091880"/>
+          <a:off x="378000" y="0"/>
+          <a:ext cx="27513360" cy="10091520"/>
         </a:xfrm>
         <a:solidFill>
           <a:srgbClr val="ffffff"/>
@@ -1595,15 +1595,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>351000</xdr:colOff>
+      <xdr:colOff>378000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>422640</xdr:colOff>
+      <xdr:colOff>449280</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>90720</xdr:rowOff>
+      <xdr:rowOff>90360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1612,8 +1612,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="351000" y="0"/>
-          <a:ext cx="25572960" cy="9863280"/>
+          <a:off x="378000" y="0"/>
+          <a:ext cx="27513360" cy="9862920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1640,15 +1640,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>351000</xdr:colOff>
+      <xdr:colOff>378000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>422640</xdr:colOff>
+      <xdr:colOff>449280</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>90720</xdr:rowOff>
+      <xdr:rowOff>90360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1657,8 +1657,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="351000" y="0"/>
-          <a:ext cx="25572960" cy="9863280"/>
+          <a:off x="378000" y="0"/>
+          <a:ext cx="27513360" cy="9862920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1685,15 +1685,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>351000</xdr:colOff>
+      <xdr:colOff>378000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>422640</xdr:colOff>
+      <xdr:colOff>449280</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>90720</xdr:rowOff>
+      <xdr:rowOff>90360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1702,8 +1702,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="351000" y="0"/>
-          <a:ext cx="25572960" cy="9863280"/>
+          <a:off x="378000" y="0"/>
+          <a:ext cx="27513360" cy="9862920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1730,15 +1730,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>351000</xdr:colOff>
+      <xdr:colOff>378000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>422640</xdr:colOff>
+      <xdr:colOff>449280</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>90720</xdr:rowOff>
+      <xdr:rowOff>90360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1747,8 +1747,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="351000" y="0"/>
-          <a:ext cx="25572960" cy="9863280"/>
+          <a:off x="378000" y="0"/>
+          <a:ext cx="27513360" cy="9862920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1775,15 +1775,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>351000</xdr:colOff>
+      <xdr:colOff>378000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>422640</xdr:colOff>
+      <xdr:colOff>449280</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>90720</xdr:rowOff>
+      <xdr:rowOff>90360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1792,8 +1792,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="351000" y="0"/>
-          <a:ext cx="25572960" cy="9863280"/>
+          <a:off x="378000" y="0"/>
+          <a:ext cx="27513360" cy="9862920"/>
         </a:xfrm>
         <a:solidFill>
           <a:srgbClr val="ffffff"/>
@@ -1830,8 +1830,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="244.15306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="19.265306122449"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="263.775510204082"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="20.7551020408163"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1888,8 +1888,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="35" min="1" style="0" width="22.5867346938776"/>
-    <col collapsed="false" hidden="false" max="1025" min="36" style="0" width="19.265306122449"/>
+    <col collapsed="false" hidden="false" max="35" min="1" style="0" width="24.3061224489796"/>
+    <col collapsed="false" hidden="false" max="1025" min="36" style="0" width="20.7551020408163"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2189,41 +2189,41 @@
         <f aca="false">Populations!$C$3</f>
         <v>M 15-49</v>
       </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="20"/>
-      <c r="O10" s="20"/>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="20"/>
-      <c r="R10" s="20"/>
-      <c r="S10" s="20"/>
-      <c r="T10" s="20"/>
-      <c r="U10" s="20"/>
-      <c r="V10" s="20"/>
-      <c r="W10" s="20"/>
-      <c r="X10" s="20"/>
-      <c r="Y10" s="20"/>
-      <c r="Z10" s="20"/>
-      <c r="AA10" s="20"/>
-      <c r="AB10" s="20"/>
-      <c r="AC10" s="20"/>
-      <c r="AD10" s="20"/>
-      <c r="AE10" s="20"/>
-      <c r="AF10" s="20"/>
-      <c r="AG10" s="20"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="21"/>
+      <c r="S10" s="21"/>
+      <c r="T10" s="21"/>
+      <c r="U10" s="21"/>
+      <c r="V10" s="21"/>
+      <c r="W10" s="21"/>
+      <c r="X10" s="21"/>
+      <c r="Y10" s="21"/>
+      <c r="Z10" s="21"/>
+      <c r="AA10" s="21"/>
+      <c r="AB10" s="21"/>
+      <c r="AC10" s="21"/>
+      <c r="AD10" s="21"/>
+      <c r="AE10" s="21"/>
+      <c r="AF10" s="21"/>
+      <c r="AG10" s="21"/>
       <c r="AH10" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="AI10" s="20" t="n">
+      <c r="AI10" s="21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2232,41 +2232,41 @@
         <f aca="false">Populations!$C$4</f>
         <v>F 15-49</v>
       </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="20"/>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="20"/>
-      <c r="R11" s="20"/>
-      <c r="S11" s="20"/>
-      <c r="T11" s="20"/>
-      <c r="U11" s="20"/>
-      <c r="V11" s="20"/>
-      <c r="W11" s="20"/>
-      <c r="X11" s="20"/>
-      <c r="Y11" s="20"/>
-      <c r="Z11" s="20"/>
-      <c r="AA11" s="20"/>
-      <c r="AB11" s="20"/>
-      <c r="AC11" s="20"/>
-      <c r="AD11" s="20"/>
-      <c r="AE11" s="20"/>
-      <c r="AF11" s="20"/>
-      <c r="AG11" s="20"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="21"/>
+      <c r="S11" s="21"/>
+      <c r="T11" s="21"/>
+      <c r="U11" s="21"/>
+      <c r="V11" s="21"/>
+      <c r="W11" s="21"/>
+      <c r="X11" s="21"/>
+      <c r="Y11" s="21"/>
+      <c r="Z11" s="21"/>
+      <c r="AA11" s="21"/>
+      <c r="AB11" s="21"/>
+      <c r="AC11" s="21"/>
+      <c r="AD11" s="21"/>
+      <c r="AE11" s="21"/>
+      <c r="AF11" s="21"/>
+      <c r="AG11" s="21"/>
       <c r="AH11" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="AI11" s="20" t="n">
+      <c r="AI11" s="21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2439,10 +2439,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="22.5867346938776"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="33.6020408163265"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="22.5867346938776"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="19.265306122449"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="24.3061224489796"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="36.2397959183673"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="24.3061224489796"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="20.7551020408163"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2682,9 +2682,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.265306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="110.780612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="19.265306122449"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.7551020408163"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="119.612244897959"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="20.7551020408163"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2704,100 +2704,100 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="27" t="n">
+      <c r="C3" s="28" t="n">
         <v>0.0004</v>
       </c>
-      <c r="D3" s="27" t="n">
+      <c r="D3" s="28" t="n">
         <v>0.0001</v>
       </c>
-      <c r="E3" s="27" t="n">
+      <c r="E3" s="28" t="n">
         <v>0.0014</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="27" t="n">
+      <c r="C4" s="28" t="n">
         <v>0.0008</v>
       </c>
-      <c r="D4" s="27" t="n">
+      <c r="D4" s="28" t="n">
         <v>0.0006</v>
       </c>
-      <c r="E4" s="27" t="n">
+      <c r="E4" s="28" t="n">
         <v>0.0011</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="C5" s="27" t="n">
+      <c r="C5" s="28" t="n">
         <v>0.0138</v>
       </c>
-      <c r="D5" s="27" t="n">
+      <c r="D5" s="28" t="n">
         <v>0.0102</v>
       </c>
-      <c r="E5" s="27" t="n">
+      <c r="E5" s="28" t="n">
         <v>0.0186</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="C6" s="27" t="n">
+      <c r="C6" s="28" t="n">
         <v>0.0011</v>
       </c>
-      <c r="D6" s="27" t="n">
+      <c r="D6" s="28" t="n">
         <v>0.0004</v>
       </c>
-      <c r="E6" s="27" t="n">
+      <c r="E6" s="28" t="n">
         <v>0.0028</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="C7" s="27" t="n">
+      <c r="C7" s="28" t="n">
         <v>0.008</v>
       </c>
-      <c r="D7" s="27" t="n">
+      <c r="D7" s="28" t="n">
         <v>0.0063</v>
       </c>
-      <c r="E7" s="27" t="n">
+      <c r="E7" s="28" t="n">
         <v>0.024</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="C8" s="27" t="n">
+      <c r="C8" s="28" t="n">
         <v>0.367</v>
       </c>
-      <c r="D8" s="27" t="n">
+      <c r="D8" s="28" t="n">
         <v>0.294</v>
       </c>
-      <c r="E8" s="27" t="n">
+      <c r="E8" s="28" t="n">
         <v>0.44</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="C9" s="27" t="n">
+      <c r="C9" s="28" t="n">
         <v>0.205</v>
       </c>
-      <c r="D9" s="27" t="n">
+      <c r="D9" s="28" t="n">
         <v>0.14</v>
       </c>
-      <c r="E9" s="27" t="n">
+      <c r="E9" s="28" t="n">
         <v>0.27</v>
       </c>
     </row>
@@ -2827,86 +2827,86 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="C15" s="28" t="n">
+      <c r="C15" s="19" t="n">
         <v>26.03</v>
       </c>
-      <c r="D15" s="28" t="n">
+      <c r="D15" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="E15" s="28" t="n">
+      <c r="E15" s="19" t="n">
         <v>48.02</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="C16" s="28" t="n">
+      <c r="C16" s="19" t="n">
         <v>1</v>
       </c>
-      <c r="D16" s="28" t="n">
+      <c r="D16" s="19" t="n">
         <v>1</v>
       </c>
-      <c r="E16" s="28" t="n">
+      <c r="E16" s="19" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="C17" s="28" t="n">
+      <c r="C17" s="19" t="n">
         <v>1</v>
       </c>
-      <c r="D17" s="28" t="n">
+      <c r="D17" s="19" t="n">
         <v>1</v>
       </c>
-      <c r="E17" s="28" t="n">
+      <c r="E17" s="19" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="C18" s="28" t="n">
+      <c r="C18" s="19" t="n">
         <v>1</v>
       </c>
-      <c r="D18" s="28" t="n">
+      <c r="D18" s="19" t="n">
         <v>1</v>
       </c>
-      <c r="E18" s="28" t="n">
+      <c r="E18" s="19" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="C19" s="28" t="n">
+      <c r="C19" s="19" t="n">
         <v>3.49</v>
       </c>
-      <c r="D19" s="28" t="n">
+      <c r="D19" s="19" t="n">
         <v>1.76</v>
       </c>
-      <c r="E19" s="28" t="n">
+      <c r="E19" s="19" t="n">
         <v>6.92</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="C20" s="28" t="n">
+      <c r="C20" s="19" t="n">
         <v>7.17</v>
       </c>
-      <c r="D20" s="28" t="n">
+      <c r="D20" s="19" t="n">
         <v>3.9</v>
       </c>
-      <c r="E20" s="28" t="n">
+      <c r="E20" s="19" t="n">
         <v>12.08</v>
       </c>
     </row>
@@ -2936,7 +2936,7 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B26" s="26" t="s">
+      <c r="B26" s="27" t="s">
         <v>86</v>
       </c>
       <c r="C26" s="18" t="n">
@@ -2950,7 +2950,7 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B27" s="26" t="s">
+      <c r="B27" s="27" t="s">
         <v>81</v>
       </c>
       <c r="C27" s="18" t="n">
@@ -2964,7 +2964,7 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B28" s="26" t="s">
+      <c r="B28" s="27" t="s">
         <v>87</v>
       </c>
       <c r="C28" s="18" t="n">
@@ -2978,7 +2978,7 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B29" s="26" t="s">
+      <c r="B29" s="27" t="s">
         <v>88</v>
       </c>
       <c r="C29" s="18" t="n">
@@ -2992,7 +2992,7 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B30" s="26" t="s">
+      <c r="B30" s="27" t="s">
         <v>89</v>
       </c>
       <c r="C30" s="18" t="n">
@@ -3031,7 +3031,7 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B36" s="26" t="s">
+      <c r="B36" s="27" t="s">
         <v>91</v>
       </c>
       <c r="C36" s="18" t="n">
@@ -3045,7 +3045,7 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B37" s="26" t="s">
+      <c r="B37" s="27" t="s">
         <v>92</v>
       </c>
       <c r="C37" s="18" t="n">
@@ -3059,7 +3059,7 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B38" s="26" t="s">
+      <c r="B38" s="27" t="s">
         <v>93</v>
       </c>
       <c r="C38" s="18" t="n">
@@ -3073,7 +3073,7 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B39" s="26" t="s">
+      <c r="B39" s="27" t="s">
         <v>94</v>
       </c>
       <c r="C39" s="18" t="n">
@@ -3112,114 +3112,114 @@
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B45" s="26" t="s">
+      <c r="B45" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="C45" s="27" t="n">
+      <c r="C45" s="28" t="n">
         <v>0.0036</v>
       </c>
-      <c r="D45" s="27" t="n">
+      <c r="D45" s="28" t="n">
         <v>0.0029</v>
       </c>
-      <c r="E45" s="27" t="n">
+      <c r="E45" s="28" t="n">
         <v>0.0044</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B46" s="26" t="s">
+      <c r="B46" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="C46" s="27" t="n">
+      <c r="C46" s="28" t="n">
         <v>0.0036</v>
       </c>
-      <c r="D46" s="27" t="n">
+      <c r="D46" s="28" t="n">
         <v>0.0029</v>
       </c>
-      <c r="E46" s="27" t="n">
+      <c r="E46" s="28" t="n">
         <v>0.0044</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B47" s="26" t="s">
+      <c r="B47" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="C47" s="27" t="n">
+      <c r="C47" s="28" t="n">
         <v>0.0058</v>
       </c>
-      <c r="D47" s="27" t="n">
+      <c r="D47" s="28" t="n">
         <v>0.0048</v>
       </c>
-      <c r="E47" s="27" t="n">
+      <c r="E47" s="28" t="n">
         <v>0.0071</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B48" s="26" t="s">
+      <c r="B48" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="C48" s="27" t="n">
+      <c r="C48" s="28" t="n">
         <v>0.0088</v>
       </c>
-      <c r="D48" s="27" t="n">
+      <c r="D48" s="28" t="n">
         <v>0.075</v>
       </c>
-      <c r="E48" s="27" t="n">
+      <c r="E48" s="28" t="n">
         <v>0.0101</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B49" s="26" t="s">
+      <c r="B49" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="C49" s="27" t="n">
+      <c r="C49" s="28" t="n">
         <v>0.059</v>
       </c>
-      <c r="D49" s="27" t="n">
+      <c r="D49" s="28" t="n">
         <v>0.054</v>
       </c>
-      <c r="E49" s="27" t="n">
+      <c r="E49" s="28" t="n">
         <v>0.079</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B50" s="26" t="s">
+      <c r="B50" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="C50" s="27" t="n">
+      <c r="C50" s="28" t="n">
         <v>0.323</v>
       </c>
-      <c r="D50" s="27" t="n">
+      <c r="D50" s="28" t="n">
         <v>0.296</v>
       </c>
-      <c r="E50" s="27" t="n">
+      <c r="E50" s="28" t="n">
         <v>0.432</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B51" s="26" t="s">
+      <c r="B51" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="C51" s="27" t="n">
+      <c r="C51" s="28" t="n">
         <v>0.23</v>
       </c>
-      <c r="D51" s="27" t="n">
+      <c r="D51" s="28" t="n">
         <v>0.15</v>
       </c>
-      <c r="E51" s="27" t="n">
+      <c r="E51" s="28" t="n">
         <v>0.3</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B52" s="26" t="s">
+      <c r="B52" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="C52" s="27" t="n">
+      <c r="C52" s="28" t="n">
         <v>2.17</v>
       </c>
-      <c r="D52" s="27" t="n">
+      <c r="D52" s="28" t="n">
         <v>1.27</v>
       </c>
-      <c r="E52" s="27" t="n">
+      <c r="E52" s="28" t="n">
         <v>3.71</v>
       </c>
     </row>
@@ -3249,7 +3249,7 @@
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B58" s="26" t="s">
+      <c r="B58" s="27" t="s">
         <v>100</v>
       </c>
       <c r="C58" s="18" t="n">
@@ -3266,7 +3266,7 @@
       <c r="I58" s="29"/>
     </row>
     <row r="59" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B59" s="26" t="s">
+      <c r="B59" s="27" t="s">
         <v>101</v>
       </c>
       <c r="C59" s="18" t="n">
@@ -3283,7 +3283,7 @@
       <c r="I59" s="29"/>
     </row>
     <row r="60" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B60" s="26" t="s">
+      <c r="B60" s="27" t="s">
         <v>102</v>
       </c>
       <c r="C60" s="18" t="n">
@@ -3300,7 +3300,7 @@
       <c r="I60" s="29"/>
     </row>
     <row r="61" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B61" s="26" t="s">
+      <c r="B61" s="27" t="s">
         <v>103</v>
       </c>
       <c r="C61" s="18" t="n">
@@ -3317,7 +3317,7 @@
       <c r="I61" s="29"/>
     </row>
     <row r="62" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B62" s="26" t="s">
+      <c r="B62" s="27" t="s">
         <v>104</v>
       </c>
       <c r="C62" s="18" t="n">
@@ -3334,7 +3334,7 @@
       <c r="I62" s="29"/>
     </row>
     <row r="63" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B63" s="26" t="s">
+      <c r="B63" s="27" t="s">
         <v>105</v>
       </c>
       <c r="C63" s="18" t="n">
@@ -3351,7 +3351,7 @@
       <c r="I63" s="29"/>
     </row>
     <row r="64" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B64" s="26" t="s">
+      <c r="B64" s="27" t="s">
         <v>106</v>
       </c>
       <c r="C64" s="18" t="n">
@@ -3368,7 +3368,7 @@
       <c r="I64" s="29"/>
     </row>
     <row r="65" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B65" s="26" t="s">
+      <c r="B65" s="27" t="s">
         <v>107</v>
       </c>
       <c r="C65" s="18" t="n">
@@ -3385,7 +3385,7 @@
       <c r="I65" s="29"/>
     </row>
     <row r="66" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B66" s="26" t="s">
+      <c r="B66" s="27" t="s">
         <v>108</v>
       </c>
       <c r="C66" s="18" t="n">
@@ -3399,7 +3399,7 @@
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B67" s="26" t="s">
+      <c r="B67" s="27" t="s">
         <v>109</v>
       </c>
       <c r="C67" s="18" t="n">
@@ -3432,100 +3432,100 @@
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B73" s="26" t="s">
+      <c r="B73" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="C73" s="28" t="n">
+      <c r="C73" s="19" t="n">
         <v>0.146</v>
       </c>
-      <c r="D73" s="28" t="n">
+      <c r="D73" s="19" t="n">
         <v>0.096</v>
       </c>
-      <c r="E73" s="28" t="n">
+      <c r="E73" s="19" t="n">
         <v>0.205</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B74" s="26" t="s">
+      <c r="B74" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="C74" s="28" t="n">
+      <c r="C74" s="19" t="n">
         <v>0.008</v>
       </c>
-      <c r="D74" s="28" t="n">
+      <c r="D74" s="19" t="n">
         <v>0.005</v>
       </c>
-      <c r="E74" s="28" t="n">
+      <c r="E74" s="19" t="n">
         <v>0.011</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B75" s="26" t="s">
+      <c r="B75" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="C75" s="28" t="n">
+      <c r="C75" s="19" t="n">
         <v>0.02</v>
       </c>
-      <c r="D75" s="28" t="n">
+      <c r="D75" s="19" t="n">
         <v>0.013</v>
       </c>
-      <c r="E75" s="28" t="n">
+      <c r="E75" s="19" t="n">
         <v>0.029</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B76" s="26" t="s">
+      <c r="B76" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="C76" s="28" t="n">
+      <c r="C76" s="19" t="n">
         <v>0.07</v>
       </c>
-      <c r="D76" s="28" t="n">
+      <c r="D76" s="19" t="n">
         <v>0.048</v>
       </c>
-      <c r="E76" s="28" t="n">
+      <c r="E76" s="19" t="n">
         <v>0.094</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B77" s="26" t="s">
+      <c r="B77" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="C77" s="28" t="n">
+      <c r="C77" s="19" t="n">
         <v>0.265</v>
       </c>
-      <c r="D77" s="28" t="n">
+      <c r="D77" s="19" t="n">
         <v>0.114</v>
       </c>
-      <c r="E77" s="28" t="n">
+      <c r="E77" s="19" t="n">
         <v>0.474</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B78" s="26" t="s">
+      <c r="B78" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="C78" s="28" t="n">
+      <c r="C78" s="19" t="n">
         <v>0.547</v>
       </c>
-      <c r="D78" s="28" t="n">
+      <c r="D78" s="19" t="n">
         <v>0.382</v>
       </c>
-      <c r="E78" s="28" t="n">
+      <c r="E78" s="19" t="n">
         <v>0.715</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B79" s="26" t="s">
+      <c r="B79" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="C79" s="28" t="n">
+      <c r="C79" s="19" t="n">
         <v>0.053</v>
       </c>
-      <c r="D79" s="28" t="n">
+      <c r="D79" s="19" t="n">
         <v>0.034</v>
       </c>
-      <c r="E79" s="28" t="n">
+      <c r="E79" s="19" t="n">
         <v>0.079</v>
       </c>
     </row>
@@ -3553,12 +3553,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="22.5867346938776"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.9744897959184"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="110.780612244898"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="22.5867346938776"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="33.6020408163265"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="19.265306122449"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="24.3061224489796"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="45.3010204081633"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="119.612244897959"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="24.3061224489796"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="36.2397959183673"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="20.7551020408163"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3677,8 +3677,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="36" min="1" style="0" width="22.5867346938776"/>
-    <col collapsed="false" hidden="false" max="1025" min="37" style="0" width="19.265306122449"/>
+    <col collapsed="false" hidden="false" max="36" min="1" style="0" width="24.3061224489796"/>
+    <col collapsed="false" hidden="false" max="1025" min="37" style="0" width="20.7551020408163"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4089,8 +4089,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="36" min="1" style="0" width="22.5867346938776"/>
-    <col collapsed="false" hidden="false" max="1025" min="37" style="0" width="19.265306122449"/>
+    <col collapsed="false" hidden="false" max="36" min="1" style="0" width="24.3061224489796"/>
+    <col collapsed="false" hidden="false" max="1025" min="37" style="0" width="20.7551020408163"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4497,8 +4497,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="35" min="1" style="0" width="22.5867346938776"/>
-    <col collapsed="false" hidden="false" max="1025" min="36" style="0" width="19.265306122449"/>
+    <col collapsed="false" hidden="false" max="35" min="1" style="0" width="24.3061224489796"/>
+    <col collapsed="false" hidden="false" max="1025" min="36" style="0" width="20.7551020408163"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5098,8 +5098,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="35" min="1" style="0" width="22.5867346938776"/>
-    <col collapsed="false" hidden="false" max="1025" min="36" style="0" width="19.265306122449"/>
+    <col collapsed="false" hidden="false" max="35" min="1" style="0" width="24.3061224489796"/>
+    <col collapsed="false" hidden="false" max="1025" min="36" style="0" width="20.7551020408163"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6121,13 +6121,13 @@
   </sheetPr>
   <dimension ref="A1:AI68"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AI19" activeCellId="0" sqref="AI19"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AF40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AI55" activeCellId="0" sqref="AI55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="19.265306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="20.7551020408163"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7292,41 +7292,41 @@
       <c r="B43" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C43" s="18"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="18"/>
-      <c r="G43" s="18"/>
-      <c r="H43" s="18"/>
-      <c r="I43" s="18"/>
-      <c r="J43" s="18"/>
-      <c r="K43" s="18"/>
-      <c r="L43" s="18"/>
-      <c r="M43" s="18"/>
-      <c r="N43" s="18"/>
-      <c r="O43" s="18"/>
-      <c r="P43" s="18"/>
-      <c r="Q43" s="18"/>
-      <c r="R43" s="18"/>
-      <c r="S43" s="18"/>
-      <c r="T43" s="18"/>
-      <c r="U43" s="18"/>
-      <c r="V43" s="18"/>
-      <c r="W43" s="18"/>
-      <c r="X43" s="18"/>
-      <c r="Y43" s="18"/>
-      <c r="Z43" s="18"/>
-      <c r="AA43" s="18"/>
-      <c r="AB43" s="18"/>
-      <c r="AC43" s="18"/>
-      <c r="AD43" s="18"/>
-      <c r="AE43" s="18"/>
-      <c r="AF43" s="18"/>
-      <c r="AG43" s="18"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="19"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="19"/>
+      <c r="J43" s="19"/>
+      <c r="K43" s="19"/>
+      <c r="L43" s="19"/>
+      <c r="M43" s="19"/>
+      <c r="N43" s="19"/>
+      <c r="O43" s="19"/>
+      <c r="P43" s="19"/>
+      <c r="Q43" s="19"/>
+      <c r="R43" s="19"/>
+      <c r="S43" s="19"/>
+      <c r="T43" s="19"/>
+      <c r="U43" s="19"/>
+      <c r="V43" s="19"/>
+      <c r="W43" s="19"/>
+      <c r="X43" s="19"/>
+      <c r="Y43" s="19"/>
+      <c r="Z43" s="19"/>
+      <c r="AA43" s="19"/>
+      <c r="AB43" s="19"/>
+      <c r="AC43" s="19"/>
+      <c r="AD43" s="19"/>
+      <c r="AE43" s="19"/>
+      <c r="AF43" s="19"/>
+      <c r="AG43" s="19"/>
       <c r="AH43" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="AI43" s="19" t="n">
+      <c r="AI43" s="20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7474,8 +7474,8 @@
       <c r="AH49" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="AI49" s="19" t="n">
-        <v>1</v>
+      <c r="AI49" s="18" t="n">
+        <v>0.95</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -7955,8 +7955,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="35" min="1" style="0" width="22.5867346938776"/>
-    <col collapsed="false" hidden="false" max="1025" min="36" style="0" width="19.265306122449"/>
+    <col collapsed="false" hidden="false" max="35" min="1" style="0" width="24.3061224489796"/>
+    <col collapsed="false" hidden="false" max="1025" min="36" style="0" width="20.7551020408163"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8067,86 +8067,86 @@
         <f aca="false">Populations!$C$3</f>
         <v>M 15-49</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20" t="n">
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21" t="n">
         <v>0.0645</v>
       </c>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="20"/>
-      <c r="S3" s="20"/>
-      <c r="T3" s="20"/>
-      <c r="U3" s="20"/>
-      <c r="V3" s="20"/>
-      <c r="W3" s="20"/>
-      <c r="X3" s="20"/>
-      <c r="Y3" s="20"/>
-      <c r="Z3" s="20"/>
-      <c r="AA3" s="20"/>
-      <c r="AB3" s="20"/>
-      <c r="AC3" s="20"/>
-      <c r="AD3" s="20"/>
-      <c r="AE3" s="20"/>
-      <c r="AF3" s="20"/>
-      <c r="AG3" s="20"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="21"/>
+      <c r="Y3" s="21"/>
+      <c r="Z3" s="21"/>
+      <c r="AA3" s="21"/>
+      <c r="AB3" s="21"/>
+      <c r="AC3" s="21"/>
+      <c r="AD3" s="21"/>
+      <c r="AE3" s="21"/>
+      <c r="AF3" s="21"/>
+      <c r="AG3" s="21"/>
       <c r="AH3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="AI3" s="20"/>
+      <c r="AI3" s="21"/>
     </row>
     <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B4" s="6" t="str">
         <f aca="false">Populations!$C$4</f>
         <v>F 15-49</v>
       </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20" t="n">
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21" t="n">
         <v>0.0645</v>
       </c>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="20"/>
-      <c r="S4" s="20"/>
-      <c r="T4" s="20"/>
-      <c r="U4" s="20"/>
-      <c r="V4" s="20"/>
-      <c r="W4" s="20"/>
-      <c r="X4" s="20"/>
-      <c r="Y4" s="20"/>
-      <c r="Z4" s="20"/>
-      <c r="AA4" s="20"/>
-      <c r="AB4" s="20"/>
-      <c r="AC4" s="20"/>
-      <c r="AD4" s="20"/>
-      <c r="AE4" s="20"/>
-      <c r="AF4" s="20"/>
-      <c r="AG4" s="20"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="21"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="21"/>
+      <c r="W4" s="21"/>
+      <c r="X4" s="21"/>
+      <c r="Y4" s="21"/>
+      <c r="Z4" s="21"/>
+      <c r="AA4" s="21"/>
+      <c r="AB4" s="21"/>
+      <c r="AC4" s="21"/>
+      <c r="AD4" s="21"/>
+      <c r="AE4" s="21"/>
+      <c r="AF4" s="21"/>
+      <c r="AG4" s="21"/>
       <c r="AH4" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="AI4" s="20"/>
+      <c r="AI4" s="21"/>
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
@@ -8289,7 +8289,7 @@
       <c r="AH10" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="AI10" s="21" t="n">
+      <c r="AI10" s="22" t="n">
         <v>0.65</v>
       </c>
     </row>
@@ -8556,86 +8556,86 @@
         <f aca="false">Populations!$C$3</f>
         <v>M 15-49</v>
       </c>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="20"/>
-      <c r="N22" s="20"/>
-      <c r="O22" s="20"/>
-      <c r="P22" s="20"/>
-      <c r="Q22" s="20" t="n">
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="21"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="21"/>
+      <c r="Q22" s="21" t="n">
         <v>0</v>
       </c>
-      <c r="R22" s="20"/>
-      <c r="S22" s="20"/>
-      <c r="T22" s="20"/>
-      <c r="U22" s="20"/>
-      <c r="V22" s="20"/>
-      <c r="W22" s="20"/>
-      <c r="X22" s="20"/>
-      <c r="Y22" s="20"/>
-      <c r="Z22" s="20"/>
-      <c r="AA22" s="20"/>
-      <c r="AB22" s="20"/>
-      <c r="AC22" s="20"/>
-      <c r="AD22" s="20"/>
-      <c r="AE22" s="20"/>
-      <c r="AF22" s="20"/>
-      <c r="AG22" s="20"/>
+      <c r="R22" s="21"/>
+      <c r="S22" s="21"/>
+      <c r="T22" s="21"/>
+      <c r="U22" s="21"/>
+      <c r="V22" s="21"/>
+      <c r="W22" s="21"/>
+      <c r="X22" s="21"/>
+      <c r="Y22" s="21"/>
+      <c r="Z22" s="21"/>
+      <c r="AA22" s="21"/>
+      <c r="AB22" s="21"/>
+      <c r="AC22" s="21"/>
+      <c r="AD22" s="21"/>
+      <c r="AE22" s="21"/>
+      <c r="AF22" s="21"/>
+      <c r="AG22" s="21"/>
       <c r="AH22" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="AI22" s="20"/>
+      <c r="AI22" s="21"/>
     </row>
     <row r="23" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B23" s="6" t="str">
         <f aca="false">Populations!$C$4</f>
         <v>F 15-49</v>
       </c>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="20"/>
-      <c r="M23" s="20"/>
-      <c r="N23" s="20"/>
-      <c r="O23" s="20"/>
-      <c r="P23" s="20"/>
-      <c r="Q23" s="20" t="n">
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="21"/>
+      <c r="O23" s="21"/>
+      <c r="P23" s="21"/>
+      <c r="Q23" s="21" t="n">
         <v>0</v>
       </c>
-      <c r="R23" s="20"/>
-      <c r="S23" s="20"/>
-      <c r="T23" s="20"/>
-      <c r="U23" s="20"/>
-      <c r="V23" s="20"/>
-      <c r="W23" s="20"/>
-      <c r="X23" s="20"/>
-      <c r="Y23" s="20"/>
-      <c r="Z23" s="20"/>
-      <c r="AA23" s="20"/>
-      <c r="AB23" s="20"/>
-      <c r="AC23" s="20"/>
-      <c r="AD23" s="20"/>
-      <c r="AE23" s="20"/>
-      <c r="AF23" s="20"/>
-      <c r="AG23" s="20"/>
+      <c r="R23" s="21"/>
+      <c r="S23" s="21"/>
+      <c r="T23" s="21"/>
+      <c r="U23" s="21"/>
+      <c r="V23" s="21"/>
+      <c r="W23" s="21"/>
+      <c r="X23" s="21"/>
+      <c r="Y23" s="21"/>
+      <c r="Z23" s="21"/>
+      <c r="AA23" s="21"/>
+      <c r="AB23" s="21"/>
+      <c r="AC23" s="21"/>
+      <c r="AD23" s="21"/>
+      <c r="AE23" s="21"/>
+      <c r="AF23" s="21"/>
+      <c r="AG23" s="21"/>
       <c r="AH23" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="AI23" s="20"/>
+      <c r="AI23" s="21"/>
     </row>
     <row r="27" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
@@ -9067,41 +9067,41 @@
       <c r="B41" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C41" s="20"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="20"/>
-      <c r="H41" s="20"/>
-      <c r="I41" s="20"/>
-      <c r="J41" s="20"/>
-      <c r="K41" s="20"/>
-      <c r="L41" s="20"/>
-      <c r="M41" s="20"/>
-      <c r="N41" s="20"/>
-      <c r="O41" s="20"/>
-      <c r="P41" s="20"/>
-      <c r="Q41" s="20"/>
-      <c r="R41" s="20"/>
-      <c r="S41" s="20"/>
-      <c r="T41" s="20"/>
-      <c r="U41" s="20"/>
-      <c r="V41" s="20"/>
-      <c r="W41" s="20"/>
-      <c r="X41" s="20"/>
-      <c r="Y41" s="20"/>
-      <c r="Z41" s="20"/>
-      <c r="AA41" s="20"/>
-      <c r="AB41" s="20"/>
-      <c r="AC41" s="20"/>
-      <c r="AD41" s="20"/>
-      <c r="AE41" s="20"/>
-      <c r="AF41" s="20"/>
-      <c r="AG41" s="20"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="21"/>
+      <c r="I41" s="21"/>
+      <c r="J41" s="21"/>
+      <c r="K41" s="21"/>
+      <c r="L41" s="21"/>
+      <c r="M41" s="21"/>
+      <c r="N41" s="21"/>
+      <c r="O41" s="21"/>
+      <c r="P41" s="21"/>
+      <c r="Q41" s="21"/>
+      <c r="R41" s="21"/>
+      <c r="S41" s="21"/>
+      <c r="T41" s="21"/>
+      <c r="U41" s="21"/>
+      <c r="V41" s="21"/>
+      <c r="W41" s="21"/>
+      <c r="X41" s="21"/>
+      <c r="Y41" s="21"/>
+      <c r="Z41" s="21"/>
+      <c r="AA41" s="21"/>
+      <c r="AB41" s="21"/>
+      <c r="AC41" s="21"/>
+      <c r="AD41" s="21"/>
+      <c r="AE41" s="21"/>
+      <c r="AF41" s="21"/>
+      <c r="AG41" s="21"/>
       <c r="AH41" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="AI41" s="22" t="n">
+      <c r="AI41" s="23" t="n">
         <f aca="false">14/100*87/100</f>
         <v>0.1218</v>
       </c>
@@ -9132,8 +9132,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="35" min="1" style="0" width="22.5867346938776"/>
-    <col collapsed="false" hidden="false" max="1025" min="36" style="0" width="19.265306122449"/>
+    <col collapsed="false" hidden="false" max="35" min="1" style="0" width="24.3061224489796"/>
+    <col collapsed="false" hidden="false" max="1025" min="36" style="0" width="20.7551020408163"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9278,7 +9278,7 @@
       <c r="AH3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="AI3" s="23" t="n">
+      <c r="AI3" s="24" t="n">
         <v>100</v>
       </c>
     </row>
@@ -9321,7 +9321,7 @@
       <c r="AH4" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="AI4" s="23" t="n">
+      <c r="AI4" s="24" t="n">
         <v>100</v>
       </c>
     </row>
@@ -9467,7 +9467,7 @@
       <c r="AH10" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="AI10" s="23" t="n">
+      <c r="AI10" s="24" t="n">
         <f aca="false">0.2*3*20</f>
         <v>12</v>
       </c>
@@ -9511,7 +9511,7 @@
       <c r="AH11" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="AI11" s="23" t="n">
+      <c r="AI11" s="24" t="n">
         <f aca="false">0.1*3*20</f>
         <v>6</v>
       </c>
@@ -9813,41 +9813,41 @@
         <f aca="false">Populations!$C$3</f>
         <v>M 15-49</v>
       </c>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="20"/>
-      <c r="L24" s="20"/>
-      <c r="M24" s="20"/>
-      <c r="N24" s="20"/>
-      <c r="O24" s="20"/>
-      <c r="P24" s="20"/>
-      <c r="Q24" s="20"/>
-      <c r="R24" s="20"/>
-      <c r="S24" s="20"/>
-      <c r="T24" s="20"/>
-      <c r="U24" s="20"/>
-      <c r="V24" s="20"/>
-      <c r="W24" s="20"/>
-      <c r="X24" s="20"/>
-      <c r="Y24" s="20"/>
-      <c r="Z24" s="20"/>
-      <c r="AA24" s="20"/>
-      <c r="AB24" s="20"/>
-      <c r="AC24" s="20"/>
-      <c r="AD24" s="20"/>
-      <c r="AE24" s="20"/>
-      <c r="AF24" s="20"/>
-      <c r="AG24" s="20"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="21"/>
+      <c r="O24" s="21"/>
+      <c r="P24" s="21"/>
+      <c r="Q24" s="21"/>
+      <c r="R24" s="21"/>
+      <c r="S24" s="21"/>
+      <c r="T24" s="21"/>
+      <c r="U24" s="21"/>
+      <c r="V24" s="21"/>
+      <c r="W24" s="21"/>
+      <c r="X24" s="21"/>
+      <c r="Y24" s="21"/>
+      <c r="Z24" s="21"/>
+      <c r="AA24" s="21"/>
+      <c r="AB24" s="21"/>
+      <c r="AC24" s="21"/>
+      <c r="AD24" s="21"/>
+      <c r="AE24" s="21"/>
+      <c r="AF24" s="21"/>
+      <c r="AG24" s="21"/>
       <c r="AH24" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="AI24" s="24" t="n">
+      <c r="AI24" s="25" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -9856,41 +9856,41 @@
         <f aca="false">Populations!$C$4</f>
         <v>F 15-49</v>
       </c>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="20"/>
-      <c r="M25" s="20"/>
-      <c r="N25" s="20"/>
-      <c r="O25" s="20"/>
-      <c r="P25" s="20"/>
-      <c r="Q25" s="20"/>
-      <c r="R25" s="20"/>
-      <c r="S25" s="20"/>
-      <c r="T25" s="20"/>
-      <c r="U25" s="20"/>
-      <c r="V25" s="20"/>
-      <c r="W25" s="20"/>
-      <c r="X25" s="20"/>
-      <c r="Y25" s="20"/>
-      <c r="Z25" s="20"/>
-      <c r="AA25" s="20"/>
-      <c r="AB25" s="20"/>
-      <c r="AC25" s="20"/>
-      <c r="AD25" s="20"/>
-      <c r="AE25" s="20"/>
-      <c r="AF25" s="20"/>
-      <c r="AG25" s="20"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="21"/>
+      <c r="O25" s="21"/>
+      <c r="P25" s="21"/>
+      <c r="Q25" s="21"/>
+      <c r="R25" s="21"/>
+      <c r="S25" s="21"/>
+      <c r="T25" s="21"/>
+      <c r="U25" s="21"/>
+      <c r="V25" s="21"/>
+      <c r="W25" s="21"/>
+      <c r="X25" s="21"/>
+      <c r="Y25" s="21"/>
+      <c r="Z25" s="21"/>
+      <c r="AA25" s="21"/>
+      <c r="AB25" s="21"/>
+      <c r="AC25" s="21"/>
+      <c r="AD25" s="21"/>
+      <c r="AE25" s="21"/>
+      <c r="AF25" s="21"/>
+      <c r="AG25" s="21"/>
       <c r="AH25" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="AI25" s="24" t="n">
+      <c r="AI25" s="25" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -10002,41 +10002,41 @@
         <f aca="false">Populations!$C$3</f>
         <v>M 15-49</v>
       </c>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="20"/>
-      <c r="K31" s="20"/>
-      <c r="L31" s="20"/>
-      <c r="M31" s="20"/>
-      <c r="N31" s="20"/>
-      <c r="O31" s="20"/>
-      <c r="P31" s="20"/>
-      <c r="Q31" s="20"/>
-      <c r="R31" s="20"/>
-      <c r="S31" s="20"/>
-      <c r="T31" s="20"/>
-      <c r="U31" s="20"/>
-      <c r="V31" s="20"/>
-      <c r="W31" s="20"/>
-      <c r="X31" s="20"/>
-      <c r="Y31" s="20"/>
-      <c r="Z31" s="20"/>
-      <c r="AA31" s="20"/>
-      <c r="AB31" s="20"/>
-      <c r="AC31" s="20"/>
-      <c r="AD31" s="20"/>
-      <c r="AE31" s="20"/>
-      <c r="AF31" s="20"/>
-      <c r="AG31" s="20"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="21"/>
+      <c r="M31" s="21"/>
+      <c r="N31" s="21"/>
+      <c r="O31" s="21"/>
+      <c r="P31" s="21"/>
+      <c r="Q31" s="21"/>
+      <c r="R31" s="21"/>
+      <c r="S31" s="21"/>
+      <c r="T31" s="21"/>
+      <c r="U31" s="21"/>
+      <c r="V31" s="21"/>
+      <c r="W31" s="21"/>
+      <c r="X31" s="21"/>
+      <c r="Y31" s="21"/>
+      <c r="Z31" s="21"/>
+      <c r="AA31" s="21"/>
+      <c r="AB31" s="21"/>
+      <c r="AC31" s="21"/>
+      <c r="AD31" s="21"/>
+      <c r="AE31" s="21"/>
+      <c r="AF31" s="21"/>
+      <c r="AG31" s="21"/>
       <c r="AH31" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="AI31" s="20" t="n">
+      <c r="AI31" s="21" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -10045,41 +10045,41 @@
         <f aca="false">Populations!$C$4</f>
         <v>F 15-49</v>
       </c>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="20"/>
-      <c r="K32" s="20"/>
-      <c r="L32" s="20"/>
-      <c r="M32" s="20"/>
-      <c r="N32" s="20"/>
-      <c r="O32" s="20"/>
-      <c r="P32" s="20"/>
-      <c r="Q32" s="20"/>
-      <c r="R32" s="20"/>
-      <c r="S32" s="20"/>
-      <c r="T32" s="20"/>
-      <c r="U32" s="20"/>
-      <c r="V32" s="20"/>
-      <c r="W32" s="20"/>
-      <c r="X32" s="20"/>
-      <c r="Y32" s="20"/>
-      <c r="Z32" s="20"/>
-      <c r="AA32" s="20"/>
-      <c r="AB32" s="20"/>
-      <c r="AC32" s="20"/>
-      <c r="AD32" s="20"/>
-      <c r="AE32" s="20"/>
-      <c r="AF32" s="20"/>
-      <c r="AG32" s="20"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="21"/>
+      <c r="L32" s="21"/>
+      <c r="M32" s="21"/>
+      <c r="N32" s="21"/>
+      <c r="O32" s="21"/>
+      <c r="P32" s="21"/>
+      <c r="Q32" s="21"/>
+      <c r="R32" s="21"/>
+      <c r="S32" s="21"/>
+      <c r="T32" s="21"/>
+      <c r="U32" s="21"/>
+      <c r="V32" s="21"/>
+      <c r="W32" s="21"/>
+      <c r="X32" s="21"/>
+      <c r="Y32" s="21"/>
+      <c r="Z32" s="21"/>
+      <c r="AA32" s="21"/>
+      <c r="AB32" s="21"/>
+      <c r="AC32" s="21"/>
+      <c r="AD32" s="21"/>
+      <c r="AE32" s="21"/>
+      <c r="AF32" s="21"/>
+      <c r="AG32" s="21"/>
       <c r="AH32" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="AI32" s="20" t="n">
+      <c r="AI32" s="21" t="n">
         <v>0.4</v>
       </c>
     </row>
@@ -10191,41 +10191,41 @@
         <f aca="false">Populations!$C$3</f>
         <v>M 15-49</v>
       </c>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="20"/>
-      <c r="I38" s="20"/>
-      <c r="J38" s="20"/>
-      <c r="K38" s="20"/>
-      <c r="L38" s="20"/>
-      <c r="M38" s="20"/>
-      <c r="N38" s="20"/>
-      <c r="O38" s="20"/>
-      <c r="P38" s="20"/>
-      <c r="Q38" s="20"/>
-      <c r="R38" s="20"/>
-      <c r="S38" s="20"/>
-      <c r="T38" s="20"/>
-      <c r="U38" s="20"/>
-      <c r="V38" s="20"/>
-      <c r="W38" s="20"/>
-      <c r="X38" s="20"/>
-      <c r="Y38" s="20"/>
-      <c r="Z38" s="20"/>
-      <c r="AA38" s="20"/>
-      <c r="AB38" s="20"/>
-      <c r="AC38" s="20"/>
-      <c r="AD38" s="20"/>
-      <c r="AE38" s="20"/>
-      <c r="AF38" s="20"/>
-      <c r="AG38" s="20"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="21"/>
+      <c r="J38" s="21"/>
+      <c r="K38" s="21"/>
+      <c r="L38" s="21"/>
+      <c r="M38" s="21"/>
+      <c r="N38" s="21"/>
+      <c r="O38" s="21"/>
+      <c r="P38" s="21"/>
+      <c r="Q38" s="21"/>
+      <c r="R38" s="21"/>
+      <c r="S38" s="21"/>
+      <c r="T38" s="21"/>
+      <c r="U38" s="21"/>
+      <c r="V38" s="21"/>
+      <c r="W38" s="21"/>
+      <c r="X38" s="21"/>
+      <c r="Y38" s="21"/>
+      <c r="Z38" s="21"/>
+      <c r="AA38" s="21"/>
+      <c r="AB38" s="21"/>
+      <c r="AC38" s="21"/>
+      <c r="AD38" s="21"/>
+      <c r="AE38" s="21"/>
+      <c r="AF38" s="21"/>
+      <c r="AG38" s="21"/>
       <c r="AH38" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="AI38" s="25" t="n">
+      <c r="AI38" s="26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10234,41 +10234,41 @@
         <f aca="false">Populations!$C$4</f>
         <v>F 15-49</v>
       </c>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="20"/>
-      <c r="H39" s="20"/>
-      <c r="I39" s="20"/>
-      <c r="J39" s="20"/>
-      <c r="K39" s="20"/>
-      <c r="L39" s="20"/>
-      <c r="M39" s="20"/>
-      <c r="N39" s="20"/>
-      <c r="O39" s="20"/>
-      <c r="P39" s="20"/>
-      <c r="Q39" s="20"/>
-      <c r="R39" s="20"/>
-      <c r="S39" s="20"/>
-      <c r="T39" s="20"/>
-      <c r="U39" s="20"/>
-      <c r="V39" s="20"/>
-      <c r="W39" s="20"/>
-      <c r="X39" s="20"/>
-      <c r="Y39" s="20"/>
-      <c r="Z39" s="20"/>
-      <c r="AA39" s="20"/>
-      <c r="AB39" s="20"/>
-      <c r="AC39" s="20"/>
-      <c r="AD39" s="20"/>
-      <c r="AE39" s="20"/>
-      <c r="AF39" s="20"/>
-      <c r="AG39" s="20"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="21"/>
+      <c r="J39" s="21"/>
+      <c r="K39" s="21"/>
+      <c r="L39" s="21"/>
+      <c r="M39" s="21"/>
+      <c r="N39" s="21"/>
+      <c r="O39" s="21"/>
+      <c r="P39" s="21"/>
+      <c r="Q39" s="21"/>
+      <c r="R39" s="21"/>
+      <c r="S39" s="21"/>
+      <c r="T39" s="21"/>
+      <c r="U39" s="21"/>
+      <c r="V39" s="21"/>
+      <c r="W39" s="21"/>
+      <c r="X39" s="21"/>
+      <c r="Y39" s="21"/>
+      <c r="Z39" s="21"/>
+      <c r="AA39" s="21"/>
+      <c r="AB39" s="21"/>
+      <c r="AC39" s="21"/>
+      <c r="AD39" s="21"/>
+      <c r="AE39" s="21"/>
+      <c r="AF39" s="21"/>
+      <c r="AG39" s="21"/>
       <c r="AH39" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="AI39" s="24" t="n">
+      <c r="AI39" s="25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10380,41 +10380,41 @@
         <f aca="false">Populations!$C$3</f>
         <v>M 15-49</v>
       </c>
-      <c r="C45" s="20"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="20"/>
-      <c r="G45" s="20"/>
-      <c r="H45" s="20"/>
-      <c r="I45" s="20"/>
-      <c r="J45" s="20"/>
-      <c r="K45" s="20"/>
-      <c r="L45" s="20"/>
-      <c r="M45" s="20"/>
-      <c r="N45" s="20"/>
-      <c r="O45" s="20"/>
-      <c r="P45" s="20"/>
-      <c r="Q45" s="20"/>
-      <c r="R45" s="20"/>
-      <c r="S45" s="20"/>
-      <c r="T45" s="20"/>
-      <c r="U45" s="20"/>
-      <c r="V45" s="20"/>
-      <c r="W45" s="20"/>
-      <c r="X45" s="20"/>
-      <c r="Y45" s="20"/>
-      <c r="Z45" s="20"/>
-      <c r="AA45" s="20"/>
-      <c r="AB45" s="20"/>
-      <c r="AC45" s="20"/>
-      <c r="AD45" s="20"/>
-      <c r="AE45" s="20"/>
-      <c r="AF45" s="20"/>
-      <c r="AG45" s="20"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="21"/>
+      <c r="H45" s="21"/>
+      <c r="I45" s="21"/>
+      <c r="J45" s="21"/>
+      <c r="K45" s="21"/>
+      <c r="L45" s="21"/>
+      <c r="M45" s="21"/>
+      <c r="N45" s="21"/>
+      <c r="O45" s="21"/>
+      <c r="P45" s="21"/>
+      <c r="Q45" s="21"/>
+      <c r="R45" s="21"/>
+      <c r="S45" s="21"/>
+      <c r="T45" s="21"/>
+      <c r="U45" s="21"/>
+      <c r="V45" s="21"/>
+      <c r="W45" s="21"/>
+      <c r="X45" s="21"/>
+      <c r="Y45" s="21"/>
+      <c r="Z45" s="21"/>
+      <c r="AA45" s="21"/>
+      <c r="AB45" s="21"/>
+      <c r="AC45" s="21"/>
+      <c r="AD45" s="21"/>
+      <c r="AE45" s="21"/>
+      <c r="AF45" s="21"/>
+      <c r="AG45" s="21"/>
       <c r="AH45" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="AI45" s="24" t="n">
+      <c r="AI45" s="25" t="n">
         <v>0.1</v>
       </c>
     </row>
